--- a/StudentsN35.xlsx
+++ b/StudentsN35.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Belgeler\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Masaüstü\IE400_Question3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43FAC57-82CD-481F-B745-F72E883F2715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCEDAD-A9C4-4582-BAA4-B6E63B528114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{40030E60-FC12-4640-BD9B-52333701910A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2FCA3223-CC94-4801-B6CB-9819BC9AD074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="2">
   <si>
     <t>professor</t>
   </si>
   <si>
     <t>Students</t>
-  </si>
-  <si>
-    <t>Student</t>
   </si>
 </sst>
 </file>
@@ -394,20 +391,3983 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A4D931-E712-43A0-9A44-B76BA41E32A3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75B8F29-5B69-4B0F-B760-4F434E1D1994}">
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AJ36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <v>205.03225806451613</v>
+      </c>
+      <c r="C1">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="D1">
+        <v>193.62903225806451</v>
+      </c>
+      <c r="E1">
+        <v>201.25</v>
+      </c>
+      <c r="F1">
+        <v>214.29032258064515</v>
+      </c>
+      <c r="G1">
+        <v>200.4758064516129</v>
+      </c>
+      <c r="H1">
+        <v>194.41935483870967</v>
+      </c>
+      <c r="I1">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="J1">
+        <v>204.20967741935485</v>
+      </c>
+      <c r="K1">
+        <v>194.10483870967741</v>
+      </c>
+      <c r="L1">
+        <v>197.9758064516129</v>
+      </c>
+      <c r="M1">
+        <v>202.25806451612902</v>
+      </c>
+      <c r="N1">
+        <v>204.56451612903226</v>
+      </c>
+      <c r="O1">
+        <v>204.65322580645162</v>
+      </c>
+      <c r="P1">
+        <v>203.5241935483871</v>
+      </c>
+      <c r="Q1">
+        <v>208.60483870967741</v>
+      </c>
+      <c r="R1">
+        <v>191.36290322580646</v>
+      </c>
+      <c r="S1">
+        <v>195.09677419354838</v>
+      </c>
+      <c r="T1">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="U1">
+        <v>202.48387096774192</v>
+      </c>
+      <c r="V1">
+        <v>195.84677419354838</v>
+      </c>
+      <c r="W1">
+        <v>192.49193548387098</v>
+      </c>
+      <c r="X1">
+        <v>197.62903225806451</v>
+      </c>
+      <c r="Y1">
+        <v>197.14516129032259</v>
+      </c>
+      <c r="Z1">
+        <v>194.88709677419354</v>
+      </c>
+      <c r="AA1">
+        <v>201.87903225806451</v>
+      </c>
+      <c r="AB1">
+        <v>198.91935483870967</v>
+      </c>
+      <c r="AC1">
+        <v>191.09677419354838</v>
+      </c>
+      <c r="AD1">
+        <v>208.76612903225808</v>
+      </c>
+      <c r="AE1">
+        <v>195.65322580645162</v>
+      </c>
+      <c r="AF1">
+        <v>201.65322580645162</v>
+      </c>
+      <c r="AG1">
+        <v>199.03225806451613</v>
+      </c>
+      <c r="AH1">
+        <v>193.86290322580646</v>
+      </c>
+      <c r="AI1">
+        <v>200.54032258064515</v>
+      </c>
+      <c r="AJ1">
+        <v>198.43548387096774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>205.03225806451613</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>203.59677419354838</v>
+      </c>
+      <c r="D2">
+        <v>191.84677419354838</v>
+      </c>
+      <c r="E2">
+        <v>200.93548387096774</v>
+      </c>
+      <c r="F2">
+        <v>194.70967741935485</v>
+      </c>
+      <c r="G2">
+        <v>197.33870967741936</v>
+      </c>
+      <c r="H2">
+        <v>202.30645161290323</v>
+      </c>
+      <c r="I2">
+        <v>200.70161290322579</v>
+      </c>
+      <c r="J2">
+        <v>196.48387096774192</v>
+      </c>
+      <c r="K2">
+        <v>202.43548387096774</v>
+      </c>
+      <c r="L2">
+        <v>197.84677419354838</v>
+      </c>
+      <c r="M2">
+        <v>204.66935483870967</v>
+      </c>
+      <c r="N2">
+        <v>209.24193548387098</v>
+      </c>
+      <c r="O2">
+        <v>205.90322580645162</v>
+      </c>
+      <c r="P2">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="Q2">
+        <v>197</v>
+      </c>
+      <c r="R2">
+        <v>203.58870967741936</v>
+      </c>
+      <c r="S2">
+        <v>207.11290322580646</v>
+      </c>
+      <c r="T2">
+        <v>208.12096774193549</v>
+      </c>
+      <c r="U2">
+        <v>195.56451612903226</v>
+      </c>
+      <c r="V2">
+        <v>189.34677419354838</v>
+      </c>
+      <c r="W2">
+        <v>199.62096774193549</v>
+      </c>
+      <c r="X2">
+        <v>197.26612903225808</v>
+      </c>
+      <c r="Y2">
+        <v>206.69354838709677</v>
+      </c>
+      <c r="Z2">
+        <v>208.14516129032259</v>
+      </c>
+      <c r="AA2">
+        <v>201.81451612903226</v>
+      </c>
+      <c r="AB2">
+        <v>200.24193548387098</v>
+      </c>
+      <c r="AC2">
+        <v>194.87903225806451</v>
+      </c>
+      <c r="AD2">
+        <v>202.59677419354838</v>
+      </c>
+      <c r="AE2">
+        <v>201.2741935483871</v>
+      </c>
+      <c r="AF2">
+        <v>196.78225806451613</v>
+      </c>
+      <c r="AG2">
+        <v>206.36290322580646</v>
+      </c>
+      <c r="AH2">
+        <v>206.56451612903226</v>
+      </c>
+      <c r="AI2">
+        <v>198.53225806451613</v>
+      </c>
+      <c r="AJ2">
+        <v>196.23387096774192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="B3">
+        <v>203.59677419354838</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="E3">
+        <v>201.83870967741936</v>
+      </c>
+      <c r="F3">
+        <v>198.29032258064515</v>
+      </c>
+      <c r="G3">
+        <v>199.7741935483871</v>
+      </c>
+      <c r="H3">
+        <v>202.83064516129033</v>
+      </c>
+      <c r="I3">
+        <v>199.11290322580646</v>
+      </c>
+      <c r="J3">
+        <v>202</v>
+      </c>
+      <c r="K3">
+        <v>195.39516129032259</v>
+      </c>
+      <c r="L3">
+        <v>202.83064516129033</v>
+      </c>
+      <c r="M3">
+        <v>195.41935483870967</v>
+      </c>
+      <c r="N3">
+        <v>202.66129032258064</v>
+      </c>
+      <c r="O3">
+        <v>203.78225806451613</v>
+      </c>
+      <c r="P3">
+        <v>196.21774193548387</v>
+      </c>
+      <c r="Q3">
+        <v>203.70967741935485</v>
+      </c>
+      <c r="R3">
+        <v>203.33064516129033</v>
+      </c>
+      <c r="S3">
+        <v>208.68548387096774</v>
+      </c>
+      <c r="T3">
+        <v>198.10483870967741</v>
+      </c>
+      <c r="U3">
+        <v>198.75</v>
+      </c>
+      <c r="V3">
+        <v>203.08064516129033</v>
+      </c>
+      <c r="W3">
+        <v>193.46774193548387</v>
+      </c>
+      <c r="X3">
+        <v>202.12903225806451</v>
+      </c>
+      <c r="Y3">
+        <v>195.91935483870967</v>
+      </c>
+      <c r="Z3">
+        <v>202.88709677419354</v>
+      </c>
+      <c r="AA3">
+        <v>199.75806451612902</v>
+      </c>
+      <c r="AB3">
+        <v>210.06451612903226</v>
+      </c>
+      <c r="AC3">
+        <v>195.79032258064515</v>
+      </c>
+      <c r="AD3">
+        <v>190.74193548387098</v>
+      </c>
+      <c r="AE3">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="AF3">
+        <v>208.55645161290323</v>
+      </c>
+      <c r="AG3">
+        <v>195.19354838709677</v>
+      </c>
+      <c r="AH3">
+        <v>199.20161290322579</v>
+      </c>
+      <c r="AI3">
+        <v>201.63709677419354</v>
+      </c>
+      <c r="AJ3">
+        <v>197.11290322580646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>193.62903225806451</v>
+      </c>
+      <c r="B4">
+        <v>191.84677419354838</v>
+      </c>
+      <c r="C4">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>201.01612903225808</v>
+      </c>
+      <c r="F4">
+        <v>198.68548387096774</v>
+      </c>
+      <c r="G4">
+        <v>201.41129032258064</v>
+      </c>
+      <c r="H4">
+        <v>191.68548387096774</v>
+      </c>
+      <c r="I4">
+        <v>204.55645161290323</v>
+      </c>
+      <c r="J4">
+        <v>202.16129032258064</v>
+      </c>
+      <c r="K4">
+        <v>202.68548387096774</v>
+      </c>
+      <c r="L4">
+        <v>196.94354838709677</v>
+      </c>
+      <c r="M4">
+        <v>204.75</v>
+      </c>
+      <c r="N4">
+        <v>201.64516129032259</v>
+      </c>
+      <c r="O4">
+        <v>198.08064516129033</v>
+      </c>
+      <c r="P4">
+        <v>199</v>
+      </c>
+      <c r="Q4">
+        <v>199.29032258064515</v>
+      </c>
+      <c r="R4">
+        <v>202.58870967741936</v>
+      </c>
+      <c r="S4">
+        <v>196.14516129032259</v>
+      </c>
+      <c r="T4">
+        <v>191.83870967741936</v>
+      </c>
+      <c r="U4">
+        <v>206.7741935483871</v>
+      </c>
+      <c r="V4">
+        <v>204.51612903225808</v>
+      </c>
+      <c r="W4">
+        <v>200.59677419354838</v>
+      </c>
+      <c r="X4">
+        <v>199.57258064516128</v>
+      </c>
+      <c r="Y4">
+        <v>198.40322580645162</v>
+      </c>
+      <c r="Z4">
+        <v>191.4758064516129</v>
+      </c>
+      <c r="AA4">
+        <v>205.91935483870967</v>
+      </c>
+      <c r="AB4">
+        <v>200.43548387096774</v>
+      </c>
+      <c r="AC4">
+        <v>198.64516129032259</v>
+      </c>
+      <c r="AD4">
+        <v>203.83870967741936</v>
+      </c>
+      <c r="AE4">
+        <v>201.90322580645162</v>
+      </c>
+      <c r="AF4">
+        <v>197.0241935483871</v>
+      </c>
+      <c r="AG4">
+        <v>199.75</v>
+      </c>
+      <c r="AH4">
+        <v>208.23387096774192</v>
+      </c>
+      <c r="AI4">
+        <v>193.90322580645162</v>
+      </c>
+      <c r="AJ4">
+        <v>200.65322580645162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>201.25</v>
+      </c>
+      <c r="B5">
+        <v>200.93548387096774</v>
+      </c>
+      <c r="C5">
+        <v>201.83870967741936</v>
+      </c>
+      <c r="D5">
+        <v>201.01612903225808</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>195.31451612903226</v>
+      </c>
+      <c r="G5">
+        <v>193.51612903225808</v>
+      </c>
+      <c r="H5">
+        <v>191.21774193548387</v>
+      </c>
+      <c r="I5">
+        <v>206.87903225806451</v>
+      </c>
+      <c r="J5">
+        <v>202.03225806451613</v>
+      </c>
+      <c r="K5">
+        <v>196.48387096774192</v>
+      </c>
+      <c r="L5">
+        <v>195.46774193548387</v>
+      </c>
+      <c r="M5">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="N5">
+        <v>211.11290322580646</v>
+      </c>
+      <c r="O5">
+        <v>203.82258064516128</v>
+      </c>
+      <c r="P5">
+        <v>200.71774193548387</v>
+      </c>
+      <c r="Q5">
+        <v>195.93548387096774</v>
+      </c>
+      <c r="R5">
+        <v>202.25806451612902</v>
+      </c>
+      <c r="S5">
+        <v>197.41129032258064</v>
+      </c>
+      <c r="T5">
+        <v>192.75806451612902</v>
+      </c>
+      <c r="U5">
+        <v>195.87903225806451</v>
+      </c>
+      <c r="V5">
+        <v>200.84677419354838</v>
+      </c>
+      <c r="W5">
+        <v>201.83870967741936</v>
+      </c>
+      <c r="X5">
+        <v>204.18548387096774</v>
+      </c>
+      <c r="Y5">
+        <v>193.45967741935485</v>
+      </c>
+      <c r="Z5">
+        <v>203.74193548387098</v>
+      </c>
+      <c r="AA5">
+        <v>200.30645161290323</v>
+      </c>
+      <c r="AB5">
+        <v>199.16129032258064</v>
+      </c>
+      <c r="AC5">
+        <v>209.88709677419354</v>
+      </c>
+      <c r="AD5">
+        <v>206.03225806451613</v>
+      </c>
+      <c r="AE5">
+        <v>201.2741935483871</v>
+      </c>
+      <c r="AF5">
+        <v>196.96774193548387</v>
+      </c>
+      <c r="AG5">
+        <v>197.12903225806451</v>
+      </c>
+      <c r="AH5">
+        <v>192.19354838709677</v>
+      </c>
+      <c r="AI5">
+        <v>201.57258064516128</v>
+      </c>
+      <c r="AJ5">
+        <v>201.50806451612902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>214.29032258064515</v>
+      </c>
+      <c r="B6">
+        <v>194.70967741935485</v>
+      </c>
+      <c r="C6">
+        <v>198.29032258064515</v>
+      </c>
+      <c r="D6">
+        <v>198.68548387096774</v>
+      </c>
+      <c r="E6">
+        <v>195.31451612903226</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>203.08064516129033</v>
+      </c>
+      <c r="H6">
+        <v>193.38709677419354</v>
+      </c>
+      <c r="I6">
+        <v>205.91935483870967</v>
+      </c>
+      <c r="J6">
+        <v>200.30645161290323</v>
+      </c>
+      <c r="K6">
+        <v>197.62903225806451</v>
+      </c>
+      <c r="L6">
+        <v>194.01612903225808</v>
+      </c>
+      <c r="M6">
+        <v>203.51612903225808</v>
+      </c>
+      <c r="N6">
+        <v>210.62903225806451</v>
+      </c>
+      <c r="O6">
+        <v>192.79838709677421</v>
+      </c>
+      <c r="P6">
+        <v>199.74193548387098</v>
+      </c>
+      <c r="Q6">
+        <v>202.66935483870967</v>
+      </c>
+      <c r="R6">
+        <v>198.23387096774192</v>
+      </c>
+      <c r="S6">
+        <v>195.4758064516129</v>
+      </c>
+      <c r="T6">
+        <v>197.54032258064515</v>
+      </c>
+      <c r="U6">
+        <v>203.59677419354838</v>
+      </c>
+      <c r="V6">
+        <v>197.79838709677421</v>
+      </c>
+      <c r="W6">
+        <v>205.16935483870967</v>
+      </c>
+      <c r="X6">
+        <v>204.75</v>
+      </c>
+      <c r="Y6">
+        <v>196.4758064516129</v>
+      </c>
+      <c r="Z6">
+        <v>199.92741935483872</v>
+      </c>
+      <c r="AA6">
+        <v>198.12903225806451</v>
+      </c>
+      <c r="AB6">
+        <v>193.66129032258064</v>
+      </c>
+      <c r="AC6">
+        <v>208.23387096774192</v>
+      </c>
+      <c r="AD6">
+        <v>197.59677419354838</v>
+      </c>
+      <c r="AE6">
+        <v>195.83870967741936</v>
+      </c>
+      <c r="AF6">
+        <v>204.83064516129033</v>
+      </c>
+      <c r="AG6">
+        <v>196.16935483870967</v>
+      </c>
+      <c r="AH6">
+        <v>192.03225806451613</v>
+      </c>
+      <c r="AI6">
+        <v>207.06451612903226</v>
+      </c>
+      <c r="AJ6">
+        <v>204.05645161290323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>200.4758064516129</v>
+      </c>
+      <c r="B7">
+        <v>197.33870967741936</v>
+      </c>
+      <c r="C7">
+        <v>199.7741935483871</v>
+      </c>
+      <c r="D7">
+        <v>201.41129032258064</v>
+      </c>
+      <c r="E7">
+        <v>193.51612903225808</v>
+      </c>
+      <c r="F7">
+        <v>203.08064516129033</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>197.04032258064515</v>
+      </c>
+      <c r="I7">
+        <v>191.84677419354838</v>
+      </c>
+      <c r="J7">
+        <v>210.08064516129033</v>
+      </c>
+      <c r="K7">
+        <v>197.36290322580646</v>
+      </c>
+      <c r="L7">
+        <v>196.58870967741936</v>
+      </c>
+      <c r="M7">
+        <v>204.13709677419354</v>
+      </c>
+      <c r="N7">
+        <v>205.93548387096774</v>
+      </c>
+      <c r="O7">
+        <v>192.33870967741936</v>
+      </c>
+      <c r="P7">
+        <v>206.09677419354838</v>
+      </c>
+      <c r="Q7">
+        <v>202.53225806451613</v>
+      </c>
+      <c r="R7">
+        <v>203.05645161290323</v>
+      </c>
+      <c r="S7">
+        <v>204.57258064516128</v>
+      </c>
+      <c r="T7">
+        <v>194.28225806451613</v>
+      </c>
+      <c r="U7">
+        <v>207.30645161290323</v>
+      </c>
+      <c r="V7">
+        <v>203.63709677419354</v>
+      </c>
+      <c r="W7">
+        <v>197.95161290322579</v>
+      </c>
+      <c r="X7">
+        <v>200.18548387096774</v>
+      </c>
+      <c r="Y7">
+        <v>193.41129032258064</v>
+      </c>
+      <c r="Z7">
+        <v>198.75806451612902</v>
+      </c>
+      <c r="AA7">
+        <v>196.35483870967741</v>
+      </c>
+      <c r="AB7">
+        <v>194.70967741935485</v>
+      </c>
+      <c r="AC7">
+        <v>204.39516129032259</v>
+      </c>
+      <c r="AD7">
+        <v>195.25806451612902</v>
+      </c>
+      <c r="AE7">
+        <v>196.29838709677421</v>
+      </c>
+      <c r="AF7">
+        <v>188.65322580645162</v>
+      </c>
+      <c r="AG7">
+        <v>206.79838709677421</v>
+      </c>
+      <c r="AH7">
+        <v>190.2741935483871</v>
+      </c>
+      <c r="AI7">
+        <v>194.38709677419354</v>
+      </c>
+      <c r="AJ7">
+        <v>196.7258064516129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>194.41935483870967</v>
+      </c>
+      <c r="B8">
+        <v>202.30645161290323</v>
+      </c>
+      <c r="C8">
+        <v>202.83064516129033</v>
+      </c>
+      <c r="D8">
+        <v>191.68548387096774</v>
+      </c>
+      <c r="E8">
+        <v>191.21774193548387</v>
+      </c>
+      <c r="F8">
+        <v>193.38709677419354</v>
+      </c>
+      <c r="G8">
+        <v>197.04032258064515</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>209.96774193548387</v>
+      </c>
+      <c r="J8">
+        <v>208.74193548387098</v>
+      </c>
+      <c r="K8">
+        <v>202.37903225806451</v>
+      </c>
+      <c r="L8">
+        <v>200.09677419354838</v>
+      </c>
+      <c r="M8">
+        <v>203.49193548387098</v>
+      </c>
+      <c r="N8">
+        <v>194.17741935483872</v>
+      </c>
+      <c r="O8">
+        <v>208.42741935483872</v>
+      </c>
+      <c r="P8">
+        <v>188.7258064516129</v>
+      </c>
+      <c r="Q8">
+        <v>192.89516129032259</v>
+      </c>
+      <c r="R8">
+        <v>206.00806451612902</v>
+      </c>
+      <c r="S8">
+        <v>198.11290322580646</v>
+      </c>
+      <c r="T8">
+        <v>195.21774193548387</v>
+      </c>
+      <c r="U8">
+        <v>194.16129032258064</v>
+      </c>
+      <c r="V8">
+        <v>198.51612903225808</v>
+      </c>
+      <c r="W8">
+        <v>204.25806451612902</v>
+      </c>
+      <c r="X8">
+        <v>198.41935483870967</v>
+      </c>
+      <c r="Y8">
+        <v>200.5241935483871</v>
+      </c>
+      <c r="Z8">
+        <v>211.0241935483871</v>
+      </c>
+      <c r="AA8">
+        <v>202.20161290322579</v>
+      </c>
+      <c r="AB8">
+        <v>197.84677419354838</v>
+      </c>
+      <c r="AC8">
+        <v>197.55645161290323</v>
+      </c>
+      <c r="AD8">
+        <v>197.70967741935485</v>
+      </c>
+      <c r="AE8">
+        <v>201.11290322580646</v>
+      </c>
+      <c r="AF8">
+        <v>199.53225806451613</v>
+      </c>
+      <c r="AG8">
+        <v>200.12903225806451</v>
+      </c>
+      <c r="AH8">
+        <v>204.5241935483871</v>
+      </c>
+      <c r="AI8">
+        <v>194.55645161290323</v>
+      </c>
+      <c r="AJ8">
+        <v>203.03225806451613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="B9">
+        <v>200.70161290322579</v>
+      </c>
+      <c r="C9">
+        <v>199.11290322580646</v>
+      </c>
+      <c r="D9">
+        <v>204.55645161290323</v>
+      </c>
+      <c r="E9">
+        <v>206.87903225806451</v>
+      </c>
+      <c r="F9">
+        <v>205.91935483870967</v>
+      </c>
+      <c r="G9">
+        <v>191.84677419354838</v>
+      </c>
+      <c r="H9">
+        <v>209.96774193548387</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>202.64516129032259</v>
+      </c>
+      <c r="K9">
+        <v>195.03225806451613</v>
+      </c>
+      <c r="L9">
+        <v>205.73387096774192</v>
+      </c>
+      <c r="M9">
+        <v>198.83064516129033</v>
+      </c>
+      <c r="N9">
+        <v>205</v>
+      </c>
+      <c r="O9">
+        <v>207.79838709677421</v>
+      </c>
+      <c r="P9">
+        <v>188.68548387096774</v>
+      </c>
+      <c r="Q9">
+        <v>205.20161290322579</v>
+      </c>
+      <c r="R9">
+        <v>209.54838709677421</v>
+      </c>
+      <c r="S9">
+        <v>191.12903225806451</v>
+      </c>
+      <c r="T9">
+        <v>200.80645161290323</v>
+      </c>
+      <c r="U9">
+        <v>191.35483870967741</v>
+      </c>
+      <c r="V9">
+        <v>192.75</v>
+      </c>
+      <c r="W9">
+        <v>205.55645161290323</v>
+      </c>
+      <c r="X9">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="Y9">
+        <v>200.62096774193549</v>
+      </c>
+      <c r="Z9">
+        <v>208.26612903225808</v>
+      </c>
+      <c r="AA9">
+        <v>198.90322580645162</v>
+      </c>
+      <c r="AB9">
+        <v>187.59677419354838</v>
+      </c>
+      <c r="AC9">
+        <v>197.99193548387098</v>
+      </c>
+      <c r="AD9">
+        <v>201.76612903225808</v>
+      </c>
+      <c r="AE9">
+        <v>196.05645161290323</v>
+      </c>
+      <c r="AF9">
+        <v>193.58064516129033</v>
+      </c>
+      <c r="AG9">
+        <v>198.26612903225808</v>
+      </c>
+      <c r="AH9">
+        <v>192.94354838709677</v>
+      </c>
+      <c r="AI9">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="AJ9">
+        <v>197.31451612903226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>204.20967741935485</v>
+      </c>
+      <c r="B10">
+        <v>196.48387096774192</v>
+      </c>
+      <c r="C10">
+        <v>202</v>
+      </c>
+      <c r="D10">
+        <v>202.16129032258064</v>
+      </c>
+      <c r="E10">
+        <v>202.03225806451613</v>
+      </c>
+      <c r="F10">
+        <v>200.30645161290323</v>
+      </c>
+      <c r="G10">
+        <v>210.08064516129033</v>
+      </c>
+      <c r="H10">
+        <v>208.74193548387098</v>
+      </c>
+      <c r="I10">
+        <v>202.64516129032259</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <v>204.33870967741936</v>
+      </c>
+      <c r="L10">
+        <v>199.17741935483872</v>
+      </c>
+      <c r="M10">
+        <v>210.29838709677421</v>
+      </c>
+      <c r="N10">
+        <v>208.41935483870967</v>
+      </c>
+      <c r="O10">
+        <v>198.65322580645162</v>
+      </c>
+      <c r="P10">
+        <v>194.67741935483872</v>
+      </c>
+      <c r="Q10">
+        <v>196.66935483870967</v>
+      </c>
+      <c r="R10">
+        <v>192.45161290322579</v>
+      </c>
+      <c r="S10">
+        <v>200.61290322580646</v>
+      </c>
+      <c r="T10">
+        <v>195.58870967741936</v>
+      </c>
+      <c r="U10">
+        <v>203.7741935483871</v>
+      </c>
+      <c r="V10">
+        <v>206.06451612903226</v>
+      </c>
+      <c r="W10">
+        <v>199.9758064516129</v>
+      </c>
+      <c r="X10">
+        <v>195.4758064516129</v>
+      </c>
+      <c r="Y10">
+        <v>199.37903225806451</v>
+      </c>
+      <c r="Z10">
+        <v>196.87096774193549</v>
+      </c>
+      <c r="AA10">
+        <v>199.73387096774192</v>
+      </c>
+      <c r="AB10">
+        <v>193.10483870967741</v>
+      </c>
+      <c r="AC10">
+        <v>203.71774193548387</v>
+      </c>
+      <c r="AD10">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="AE10">
+        <v>195.24193548387098</v>
+      </c>
+      <c r="AF10">
+        <v>197.70967741935485</v>
+      </c>
+      <c r="AG10">
+        <v>201.70967741935485</v>
+      </c>
+      <c r="AH10">
+        <v>200.07258064516128</v>
+      </c>
+      <c r="AI10">
+        <v>200.23387096774192</v>
+      </c>
+      <c r="AJ10">
+        <v>195.2258064516129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>194.10483870967741</v>
+      </c>
+      <c r="B11">
+        <v>202.43548387096774</v>
+      </c>
+      <c r="C11">
+        <v>195.39516129032259</v>
+      </c>
+      <c r="D11">
+        <v>202.68548387096774</v>
+      </c>
+      <c r="E11">
+        <v>196.48387096774192</v>
+      </c>
+      <c r="F11">
+        <v>197.62903225806451</v>
+      </c>
+      <c r="G11">
+        <v>197.36290322580646</v>
+      </c>
+      <c r="H11">
+        <v>202.37903225806451</v>
+      </c>
+      <c r="I11">
+        <v>195.03225806451613</v>
+      </c>
+      <c r="J11">
+        <v>204.33870967741936</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>203.48387096774192</v>
+      </c>
+      <c r="M11">
+        <v>202.99193548387098</v>
+      </c>
+      <c r="N11">
+        <v>202.37903225806451</v>
+      </c>
+      <c r="O11">
+        <v>198.43548387096774</v>
+      </c>
+      <c r="P11">
+        <v>196.45161290322579</v>
+      </c>
+      <c r="Q11">
+        <v>206.76612903225808</v>
+      </c>
+      <c r="R11">
+        <v>192.87096774193549</v>
+      </c>
+      <c r="S11">
+        <v>203.19354838709677</v>
+      </c>
+      <c r="T11">
+        <v>195.5</v>
+      </c>
+      <c r="U11">
+        <v>207.20161290322579</v>
+      </c>
+      <c r="V11">
+        <v>197.5</v>
+      </c>
+      <c r="W11">
+        <v>201.12903225806451</v>
+      </c>
+      <c r="X11">
+        <v>197.46774193548387</v>
+      </c>
+      <c r="Y11">
+        <v>203.7258064516129</v>
+      </c>
+      <c r="Z11">
+        <v>196.87903225806451</v>
+      </c>
+      <c r="AA11">
+        <v>198.09677419354838</v>
+      </c>
+      <c r="AB11">
+        <v>212.28225806451613</v>
+      </c>
+      <c r="AC11">
+        <v>195.15322580645162</v>
+      </c>
+      <c r="AD11">
+        <v>201.70161290322579</v>
+      </c>
+      <c r="AE11">
+        <v>201.63709677419354</v>
+      </c>
+      <c r="AF11">
+        <v>196.17741935483872</v>
+      </c>
+      <c r="AG11">
+        <v>200.84677419354838</v>
+      </c>
+      <c r="AH11">
+        <v>206.13709677419354</v>
+      </c>
+      <c r="AI11">
+        <v>200.57258064516128</v>
+      </c>
+      <c r="AJ11">
+        <v>199.19354838709677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>197.9758064516129</v>
+      </c>
+      <c r="B12">
+        <v>197.84677419354838</v>
+      </c>
+      <c r="C12">
+        <v>202.83064516129033</v>
+      </c>
+      <c r="D12">
+        <v>196.94354838709677</v>
+      </c>
+      <c r="E12">
+        <v>195.46774193548387</v>
+      </c>
+      <c r="F12">
+        <v>194.01612903225808</v>
+      </c>
+      <c r="G12">
+        <v>196.58870967741936</v>
+      </c>
+      <c r="H12">
+        <v>200.09677419354838</v>
+      </c>
+      <c r="I12">
+        <v>205.73387096774192</v>
+      </c>
+      <c r="J12">
+        <v>199.17741935483872</v>
+      </c>
+      <c r="K12">
+        <v>203.48387096774192</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
+        <v>211.33870967741936</v>
+      </c>
+      <c r="N12">
+        <v>204.69354838709677</v>
+      </c>
+      <c r="O12">
+        <v>198.9758064516129</v>
+      </c>
+      <c r="P12">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="Q12">
+        <v>206.4758064516129</v>
+      </c>
+      <c r="R12">
+        <v>194.87903225806451</v>
+      </c>
+      <c r="S12">
+        <v>198.62096774193549</v>
+      </c>
+      <c r="T12">
+        <v>196.33064516129033</v>
+      </c>
+      <c r="U12">
+        <v>202.80645161290323</v>
+      </c>
+      <c r="V12">
+        <v>201.35483870967741</v>
+      </c>
+      <c r="W12">
+        <v>205.19354838709677</v>
+      </c>
+      <c r="X12">
+        <v>196.37903225806451</v>
+      </c>
+      <c r="Y12">
+        <v>201.61290322580646</v>
+      </c>
+      <c r="Z12">
+        <v>194.62096774193549</v>
+      </c>
+      <c r="AA12">
+        <v>192.48387096774192</v>
+      </c>
+      <c r="AB12">
+        <v>198.40322580645162</v>
+      </c>
+      <c r="AC12">
+        <v>197.32258064516128</v>
+      </c>
+      <c r="AD12">
+        <v>199.37903225806451</v>
+      </c>
+      <c r="AE12">
+        <v>201.87903225806451</v>
+      </c>
+      <c r="AF12">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="AG12">
+        <v>206.60483870967741</v>
+      </c>
+      <c r="AH12">
+        <v>199.94354838709677</v>
+      </c>
+      <c r="AI12">
+        <v>198.2741935483871</v>
+      </c>
+      <c r="AJ12">
+        <v>209.68548387096774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>202.25806451612902</v>
+      </c>
+      <c r="B13">
+        <v>204.66935483870967</v>
+      </c>
+      <c r="C13">
+        <v>195.41935483870967</v>
+      </c>
+      <c r="D13">
+        <v>204.75</v>
+      </c>
+      <c r="E13">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="F13">
+        <v>203.51612903225808</v>
+      </c>
+      <c r="G13">
+        <v>204.13709677419354</v>
+      </c>
+      <c r="H13">
+        <v>203.49193548387098</v>
+      </c>
+      <c r="I13">
+        <v>198.83064516129033</v>
+      </c>
+      <c r="J13">
+        <v>210.29838709677421</v>
+      </c>
+      <c r="K13">
+        <v>202.99193548387098</v>
+      </c>
+      <c r="L13">
+        <v>211.33870967741936</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>195.56451612903226</v>
+      </c>
+      <c r="O13">
+        <v>204.42741935483872</v>
+      </c>
+      <c r="P13">
+        <v>200.48387096774192</v>
+      </c>
+      <c r="Q13">
+        <v>200.7741935483871</v>
+      </c>
+      <c r="R13">
+        <v>206.18548387096774</v>
+      </c>
+      <c r="S13">
+        <v>201</v>
+      </c>
+      <c r="T13">
+        <v>195.57258064516128</v>
+      </c>
+      <c r="U13">
+        <v>205.12096774193549</v>
+      </c>
+      <c r="V13">
+        <v>196.85483870967741</v>
+      </c>
+      <c r="W13">
+        <v>205.7258064516129</v>
+      </c>
+      <c r="X13">
+        <v>199.44354838709677</v>
+      </c>
+      <c r="Y13">
+        <v>206.12903225806451</v>
+      </c>
+      <c r="Z13">
+        <v>193.83870967741936</v>
+      </c>
+      <c r="AA13">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="AB13">
+        <v>206.34677419354838</v>
+      </c>
+      <c r="AC13">
+        <v>197.03225806451613</v>
+      </c>
+      <c r="AD13">
+        <v>210.45967741935485</v>
+      </c>
+      <c r="AE13">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="AF13">
+        <v>189.87903225806451</v>
+      </c>
+      <c r="AG13">
+        <v>201.91129032258064</v>
+      </c>
+      <c r="AH13">
+        <v>201.95161290322579</v>
+      </c>
+      <c r="AI13">
+        <v>206.58064516129033</v>
+      </c>
+      <c r="AJ13">
+        <v>209.30645161290323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>204.56451612903226</v>
+      </c>
+      <c r="B14">
+        <v>209.24193548387098</v>
+      </c>
+      <c r="C14">
+        <v>202.66129032258064</v>
+      </c>
+      <c r="D14">
+        <v>201.64516129032259</v>
+      </c>
+      <c r="E14">
+        <v>211.11290322580646</v>
+      </c>
+      <c r="F14">
+        <v>210.62903225806451</v>
+      </c>
+      <c r="G14">
+        <v>205.93548387096774</v>
+      </c>
+      <c r="H14">
+        <v>194.17741935483872</v>
+      </c>
+      <c r="I14">
+        <v>205</v>
+      </c>
+      <c r="J14">
+        <v>208.41935483870967</v>
+      </c>
+      <c r="K14">
+        <v>202.37903225806451</v>
+      </c>
+      <c r="L14">
+        <v>204.69354838709677</v>
+      </c>
+      <c r="M14">
+        <v>195.56451612903226</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>199.12903225806451</v>
+      </c>
+      <c r="P14">
+        <v>199.9758064516129</v>
+      </c>
+      <c r="Q14">
+        <v>198.03225806451613</v>
+      </c>
+      <c r="R14">
+        <v>203.93548387096774</v>
+      </c>
+      <c r="S14">
+        <v>200.75806451612902</v>
+      </c>
+      <c r="T14">
+        <v>197.7741935483871</v>
+      </c>
+      <c r="U14">
+        <v>198.20967741935485</v>
+      </c>
+      <c r="V14">
+        <v>211.53225806451613</v>
+      </c>
+      <c r="W14">
+        <v>198.23387096774192</v>
+      </c>
+      <c r="X14">
+        <v>194.85483870967741</v>
+      </c>
+      <c r="Y14">
+        <v>190.86290322580646</v>
+      </c>
+      <c r="Z14">
+        <v>212</v>
+      </c>
+      <c r="AA14">
+        <v>194.48387096774192</v>
+      </c>
+      <c r="AB14">
+        <v>199.78225806451613</v>
+      </c>
+      <c r="AC14">
+        <v>201.81451612903226</v>
+      </c>
+      <c r="AD14">
+        <v>192.37096774193549</v>
+      </c>
+      <c r="AE14">
+        <v>198.83870967741936</v>
+      </c>
+      <c r="AF14">
+        <v>204.09677419354838</v>
+      </c>
+      <c r="AG14">
+        <v>199.75</v>
+      </c>
+      <c r="AH14">
+        <v>203.71774193548387</v>
+      </c>
+      <c r="AI14">
+        <v>189.86290322580646</v>
+      </c>
+      <c r="AJ14">
+        <v>195.37903225806451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>204.65322580645162</v>
+      </c>
+      <c r="B15">
+        <v>205.90322580645162</v>
+      </c>
+      <c r="C15">
+        <v>203.78225806451613</v>
+      </c>
+      <c r="D15">
+        <v>198.08064516129033</v>
+      </c>
+      <c r="E15">
+        <v>203.82258064516128</v>
+      </c>
+      <c r="F15">
+        <v>192.79838709677421</v>
+      </c>
+      <c r="G15">
+        <v>192.33870967741936</v>
+      </c>
+      <c r="H15">
+        <v>208.42741935483872</v>
+      </c>
+      <c r="I15">
+        <v>207.79838709677421</v>
+      </c>
+      <c r="J15">
+        <v>198.65322580645162</v>
+      </c>
+      <c r="K15">
+        <v>198.43548387096774</v>
+      </c>
+      <c r="L15">
+        <v>198.9758064516129</v>
+      </c>
+      <c r="M15">
+        <v>204.42741935483872</v>
+      </c>
+      <c r="N15">
+        <v>199.12903225806451</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="P15">
+        <v>192.17741935483872</v>
+      </c>
+      <c r="Q15">
+        <v>195.0241935483871</v>
+      </c>
+      <c r="R15">
+        <v>201.82258064516128</v>
+      </c>
+      <c r="S15">
+        <v>193.18548387096774</v>
+      </c>
+      <c r="T15">
+        <v>201.21774193548387</v>
+      </c>
+      <c r="U15">
+        <v>189.65322580645162</v>
+      </c>
+      <c r="V15">
+        <v>190.78225806451613</v>
+      </c>
+      <c r="W15">
+        <v>195.39516129032259</v>
+      </c>
+      <c r="X15">
+        <v>201.53225806451613</v>
+      </c>
+      <c r="Y15">
+        <v>198.04032258064515</v>
+      </c>
+      <c r="Z15">
+        <v>211.19354838709677</v>
+      </c>
+      <c r="AA15">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="AB15">
+        <v>197.66935483870967</v>
+      </c>
+      <c r="AC15">
+        <v>200.03225806451613</v>
+      </c>
+      <c r="AD15">
+        <v>189.25806451612902</v>
+      </c>
+      <c r="AE15">
+        <v>198.38709677419354</v>
+      </c>
+      <c r="AF15">
+        <v>202.7741935483871</v>
+      </c>
+      <c r="AG15">
+        <v>194.39516129032259</v>
+      </c>
+      <c r="AH15">
+        <v>198.00806451612902</v>
+      </c>
+      <c r="AI15">
+        <v>199.01612903225808</v>
+      </c>
+      <c r="AJ15">
+        <v>199.7258064516129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>203.5241935483871</v>
+      </c>
+      <c r="B16">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="C16">
+        <v>196.21774193548387</v>
+      </c>
+      <c r="D16">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>200.71774193548387</v>
+      </c>
+      <c r="F16">
+        <v>199.74193548387098</v>
+      </c>
+      <c r="G16">
+        <v>206.09677419354838</v>
+      </c>
+      <c r="H16">
+        <v>188.7258064516129</v>
+      </c>
+      <c r="I16">
+        <v>188.68548387096774</v>
+      </c>
+      <c r="J16">
+        <v>194.67741935483872</v>
+      </c>
+      <c r="K16">
+        <v>196.45161290322579</v>
+      </c>
+      <c r="L16">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="M16">
+        <v>200.48387096774192</v>
+      </c>
+      <c r="N16">
+        <v>199.9758064516129</v>
+      </c>
+      <c r="O16">
+        <v>192.17741935483872</v>
+      </c>
+      <c r="P16">
+        <v>1000</v>
+      </c>
+      <c r="Q16">
+        <v>196.26612903225808</v>
+      </c>
+      <c r="R16">
+        <v>202.13709677419354</v>
+      </c>
+      <c r="S16">
+        <v>194.36290322580646</v>
+      </c>
+      <c r="T16">
+        <v>201.29838709677421</v>
+      </c>
+      <c r="U16">
+        <v>197.54032258064515</v>
+      </c>
+      <c r="V16">
+        <v>205.2741935483871</v>
+      </c>
+      <c r="W16">
+        <v>205.05645161290323</v>
+      </c>
+      <c r="X16">
+        <v>198.09677419354838</v>
+      </c>
+      <c r="Y16">
+        <v>191.50806451612902</v>
+      </c>
+      <c r="Z16">
+        <v>201.54032258064515</v>
+      </c>
+      <c r="AA16">
+        <v>186.54838709677421</v>
+      </c>
+      <c r="AB16">
+        <v>201.04032258064515</v>
+      </c>
+      <c r="AC16">
+        <v>191.63709677419354</v>
+      </c>
+      <c r="AD16">
+        <v>196.06451612903226</v>
+      </c>
+      <c r="AE16">
+        <v>199.61290322580646</v>
+      </c>
+      <c r="AF16">
+        <v>203.08870967741936</v>
+      </c>
+      <c r="AG16">
+        <v>196.9758064516129</v>
+      </c>
+      <c r="AH16">
+        <v>202</v>
+      </c>
+      <c r="AI16">
+        <v>200.82258064516128</v>
+      </c>
+      <c r="AJ16">
+        <v>204.94354838709677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>208.60483870967741</v>
+      </c>
+      <c r="B17">
+        <v>197</v>
+      </c>
+      <c r="C17">
+        <v>203.70967741935485</v>
+      </c>
+      <c r="D17">
+        <v>199.29032258064515</v>
+      </c>
+      <c r="E17">
+        <v>195.93548387096774</v>
+      </c>
+      <c r="F17">
+        <v>202.66935483870967</v>
+      </c>
+      <c r="G17">
+        <v>202.53225806451613</v>
+      </c>
+      <c r="H17">
+        <v>192.89516129032259</v>
+      </c>
+      <c r="I17">
+        <v>205.20161290322579</v>
+      </c>
+      <c r="J17">
+        <v>196.66935483870967</v>
+      </c>
+      <c r="K17">
+        <v>206.76612903225808</v>
+      </c>
+      <c r="L17">
+        <v>206.4758064516129</v>
+      </c>
+      <c r="M17">
+        <v>200.7741935483871</v>
+      </c>
+      <c r="N17">
+        <v>198.03225806451613</v>
+      </c>
+      <c r="O17">
+        <v>195.0241935483871</v>
+      </c>
+      <c r="P17">
+        <v>196.26612903225808</v>
+      </c>
+      <c r="Q17">
+        <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>198.75</v>
+      </c>
+      <c r="S17">
+        <v>195.59677419354838</v>
+      </c>
+      <c r="T17">
+        <v>194.83870967741936</v>
+      </c>
+      <c r="U17">
+        <v>209.73387096774192</v>
+      </c>
+      <c r="V17">
+        <v>200.2258064516129</v>
+      </c>
+      <c r="W17">
+        <v>199.61290322580646</v>
+      </c>
+      <c r="X17">
+        <v>211.41935483870967</v>
+      </c>
+      <c r="Y17">
+        <v>204.60483870967741</v>
+      </c>
+      <c r="Z17">
+        <v>202.62096774193549</v>
+      </c>
+      <c r="AA17">
+        <v>200.96774193548387</v>
+      </c>
+      <c r="AB17">
+        <v>202.78225806451613</v>
+      </c>
+      <c r="AC17">
+        <v>202.15322580645162</v>
+      </c>
+      <c r="AD17">
+        <v>207.51612903225808</v>
+      </c>
+      <c r="AE17">
+        <v>197.90322580645162</v>
+      </c>
+      <c r="AF17">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="AG17">
+        <v>196.16935483870967</v>
+      </c>
+      <c r="AH17">
+        <v>208.5</v>
+      </c>
+      <c r="AI17">
+        <v>209.49193548387098</v>
+      </c>
+      <c r="AJ17">
+        <v>201.44354838709677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>191.36290322580646</v>
+      </c>
+      <c r="B18">
+        <v>203.58870967741936</v>
+      </c>
+      <c r="C18">
+        <v>203.33064516129033</v>
+      </c>
+      <c r="D18">
+        <v>202.58870967741936</v>
+      </c>
+      <c r="E18">
+        <v>202.25806451612902</v>
+      </c>
+      <c r="F18">
+        <v>198.23387096774192</v>
+      </c>
+      <c r="G18">
+        <v>203.05645161290323</v>
+      </c>
+      <c r="H18">
+        <v>206.00806451612902</v>
+      </c>
+      <c r="I18">
+        <v>209.54838709677421</v>
+      </c>
+      <c r="J18">
+        <v>192.45161290322579</v>
+      </c>
+      <c r="K18">
+        <v>192.87096774193549</v>
+      </c>
+      <c r="L18">
+        <v>194.87903225806451</v>
+      </c>
+      <c r="M18">
+        <v>206.18548387096774</v>
+      </c>
+      <c r="N18">
+        <v>203.93548387096774</v>
+      </c>
+      <c r="O18">
+        <v>201.82258064516128</v>
+      </c>
+      <c r="P18">
+        <v>202.13709677419354</v>
+      </c>
+      <c r="Q18">
+        <v>198.75</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <v>204.65322580645162</v>
+      </c>
+      <c r="T18">
+        <v>194.74193548387098</v>
+      </c>
+      <c r="U18">
+        <v>195.99193548387098</v>
+      </c>
+      <c r="V18">
+        <v>203.87903225806451</v>
+      </c>
+      <c r="W18">
+        <v>201.95967741935485</v>
+      </c>
+      <c r="X18">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="Y18">
+        <v>199.51612903225808</v>
+      </c>
+      <c r="Z18">
+        <v>205.31451612903226</v>
+      </c>
+      <c r="AA18">
+        <v>199.18548387096774</v>
+      </c>
+      <c r="AB18">
+        <v>203.32258064516128</v>
+      </c>
+      <c r="AC18">
+        <v>208.91935483870967</v>
+      </c>
+      <c r="AD18">
+        <v>195.21774193548387</v>
+      </c>
+      <c r="AE18">
+        <v>193.58064516129033</v>
+      </c>
+      <c r="AF18">
+        <v>202.12096774193549</v>
+      </c>
+      <c r="AG18">
+        <v>208.38709677419354</v>
+      </c>
+      <c r="AH18">
+        <v>196.78225806451613</v>
+      </c>
+      <c r="AI18">
+        <v>204.68548387096774</v>
+      </c>
+      <c r="AJ18">
+        <v>197.38709677419354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>195.09677419354838</v>
+      </c>
+      <c r="B19">
+        <v>207.11290322580646</v>
+      </c>
+      <c r="C19">
+        <v>208.68548387096774</v>
+      </c>
+      <c r="D19">
+        <v>196.14516129032259</v>
+      </c>
+      <c r="E19">
+        <v>197.41129032258064</v>
+      </c>
+      <c r="F19">
+        <v>195.4758064516129</v>
+      </c>
+      <c r="G19">
+        <v>204.57258064516128</v>
+      </c>
+      <c r="H19">
+        <v>198.11290322580646</v>
+      </c>
+      <c r="I19">
+        <v>191.12903225806451</v>
+      </c>
+      <c r="J19">
+        <v>200.61290322580646</v>
+      </c>
+      <c r="K19">
+        <v>203.19354838709677</v>
+      </c>
+      <c r="L19">
+        <v>198.62096774193549</v>
+      </c>
+      <c r="M19">
+        <v>201</v>
+      </c>
+      <c r="N19">
+        <v>200.75806451612902</v>
+      </c>
+      <c r="O19">
+        <v>193.18548387096774</v>
+      </c>
+      <c r="P19">
+        <v>194.36290322580646</v>
+      </c>
+      <c r="Q19">
+        <v>195.59677419354838</v>
+      </c>
+      <c r="R19">
+        <v>204.65322580645162</v>
+      </c>
+      <c r="S19">
+        <v>1000</v>
+      </c>
+      <c r="T19">
+        <v>197.29032258064515</v>
+      </c>
+      <c r="U19">
+        <v>198.4758064516129</v>
+      </c>
+      <c r="V19">
+        <v>202.94354838709677</v>
+      </c>
+      <c r="W19">
+        <v>200.21774193548387</v>
+      </c>
+      <c r="X19">
+        <v>189.93548387096774</v>
+      </c>
+      <c r="Y19">
+        <v>192.58870967741936</v>
+      </c>
+      <c r="Z19">
+        <v>198.38709677419354</v>
+      </c>
+      <c r="AA19">
+        <v>210.20967741935485</v>
+      </c>
+      <c r="AB19">
+        <v>199.31451612903226</v>
+      </c>
+      <c r="AC19">
+        <v>196.66129032258064</v>
+      </c>
+      <c r="AD19">
+        <v>194.2741935483871</v>
+      </c>
+      <c r="AE19">
+        <v>192.23387096774192</v>
+      </c>
+      <c r="AF19">
+        <v>196.05645161290323</v>
+      </c>
+      <c r="AG19">
+        <v>209.79838709677421</v>
+      </c>
+      <c r="AH19">
+        <v>197.38709677419354</v>
+      </c>
+      <c r="AI19">
+        <v>201.13709677419354</v>
+      </c>
+      <c r="AJ19">
+        <v>203.01612903225808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="B20">
+        <v>208.12096774193549</v>
+      </c>
+      <c r="C20">
+        <v>198.10483870967741</v>
+      </c>
+      <c r="D20">
+        <v>191.83870967741936</v>
+      </c>
+      <c r="E20">
+        <v>192.75806451612902</v>
+      </c>
+      <c r="F20">
+        <v>197.54032258064515</v>
+      </c>
+      <c r="G20">
+        <v>194.28225806451613</v>
+      </c>
+      <c r="H20">
+        <v>195.21774193548387</v>
+      </c>
+      <c r="I20">
+        <v>200.80645161290323</v>
+      </c>
+      <c r="J20">
+        <v>195.58870967741936</v>
+      </c>
+      <c r="K20">
+        <v>195.5</v>
+      </c>
+      <c r="L20">
+        <v>196.33064516129033</v>
+      </c>
+      <c r="M20">
+        <v>195.57258064516128</v>
+      </c>
+      <c r="N20">
+        <v>197.7741935483871</v>
+      </c>
+      <c r="O20">
+        <v>201.21774193548387</v>
+      </c>
+      <c r="P20">
+        <v>201.29838709677421</v>
+      </c>
+      <c r="Q20">
+        <v>194.83870967741936</v>
+      </c>
+      <c r="R20">
+        <v>194.74193548387098</v>
+      </c>
+      <c r="S20">
+        <v>197.29032258064515</v>
+      </c>
+      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="U20">
+        <v>193.87903225806451</v>
+      </c>
+      <c r="V20">
+        <v>197.65322580645162</v>
+      </c>
+      <c r="W20">
+        <v>199.54838709677421</v>
+      </c>
+      <c r="X20">
+        <v>199.53225806451613</v>
+      </c>
+      <c r="Y20">
+        <v>199.35483870967741</v>
+      </c>
+      <c r="Z20">
+        <v>201.99193548387098</v>
+      </c>
+      <c r="AA20">
+        <v>200.25806451612902</v>
+      </c>
+      <c r="AB20">
+        <v>209.79838709677421</v>
+      </c>
+      <c r="AC20">
+        <v>193.79032258064515</v>
+      </c>
+      <c r="AD20">
+        <v>193.09677419354838</v>
+      </c>
+      <c r="AE20">
+        <v>201.11290322580646</v>
+      </c>
+      <c r="AF20">
+        <v>198.86290322580646</v>
+      </c>
+      <c r="AG20">
+        <v>199.20161290322579</v>
+      </c>
+      <c r="AH20">
+        <v>204.41935483870967</v>
+      </c>
+      <c r="AI20">
+        <v>205.09677419354838</v>
+      </c>
+      <c r="AJ20">
+        <v>193.61290322580646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>202.48387096774192</v>
+      </c>
+      <c r="B21">
+        <v>195.56451612903226</v>
+      </c>
+      <c r="C21">
+        <v>198.75</v>
+      </c>
+      <c r="D21">
+        <v>206.7741935483871</v>
+      </c>
+      <c r="E21">
+        <v>195.87903225806451</v>
+      </c>
+      <c r="F21">
+        <v>203.59677419354838</v>
+      </c>
+      <c r="G21">
+        <v>207.30645161290323</v>
+      </c>
+      <c r="H21">
+        <v>194.16129032258064</v>
+      </c>
+      <c r="I21">
+        <v>191.35483870967741</v>
+      </c>
+      <c r="J21">
+        <v>203.7741935483871</v>
+      </c>
+      <c r="K21">
+        <v>207.20161290322579</v>
+      </c>
+      <c r="L21">
+        <v>202.80645161290323</v>
+      </c>
+      <c r="M21">
+        <v>205.12096774193549</v>
+      </c>
+      <c r="N21">
+        <v>198.20967741935485</v>
+      </c>
+      <c r="O21">
+        <v>189.65322580645162</v>
+      </c>
+      <c r="P21">
+        <v>197.54032258064515</v>
+      </c>
+      <c r="Q21">
+        <v>209.73387096774192</v>
+      </c>
+      <c r="R21">
+        <v>195.99193548387098</v>
+      </c>
+      <c r="S21">
+        <v>198.4758064516129</v>
+      </c>
+      <c r="T21">
+        <v>193.87903225806451</v>
+      </c>
+      <c r="U21">
+        <v>1000</v>
+      </c>
+      <c r="V21">
+        <v>200.85483870967741</v>
+      </c>
+      <c r="W21">
+        <v>191.35483870967741</v>
+      </c>
+      <c r="X21">
+        <v>199.91935483870967</v>
+      </c>
+      <c r="Y21">
+        <v>207.09677419354838</v>
+      </c>
+      <c r="Z21">
+        <v>210.95161290322579</v>
+      </c>
+      <c r="AA21">
+        <v>194.04838709677421</v>
+      </c>
+      <c r="AB21">
+        <v>196.36290322580646</v>
+      </c>
+      <c r="AC21">
+        <v>199.80645161290323</v>
+      </c>
+      <c r="AD21">
+        <v>187.98387096774192</v>
+      </c>
+      <c r="AE21">
+        <v>200.2258064516129</v>
+      </c>
+      <c r="AF21">
+        <v>208.20161290322579</v>
+      </c>
+      <c r="AG21">
+        <v>192.26612903225808</v>
+      </c>
+      <c r="AH21">
+        <v>206.29838709677421</v>
+      </c>
+      <c r="AI21">
+        <v>206.63709677419354</v>
+      </c>
+      <c r="AJ21">
+        <v>198.69354838709677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>195.84677419354838</v>
+      </c>
+      <c r="B22">
+        <v>189.34677419354838</v>
+      </c>
+      <c r="C22">
+        <v>203.08064516129033</v>
+      </c>
+      <c r="D22">
+        <v>204.51612903225808</v>
+      </c>
+      <c r="E22">
+        <v>200.84677419354838</v>
+      </c>
+      <c r="F22">
+        <v>197.79838709677421</v>
+      </c>
+      <c r="G22">
+        <v>203.63709677419354</v>
+      </c>
+      <c r="H22">
+        <v>198.51612903225808</v>
+      </c>
+      <c r="I22">
+        <v>192.75</v>
+      </c>
+      <c r="J22">
+        <v>206.06451612903226</v>
+      </c>
+      <c r="K22">
+        <v>197.5</v>
+      </c>
+      <c r="L22">
+        <v>201.35483870967741</v>
+      </c>
+      <c r="M22">
+        <v>196.85483870967741</v>
+      </c>
+      <c r="N22">
+        <v>211.53225806451613</v>
+      </c>
+      <c r="O22">
+        <v>190.78225806451613</v>
+      </c>
+      <c r="P22">
+        <v>205.2741935483871</v>
+      </c>
+      <c r="Q22">
+        <v>200.2258064516129</v>
+      </c>
+      <c r="R22">
+        <v>203.87903225806451</v>
+      </c>
+      <c r="S22">
+        <v>202.94354838709677</v>
+      </c>
+      <c r="T22">
+        <v>197.65322580645162</v>
+      </c>
+      <c r="U22">
+        <v>200.85483870967741</v>
+      </c>
+      <c r="V22">
+        <v>1000</v>
+      </c>
+      <c r="W22">
+        <v>197.74193548387098</v>
+      </c>
+      <c r="X22">
+        <v>192.62903225806451</v>
+      </c>
+      <c r="Y22">
+        <v>200.43548387096774</v>
+      </c>
+      <c r="Z22">
+        <v>206.29838709677421</v>
+      </c>
+      <c r="AA22">
+        <v>200.89516129032259</v>
+      </c>
+      <c r="AB22">
+        <v>196.59677419354838</v>
+      </c>
+      <c r="AC22">
+        <v>203.55645161290323</v>
+      </c>
+      <c r="AD22">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="AE22">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="AF22">
+        <v>208.07258064516128</v>
+      </c>
+      <c r="AG22">
+        <v>195.08064516129033</v>
+      </c>
+      <c r="AH22">
+        <v>197.35483870967741</v>
+      </c>
+      <c r="AI22">
+        <v>200.19354838709677</v>
+      </c>
+      <c r="AJ22">
+        <v>198.08870967741936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>192.49193548387098</v>
+      </c>
+      <c r="B23">
+        <v>199.62096774193549</v>
+      </c>
+      <c r="C23">
+        <v>193.46774193548387</v>
+      </c>
+      <c r="D23">
+        <v>200.59677419354838</v>
+      </c>
+      <c r="E23">
+        <v>201.83870967741936</v>
+      </c>
+      <c r="F23">
+        <v>205.16935483870967</v>
+      </c>
+      <c r="G23">
+        <v>197.95161290322579</v>
+      </c>
+      <c r="H23">
+        <v>204.25806451612902</v>
+      </c>
+      <c r="I23">
+        <v>205.55645161290323</v>
+      </c>
+      <c r="J23">
+        <v>199.9758064516129</v>
+      </c>
+      <c r="K23">
+        <v>201.12903225806451</v>
+      </c>
+      <c r="L23">
+        <v>205.19354838709677</v>
+      </c>
+      <c r="M23">
+        <v>205.7258064516129</v>
+      </c>
+      <c r="N23">
+        <v>198.23387096774192</v>
+      </c>
+      <c r="O23">
+        <v>195.39516129032259</v>
+      </c>
+      <c r="P23">
+        <v>205.05645161290323</v>
+      </c>
+      <c r="Q23">
+        <v>199.61290322580646</v>
+      </c>
+      <c r="R23">
+        <v>201.95967741935485</v>
+      </c>
+      <c r="S23">
+        <v>200.21774193548387</v>
+      </c>
+      <c r="T23">
+        <v>199.54838709677421</v>
+      </c>
+      <c r="U23">
+        <v>191.35483870967741</v>
+      </c>
+      <c r="V23">
+        <v>197.74193548387098</v>
+      </c>
+      <c r="W23">
+        <v>1000</v>
+      </c>
+      <c r="X23">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="Y23">
+        <v>206.56451612903226</v>
+      </c>
+      <c r="Z23">
+        <v>202.56451612903226</v>
+      </c>
+      <c r="AA23">
+        <v>194.18548387096774</v>
+      </c>
+      <c r="AB23">
+        <v>206.12903225806451</v>
+      </c>
+      <c r="AC23">
+        <v>198.73387096774192</v>
+      </c>
+      <c r="AD23">
+        <v>197.88709677419354</v>
+      </c>
+      <c r="AE23">
+        <v>199.60483870967741</v>
+      </c>
+      <c r="AF23">
+        <v>196.25806451612902</v>
+      </c>
+      <c r="AG23">
+        <v>201.90322580645162</v>
+      </c>
+      <c r="AH23">
+        <v>187.26612903225808</v>
+      </c>
+      <c r="AI23">
+        <v>202.64516129032259</v>
+      </c>
+      <c r="AJ23">
+        <v>201.33064516129033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>197.62903225806451</v>
+      </c>
+      <c r="B24">
+        <v>197.26612903225808</v>
+      </c>
+      <c r="C24">
+        <v>202.12903225806451</v>
+      </c>
+      <c r="D24">
+        <v>199.57258064516128</v>
+      </c>
+      <c r="E24">
+        <v>204.18548387096774</v>
+      </c>
+      <c r="F24">
+        <v>204.75</v>
+      </c>
+      <c r="G24">
+        <v>200.18548387096774</v>
+      </c>
+      <c r="H24">
+        <v>198.41935483870967</v>
+      </c>
+      <c r="I24">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="J24">
+        <v>195.4758064516129</v>
+      </c>
+      <c r="K24">
+        <v>197.46774193548387</v>
+      </c>
+      <c r="L24">
+        <v>196.37903225806451</v>
+      </c>
+      <c r="M24">
+        <v>199.44354838709677</v>
+      </c>
+      <c r="N24">
+        <v>194.85483870967741</v>
+      </c>
+      <c r="O24">
+        <v>201.53225806451613</v>
+      </c>
+      <c r="P24">
+        <v>198.09677419354838</v>
+      </c>
+      <c r="Q24">
+        <v>211.41935483870967</v>
+      </c>
+      <c r="R24">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="S24">
+        <v>189.93548387096774</v>
+      </c>
+      <c r="T24">
+        <v>199.53225806451613</v>
+      </c>
+      <c r="U24">
+        <v>199.91935483870967</v>
+      </c>
+      <c r="V24">
+        <v>192.62903225806451</v>
+      </c>
+      <c r="W24">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="X24">
+        <v>1000</v>
+      </c>
+      <c r="Y24">
+        <v>204.29838709677421</v>
+      </c>
+      <c r="Z24">
+        <v>206.45161290322579</v>
+      </c>
+      <c r="AA24">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="AB24">
+        <v>206.81451612903226</v>
+      </c>
+      <c r="AC24">
+        <v>199.70967741935485</v>
+      </c>
+      <c r="AD24">
+        <v>209.50806451612902</v>
+      </c>
+      <c r="AE24">
+        <v>200.03225806451613</v>
+      </c>
+      <c r="AF24">
+        <v>206.06451612903226</v>
+      </c>
+      <c r="AG24">
+        <v>213.01612903225808</v>
+      </c>
+      <c r="AH24">
+        <v>198.96774193548387</v>
+      </c>
+      <c r="AI24">
+        <v>203.34677419354838</v>
+      </c>
+      <c r="AJ24">
+        <v>198.44354838709677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>197.14516129032259</v>
+      </c>
+      <c r="B25">
+        <v>206.69354838709677</v>
+      </c>
+      <c r="C25">
+        <v>195.91935483870967</v>
+      </c>
+      <c r="D25">
+        <v>198.40322580645162</v>
+      </c>
+      <c r="E25">
+        <v>193.45967741935485</v>
+      </c>
+      <c r="F25">
+        <v>196.4758064516129</v>
+      </c>
+      <c r="G25">
+        <v>193.41129032258064</v>
+      </c>
+      <c r="H25">
+        <v>200.5241935483871</v>
+      </c>
+      <c r="I25">
+        <v>200.62096774193549</v>
+      </c>
+      <c r="J25">
+        <v>199.37903225806451</v>
+      </c>
+      <c r="K25">
+        <v>203.7258064516129</v>
+      </c>
+      <c r="L25">
+        <v>201.61290322580646</v>
+      </c>
+      <c r="M25">
+        <v>206.12903225806451</v>
+      </c>
+      <c r="N25">
+        <v>190.86290322580646</v>
+      </c>
+      <c r="O25">
+        <v>198.04032258064515</v>
+      </c>
+      <c r="P25">
+        <v>191.50806451612902</v>
+      </c>
+      <c r="Q25">
+        <v>204.60483870967741</v>
+      </c>
+      <c r="R25">
+        <v>199.51612903225808</v>
+      </c>
+      <c r="S25">
+        <v>192.58870967741936</v>
+      </c>
+      <c r="T25">
+        <v>199.35483870967741</v>
+      </c>
+      <c r="U25">
+        <v>207.09677419354838</v>
+      </c>
+      <c r="V25">
+        <v>200.43548387096774</v>
+      </c>
+      <c r="W25">
+        <v>206.56451612903226</v>
+      </c>
+      <c r="X25">
+        <v>204.29838709677421</v>
+      </c>
+      <c r="Y25">
+        <v>1000</v>
+      </c>
+      <c r="Z25">
+        <v>194.54838709677421</v>
+      </c>
+      <c r="AA25">
+        <v>202.15322580645162</v>
+      </c>
+      <c r="AB25">
+        <v>210.19354838709677</v>
+      </c>
+      <c r="AC25">
+        <v>207.07258064516128</v>
+      </c>
+      <c r="AD25">
+        <v>191.5</v>
+      </c>
+      <c r="AE25">
+        <v>210.43548387096774</v>
+      </c>
+      <c r="AF25">
+        <v>203.26612903225808</v>
+      </c>
+      <c r="AG25">
+        <v>198.08064516129033</v>
+      </c>
+      <c r="AH25">
+        <v>198.99193548387098</v>
+      </c>
+      <c r="AI25">
+        <v>201.15322580645162</v>
+      </c>
+      <c r="AJ25">
+        <v>203.15322580645162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>194.88709677419354</v>
+      </c>
+      <c r="B26">
+        <v>208.14516129032259</v>
+      </c>
+      <c r="C26">
+        <v>202.88709677419354</v>
+      </c>
+      <c r="D26">
+        <v>191.4758064516129</v>
+      </c>
+      <c r="E26">
+        <v>203.74193548387098</v>
+      </c>
+      <c r="F26">
+        <v>199.92741935483872</v>
+      </c>
+      <c r="G26">
+        <v>198.75806451612902</v>
+      </c>
+      <c r="H26">
+        <v>211.0241935483871</v>
+      </c>
+      <c r="I26">
+        <v>208.26612903225808</v>
+      </c>
+      <c r="J26">
+        <v>196.87096774193549</v>
+      </c>
+      <c r="K26">
+        <v>196.87903225806451</v>
+      </c>
+      <c r="L26">
+        <v>194.62096774193549</v>
+      </c>
+      <c r="M26">
+        <v>193.83870967741936</v>
+      </c>
+      <c r="N26">
+        <v>212</v>
+      </c>
+      <c r="O26">
+        <v>211.19354838709677</v>
+      </c>
+      <c r="P26">
+        <v>201.54032258064515</v>
+      </c>
+      <c r="Q26">
+        <v>202.62096774193549</v>
+      </c>
+      <c r="R26">
+        <v>205.31451612903226</v>
+      </c>
+      <c r="S26">
+        <v>198.38709677419354</v>
+      </c>
+      <c r="T26">
+        <v>201.99193548387098</v>
+      </c>
+      <c r="U26">
+        <v>210.95161290322579</v>
+      </c>
+      <c r="V26">
+        <v>206.29838709677421</v>
+      </c>
+      <c r="W26">
+        <v>202.56451612903226</v>
+      </c>
+      <c r="X26">
+        <v>206.45161290322579</v>
+      </c>
+      <c r="Y26">
+        <v>194.54838709677421</v>
+      </c>
+      <c r="Z26">
+        <v>1000</v>
+      </c>
+      <c r="AA26">
+        <v>202.48387096774192</v>
+      </c>
+      <c r="AB26">
+        <v>190.42741935483872</v>
+      </c>
+      <c r="AC26">
+        <v>196.80645161290323</v>
+      </c>
+      <c r="AD26">
+        <v>198.17741935483872</v>
+      </c>
+      <c r="AE26">
+        <v>193.10483870967741</v>
+      </c>
+      <c r="AF26">
+        <v>200.00806451612902</v>
+      </c>
+      <c r="AG26">
+        <v>202.08870967741936</v>
+      </c>
+      <c r="AH26">
+        <v>201.31451612903226</v>
+      </c>
+      <c r="AI26">
+        <v>204.70161290322579</v>
+      </c>
+      <c r="AJ26">
+        <v>198.84677419354838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>201.87903225806451</v>
+      </c>
+      <c r="B27">
+        <v>201.81451612903226</v>
+      </c>
+      <c r="C27">
+        <v>199.75806451612902</v>
+      </c>
+      <c r="D27">
+        <v>205.91935483870967</v>
+      </c>
+      <c r="E27">
+        <v>200.30645161290323</v>
+      </c>
+      <c r="F27">
+        <v>198.12903225806451</v>
+      </c>
+      <c r="G27">
+        <v>196.35483870967741</v>
+      </c>
+      <c r="H27">
+        <v>202.20161290322579</v>
+      </c>
+      <c r="I27">
+        <v>198.90322580645162</v>
+      </c>
+      <c r="J27">
+        <v>199.73387096774192</v>
+      </c>
+      <c r="K27">
+        <v>198.09677419354838</v>
+      </c>
+      <c r="L27">
+        <v>192.48387096774192</v>
+      </c>
+      <c r="M27">
+        <v>200.32258064516128</v>
+      </c>
+      <c r="N27">
+        <v>194.48387096774192</v>
+      </c>
+      <c r="O27">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="P27">
+        <v>186.54838709677421</v>
+      </c>
+      <c r="Q27">
+        <v>200.96774193548387</v>
+      </c>
+      <c r="R27">
+        <v>199.18548387096774</v>
+      </c>
+      <c r="S27">
+        <v>210.20967741935485</v>
+      </c>
+      <c r="T27">
+        <v>200.25806451612902</v>
+      </c>
+      <c r="U27">
+        <v>194.04838709677421</v>
+      </c>
+      <c r="V27">
+        <v>200.89516129032259</v>
+      </c>
+      <c r="W27">
+        <v>194.18548387096774</v>
+      </c>
+      <c r="X27">
+        <v>197.25806451612902</v>
+      </c>
+      <c r="Y27">
+        <v>202.15322580645162</v>
+      </c>
+      <c r="Z27">
+        <v>202.48387096774192</v>
+      </c>
+      <c r="AA27">
+        <v>1000</v>
+      </c>
+      <c r="AB27">
+        <v>197.44354838709677</v>
+      </c>
+      <c r="AC27">
+        <v>209.75806451612902</v>
+      </c>
+      <c r="AD27">
+        <v>208.7741935483871</v>
+      </c>
+      <c r="AE27">
+        <v>211.06451612903226</v>
+      </c>
+      <c r="AF27">
+        <v>211.7258064516129</v>
+      </c>
+      <c r="AG27">
+        <v>203.41935483870967</v>
+      </c>
+      <c r="AH27">
+        <v>195.25</v>
+      </c>
+      <c r="AI27">
+        <v>212.18548387096774</v>
+      </c>
+      <c r="AJ27">
+        <v>203.4758064516129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>198.91935483870967</v>
+      </c>
+      <c r="B28">
+        <v>200.24193548387098</v>
+      </c>
+      <c r="C28">
+        <v>210.06451612903226</v>
+      </c>
+      <c r="D28">
+        <v>200.43548387096774</v>
+      </c>
+      <c r="E28">
+        <v>199.16129032258064</v>
+      </c>
+      <c r="F28">
+        <v>193.66129032258064</v>
+      </c>
+      <c r="G28">
+        <v>194.70967741935485</v>
+      </c>
+      <c r="H28">
+        <v>197.84677419354838</v>
+      </c>
+      <c r="I28">
+        <v>187.59677419354838</v>
+      </c>
+      <c r="J28">
+        <v>193.10483870967741</v>
+      </c>
+      <c r="K28">
+        <v>212.28225806451613</v>
+      </c>
+      <c r="L28">
+        <v>198.40322580645162</v>
+      </c>
+      <c r="M28">
+        <v>206.34677419354838</v>
+      </c>
+      <c r="N28">
+        <v>199.78225806451613</v>
+      </c>
+      <c r="O28">
+        <v>197.66935483870967</v>
+      </c>
+      <c r="P28">
+        <v>201.04032258064515</v>
+      </c>
+      <c r="Q28">
+        <v>202.78225806451613</v>
+      </c>
+      <c r="R28">
+        <v>203.32258064516128</v>
+      </c>
+      <c r="S28">
+        <v>199.31451612903226</v>
+      </c>
+      <c r="T28">
+        <v>209.79838709677421</v>
+      </c>
+      <c r="U28">
+        <v>196.36290322580646</v>
+      </c>
+      <c r="V28">
+        <v>196.59677419354838</v>
+      </c>
+      <c r="W28">
+        <v>206.12903225806451</v>
+      </c>
+      <c r="X28">
+        <v>206.81451612903226</v>
+      </c>
+      <c r="Y28">
+        <v>210.19354838709677</v>
+      </c>
+      <c r="Z28">
+        <v>190.42741935483872</v>
+      </c>
+      <c r="AA28">
+        <v>197.44354838709677</v>
+      </c>
+      <c r="AB28">
+        <v>1000</v>
+      </c>
+      <c r="AC28">
+        <v>198.42741935483872</v>
+      </c>
+      <c r="AD28">
+        <v>198.30645161290323</v>
+      </c>
+      <c r="AE28">
+        <v>207.41935483870967</v>
+      </c>
+      <c r="AF28">
+        <v>195.54032258064515</v>
+      </c>
+      <c r="AG28">
+        <v>190.19354838709677</v>
+      </c>
+      <c r="AH28">
+        <v>194.05645161290323</v>
+      </c>
+      <c r="AI28">
+        <v>201.98387096774192</v>
+      </c>
+      <c r="AJ28">
+        <v>194.87096774193549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>191.09677419354838</v>
+      </c>
+      <c r="B29">
+        <v>194.87903225806451</v>
+      </c>
+      <c r="C29">
+        <v>195.79032258064515</v>
+      </c>
+      <c r="D29">
+        <v>198.64516129032259</v>
+      </c>
+      <c r="E29">
+        <v>209.88709677419354</v>
+      </c>
+      <c r="F29">
+        <v>208.23387096774192</v>
+      </c>
+      <c r="G29">
+        <v>204.39516129032259</v>
+      </c>
+      <c r="H29">
+        <v>197.55645161290323</v>
+      </c>
+      <c r="I29">
+        <v>197.99193548387098</v>
+      </c>
+      <c r="J29">
+        <v>203.71774193548387</v>
+      </c>
+      <c r="K29">
+        <v>195.15322580645162</v>
+      </c>
+      <c r="L29">
+        <v>197.32258064516128</v>
+      </c>
+      <c r="M29">
+        <v>197.03225806451613</v>
+      </c>
+      <c r="N29">
+        <v>201.81451612903226</v>
+      </c>
+      <c r="O29">
+        <v>200.03225806451613</v>
+      </c>
+      <c r="P29">
+        <v>191.63709677419354</v>
+      </c>
+      <c r="Q29">
+        <v>202.15322580645162</v>
+      </c>
+      <c r="R29">
+        <v>208.91935483870967</v>
+      </c>
+      <c r="S29">
+        <v>196.66129032258064</v>
+      </c>
+      <c r="T29">
+        <v>193.79032258064515</v>
+      </c>
+      <c r="U29">
+        <v>199.80645161290323</v>
+      </c>
+      <c r="V29">
+        <v>203.55645161290323</v>
+      </c>
+      <c r="W29">
+        <v>198.73387096774192</v>
+      </c>
+      <c r="X29">
+        <v>199.70967741935485</v>
+      </c>
+      <c r="Y29">
+        <v>207.07258064516128</v>
+      </c>
+      <c r="Z29">
+        <v>196.80645161290323</v>
+      </c>
+      <c r="AA29">
+        <v>209.75806451612902</v>
+      </c>
+      <c r="AB29">
+        <v>198.42741935483872</v>
+      </c>
+      <c r="AC29">
+        <v>1000</v>
+      </c>
+      <c r="AD29">
+        <v>202.21774193548387</v>
+      </c>
+      <c r="AE29">
+        <v>196.2258064516129</v>
+      </c>
+      <c r="AF29">
+        <v>204.15322580645162</v>
+      </c>
+      <c r="AG29">
+        <v>192.32258064516128</v>
+      </c>
+      <c r="AH29">
+        <v>208.88709677419354</v>
+      </c>
+      <c r="AI29">
+        <v>196.89516129032259</v>
+      </c>
+      <c r="AJ29">
+        <v>209.20161290322579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>208.76612903225808</v>
+      </c>
+      <c r="B30">
+        <v>202.59677419354838</v>
+      </c>
+      <c r="C30">
+        <v>190.74193548387098</v>
+      </c>
+      <c r="D30">
+        <v>203.83870967741936</v>
+      </c>
+      <c r="E30">
+        <v>206.03225806451613</v>
+      </c>
+      <c r="F30">
+        <v>197.59677419354838</v>
+      </c>
+      <c r="G30">
+        <v>195.25806451612902</v>
+      </c>
+      <c r="H30">
+        <v>197.70967741935485</v>
+      </c>
+      <c r="I30">
+        <v>201.76612903225808</v>
+      </c>
+      <c r="J30">
+        <v>200.58870967741936</v>
+      </c>
+      <c r="K30">
+        <v>201.70161290322579</v>
+      </c>
+      <c r="L30">
+        <v>199.37903225806451</v>
+      </c>
+      <c r="M30">
+        <v>210.45967741935485</v>
+      </c>
+      <c r="N30">
+        <v>192.37096774193549</v>
+      </c>
+      <c r="O30">
+        <v>189.25806451612902</v>
+      </c>
+      <c r="P30">
+        <v>196.06451612903226</v>
+      </c>
+      <c r="Q30">
+        <v>207.51612903225808</v>
+      </c>
+      <c r="R30">
+        <v>195.21774193548387</v>
+      </c>
+      <c r="S30">
+        <v>194.2741935483871</v>
+      </c>
+      <c r="T30">
+        <v>193.09677419354838</v>
+      </c>
+      <c r="U30">
+        <v>187.98387096774192</v>
+      </c>
+      <c r="V30">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="W30">
+        <v>197.88709677419354</v>
+      </c>
+      <c r="X30">
+        <v>209.50806451612902</v>
+      </c>
+      <c r="Y30">
+        <v>191.5</v>
+      </c>
+      <c r="Z30">
+        <v>198.17741935483872</v>
+      </c>
+      <c r="AA30">
+        <v>208.7741935483871</v>
+      </c>
+      <c r="AB30">
+        <v>198.30645161290323</v>
+      </c>
+      <c r="AC30">
+        <v>202.21774193548387</v>
+      </c>
+      <c r="AD30">
+        <v>1000</v>
+      </c>
+      <c r="AE30">
+        <v>204.10483870967741</v>
+      </c>
+      <c r="AF30">
+        <v>190.48387096774192</v>
+      </c>
+      <c r="AG30">
+        <v>209.65322580645162</v>
+      </c>
+      <c r="AH30">
+        <v>206.43548387096774</v>
+      </c>
+      <c r="AI30">
+        <v>200.14516129032259</v>
+      </c>
+      <c r="AJ30">
+        <v>195.21774193548387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>195.65322580645162</v>
+      </c>
+      <c r="B31">
+        <v>201.2741935483871</v>
+      </c>
+      <c r="C31">
+        <v>204.87903225806451</v>
+      </c>
+      <c r="D31">
+        <v>201.90322580645162</v>
+      </c>
+      <c r="E31">
+        <v>201.2741935483871</v>
+      </c>
+      <c r="F31">
+        <v>195.83870967741936</v>
+      </c>
+      <c r="G31">
+        <v>196.29838709677421</v>
+      </c>
+      <c r="H31">
+        <v>201.11290322580646</v>
+      </c>
+      <c r="I31">
+        <v>196.05645161290323</v>
+      </c>
+      <c r="J31">
+        <v>195.24193548387098</v>
+      </c>
+      <c r="K31">
+        <v>201.63709677419354</v>
+      </c>
+      <c r="L31">
+        <v>201.87903225806451</v>
+      </c>
+      <c r="M31">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="N31">
+        <v>198.83870967741936</v>
+      </c>
+      <c r="O31">
+        <v>198.38709677419354</v>
+      </c>
+      <c r="P31">
+        <v>199.61290322580646</v>
+      </c>
+      <c r="Q31">
+        <v>197.90322580645162</v>
+      </c>
+      <c r="R31">
+        <v>193.58064516129033</v>
+      </c>
+      <c r="S31">
+        <v>192.23387096774192</v>
+      </c>
+      <c r="T31">
+        <v>201.11290322580646</v>
+      </c>
+      <c r="U31">
+        <v>200.2258064516129</v>
+      </c>
+      <c r="V31">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="W31">
+        <v>199.60483870967741</v>
+      </c>
+      <c r="X31">
+        <v>200.03225806451613</v>
+      </c>
+      <c r="Y31">
+        <v>210.43548387096774</v>
+      </c>
+      <c r="Z31">
+        <v>193.10483870967741</v>
+      </c>
+      <c r="AA31">
+        <v>211.06451612903226</v>
+      </c>
+      <c r="AB31">
+        <v>207.41935483870967</v>
+      </c>
+      <c r="AC31">
+        <v>196.2258064516129</v>
+      </c>
+      <c r="AD31">
+        <v>204.10483870967741</v>
+      </c>
+      <c r="AE31">
+        <v>1000</v>
+      </c>
+      <c r="AF31">
+        <v>210.2258064516129</v>
+      </c>
+      <c r="AG31">
+        <v>202.43548387096774</v>
+      </c>
+      <c r="AH31">
+        <v>192.30645161290323</v>
+      </c>
+      <c r="AI31">
+        <v>203.49193548387098</v>
+      </c>
+      <c r="AJ31">
+        <v>196.06451612903226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>201.65322580645162</v>
+      </c>
+      <c r="B32">
+        <v>196.78225806451613</v>
+      </c>
+      <c r="C32">
+        <v>208.55645161290323</v>
+      </c>
+      <c r="D32">
+        <v>197.0241935483871</v>
+      </c>
+      <c r="E32">
+        <v>196.96774193548387</v>
+      </c>
+      <c r="F32">
+        <v>204.83064516129033</v>
+      </c>
+      <c r="G32">
+        <v>188.65322580645162</v>
+      </c>
+      <c r="H32">
+        <v>199.53225806451613</v>
+      </c>
+      <c r="I32">
+        <v>193.58064516129033</v>
+      </c>
+      <c r="J32">
+        <v>197.70967741935485</v>
+      </c>
+      <c r="K32">
+        <v>196.17741935483872</v>
+      </c>
+      <c r="L32">
+        <v>202.40322580645162</v>
+      </c>
+      <c r="M32">
+        <v>189.87903225806451</v>
+      </c>
+      <c r="N32">
+        <v>204.09677419354838</v>
+      </c>
+      <c r="O32">
+        <v>202.7741935483871</v>
+      </c>
+      <c r="P32">
+        <v>203.08870967741936</v>
+      </c>
+      <c r="Q32">
+        <v>200.33870967741936</v>
+      </c>
+      <c r="R32">
+        <v>202.12096774193549</v>
+      </c>
+      <c r="S32">
+        <v>196.05645161290323</v>
+      </c>
+      <c r="T32">
+        <v>198.86290322580646</v>
+      </c>
+      <c r="U32">
+        <v>208.20161290322579</v>
+      </c>
+      <c r="V32">
+        <v>208.07258064516128</v>
+      </c>
+      <c r="W32">
+        <v>196.25806451612902</v>
+      </c>
+      <c r="X32">
+        <v>206.06451612903226</v>
+      </c>
+      <c r="Y32">
+        <v>203.26612903225808</v>
+      </c>
+      <c r="Z32">
+        <v>200.00806451612902</v>
+      </c>
+      <c r="AA32">
+        <v>211.7258064516129</v>
+      </c>
+      <c r="AB32">
+        <v>195.54032258064515</v>
+      </c>
+      <c r="AC32">
+        <v>204.15322580645162</v>
+      </c>
+      <c r="AD32">
+        <v>190.48387096774192</v>
+      </c>
+      <c r="AE32">
+        <v>210.2258064516129</v>
+      </c>
+      <c r="AF32">
+        <v>1000</v>
+      </c>
+      <c r="AG32">
+        <v>194.09677419354838</v>
+      </c>
+      <c r="AH32">
+        <v>198.75806451612902</v>
+      </c>
+      <c r="AI32">
+        <v>194.01612903225808</v>
+      </c>
+      <c r="AJ32">
+        <v>197.36290322580646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>199.03225806451613</v>
+      </c>
+      <c r="B33">
+        <v>206.36290322580646</v>
+      </c>
+      <c r="C33">
+        <v>195.19354838709677</v>
+      </c>
+      <c r="D33">
+        <v>199.75</v>
+      </c>
+      <c r="E33">
+        <v>197.12903225806451</v>
+      </c>
+      <c r="F33">
+        <v>196.16935483870967</v>
+      </c>
+      <c r="G33">
+        <v>206.79838709677421</v>
+      </c>
+      <c r="H33">
+        <v>200.12903225806451</v>
+      </c>
+      <c r="I33">
+        <v>198.26612903225808</v>
+      </c>
+      <c r="J33">
+        <v>201.70967741935485</v>
+      </c>
+      <c r="K33">
+        <v>200.84677419354838</v>
+      </c>
+      <c r="L33">
+        <v>206.60483870967741</v>
+      </c>
+      <c r="M33">
+        <v>201.91129032258064</v>
+      </c>
+      <c r="N33">
+        <v>199.75</v>
+      </c>
+      <c r="O33">
+        <v>194.39516129032259</v>
+      </c>
+      <c r="P33">
+        <v>196.9758064516129</v>
+      </c>
+      <c r="Q33">
+        <v>196.16935483870967</v>
+      </c>
+      <c r="R33">
+        <v>208.38709677419354</v>
+      </c>
+      <c r="S33">
+        <v>209.79838709677421</v>
+      </c>
+      <c r="T33">
+        <v>199.20161290322579</v>
+      </c>
+      <c r="U33">
+        <v>192.26612903225808</v>
+      </c>
+      <c r="V33">
+        <v>195.08064516129033</v>
+      </c>
+      <c r="W33">
+        <v>201.90322580645162</v>
+      </c>
+      <c r="X33">
+        <v>213.01612903225808</v>
+      </c>
+      <c r="Y33">
+        <v>198.08064516129033</v>
+      </c>
+      <c r="Z33">
+        <v>202.08870967741936</v>
+      </c>
+      <c r="AA33">
+        <v>203.41935483870967</v>
+      </c>
+      <c r="AB33">
+        <v>190.19354838709677</v>
+      </c>
+      <c r="AC33">
+        <v>192.32258064516128</v>
+      </c>
+      <c r="AD33">
+        <v>209.65322580645162</v>
+      </c>
+      <c r="AE33">
+        <v>202.43548387096774</v>
+      </c>
+      <c r="AF33">
+        <v>194.09677419354838</v>
+      </c>
+      <c r="AG33">
+        <v>1000</v>
+      </c>
+      <c r="AH33">
+        <v>205.23387096774192</v>
+      </c>
+      <c r="AI33">
+        <v>203.95967741935485</v>
+      </c>
+      <c r="AJ33">
+        <v>194.44354838709677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>193.86290322580646</v>
+      </c>
+      <c r="B34">
+        <v>206.56451612903226</v>
+      </c>
+      <c r="C34">
+        <v>199.20161290322579</v>
+      </c>
+      <c r="D34">
+        <v>208.23387096774192</v>
+      </c>
+      <c r="E34">
+        <v>192.19354838709677</v>
+      </c>
+      <c r="F34">
+        <v>192.03225806451613</v>
+      </c>
+      <c r="G34">
+        <v>190.2741935483871</v>
+      </c>
+      <c r="H34">
+        <v>204.5241935483871</v>
+      </c>
+      <c r="I34">
+        <v>192.94354838709677</v>
+      </c>
+      <c r="J34">
+        <v>200.07258064516128</v>
+      </c>
+      <c r="K34">
+        <v>206.13709677419354</v>
+      </c>
+      <c r="L34">
+        <v>199.94354838709677</v>
+      </c>
+      <c r="M34">
+        <v>201.95161290322579</v>
+      </c>
+      <c r="N34">
+        <v>203.71774193548387</v>
+      </c>
+      <c r="O34">
+        <v>198.00806451612902</v>
+      </c>
+      <c r="P34">
+        <v>202</v>
+      </c>
+      <c r="Q34">
+        <v>208.5</v>
+      </c>
+      <c r="R34">
+        <v>196.78225806451613</v>
+      </c>
+      <c r="S34">
+        <v>197.38709677419354</v>
+      </c>
+      <c r="T34">
+        <v>204.41935483870967</v>
+      </c>
+      <c r="U34">
+        <v>206.29838709677421</v>
+      </c>
+      <c r="V34">
+        <v>197.35483870967741</v>
+      </c>
+      <c r="W34">
+        <v>187.26612903225808</v>
+      </c>
+      <c r="X34">
+        <v>198.96774193548387</v>
+      </c>
+      <c r="Y34">
+        <v>198.99193548387098</v>
+      </c>
+      <c r="Z34">
+        <v>201.31451612903226</v>
+      </c>
+      <c r="AA34">
+        <v>195.25</v>
+      </c>
+      <c r="AB34">
+        <v>194.05645161290323</v>
+      </c>
+      <c r="AC34">
+        <v>208.88709677419354</v>
+      </c>
+      <c r="AD34">
+        <v>206.43548387096774</v>
+      </c>
+      <c r="AE34">
+        <v>192.30645161290323</v>
+      </c>
+      <c r="AF34">
+        <v>198.75806451612902</v>
+      </c>
+      <c r="AG34">
+        <v>205.23387096774192</v>
+      </c>
+      <c r="AH34">
+        <v>1000</v>
+      </c>
+      <c r="AI34">
+        <v>197.41129032258064</v>
+      </c>
+      <c r="AJ34">
+        <v>196.91935483870967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>200.54032258064515</v>
+      </c>
+      <c r="B35">
+        <v>198.53225806451613</v>
+      </c>
+      <c r="C35">
+        <v>201.63709677419354</v>
+      </c>
+      <c r="D35">
+        <v>193.90322580645162</v>
+      </c>
+      <c r="E35">
+        <v>201.57258064516128</v>
+      </c>
+      <c r="F35">
+        <v>207.06451612903226</v>
+      </c>
+      <c r="G35">
+        <v>194.38709677419354</v>
+      </c>
+      <c r="H35">
+        <v>194.55645161290323</v>
+      </c>
+      <c r="I35">
+        <v>197.67741935483872</v>
+      </c>
+      <c r="J35">
+        <v>200.23387096774192</v>
+      </c>
+      <c r="K35">
+        <v>200.57258064516128</v>
+      </c>
+      <c r="L35">
+        <v>198.2741935483871</v>
+      </c>
+      <c r="M35">
+        <v>206.58064516129033</v>
+      </c>
+      <c r="N35">
+        <v>189.86290322580646</v>
+      </c>
+      <c r="O35">
+        <v>199.01612903225808</v>
+      </c>
+      <c r="P35">
+        <v>200.82258064516128</v>
+      </c>
+      <c r="Q35">
+        <v>209.49193548387098</v>
+      </c>
+      <c r="R35">
+        <v>204.68548387096774</v>
+      </c>
+      <c r="S35">
+        <v>201.13709677419354</v>
+      </c>
+      <c r="T35">
+        <v>205.09677419354838</v>
+      </c>
+      <c r="U35">
+        <v>206.63709677419354</v>
+      </c>
+      <c r="V35">
+        <v>200.19354838709677</v>
+      </c>
+      <c r="W35">
+        <v>202.64516129032259</v>
+      </c>
+      <c r="X35">
+        <v>203.34677419354838</v>
+      </c>
+      <c r="Y35">
+        <v>201.15322580645162</v>
+      </c>
+      <c r="Z35">
+        <v>204.70161290322579</v>
+      </c>
+      <c r="AA35">
+        <v>212.18548387096774</v>
+      </c>
+      <c r="AB35">
+        <v>201.98387096774192</v>
+      </c>
+      <c r="AC35">
+        <v>196.89516129032259</v>
+      </c>
+      <c r="AD35">
+        <v>200.14516129032259</v>
+      </c>
+      <c r="AE35">
+        <v>203.49193548387098</v>
+      </c>
+      <c r="AF35">
+        <v>194.01612903225808</v>
+      </c>
+      <c r="AG35">
+        <v>203.95967741935485</v>
+      </c>
+      <c r="AH35">
+        <v>197.41129032258064</v>
+      </c>
+      <c r="AI35">
+        <v>1000</v>
+      </c>
+      <c r="AJ35">
+        <v>202.66935483870967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>198.43548387096774</v>
+      </c>
+      <c r="B36">
+        <v>196.23387096774192</v>
+      </c>
+      <c r="C36">
+        <v>197.11290322580646</v>
+      </c>
+      <c r="D36">
+        <v>200.65322580645162</v>
+      </c>
+      <c r="E36">
+        <v>201.50806451612902</v>
+      </c>
+      <c r="F36">
+        <v>204.05645161290323</v>
+      </c>
+      <c r="G36">
+        <v>196.7258064516129</v>
+      </c>
+      <c r="H36">
+        <v>203.03225806451613</v>
+      </c>
+      <c r="I36">
+        <v>197.31451612903226</v>
+      </c>
+      <c r="J36">
+        <v>195.2258064516129</v>
+      </c>
+      <c r="K36">
+        <v>199.19354838709677</v>
+      </c>
+      <c r="L36">
+        <v>209.68548387096774</v>
+      </c>
+      <c r="M36">
+        <v>209.30645161290323</v>
+      </c>
+      <c r="N36">
+        <v>195.37903225806451</v>
+      </c>
+      <c r="O36">
+        <v>199.7258064516129</v>
+      </c>
+      <c r="P36">
+        <v>204.94354838709677</v>
+      </c>
+      <c r="Q36">
+        <v>201.44354838709677</v>
+      </c>
+      <c r="R36">
+        <v>197.38709677419354</v>
+      </c>
+      <c r="S36">
+        <v>203.01612903225808</v>
+      </c>
+      <c r="T36">
+        <v>193.61290322580646</v>
+      </c>
+      <c r="U36">
+        <v>198.69354838709677</v>
+      </c>
+      <c r="V36">
+        <v>198.08870967741936</v>
+      </c>
+      <c r="W36">
+        <v>201.33064516129033</v>
+      </c>
+      <c r="X36">
+        <v>198.44354838709677</v>
+      </c>
+      <c r="Y36">
+        <v>203.15322580645162</v>
+      </c>
+      <c r="Z36">
+        <v>198.84677419354838</v>
+      </c>
+      <c r="AA36">
+        <v>203.4758064516129</v>
+      </c>
+      <c r="AB36">
+        <v>194.87096774193549</v>
+      </c>
+      <c r="AC36">
+        <v>209.20161290322579</v>
+      </c>
+      <c r="AD36">
+        <v>195.21774193548387</v>
+      </c>
+      <c r="AE36">
+        <v>196.06451612903226</v>
+      </c>
+      <c r="AF36">
+        <v>197.36290322580646</v>
+      </c>
+      <c r="AG36">
+        <v>194.44354838709677</v>
+      </c>
+      <c r="AH36">
+        <v>196.91935483870967</v>
+      </c>
+      <c r="AI36">
+        <v>202.66935483870967</v>
+      </c>
+      <c r="AJ36">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD95302-1355-495C-93D1-FDF0D8FBA692}">
-  <dimension ref="A1:BX37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DBB797-BB1E-4247-9D7D-4EF047B39D24}">
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A37"/>
@@ -415,7 +4375,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -524,125 +4484,8 @@
       <c r="AK1" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -650,1691 +4493,1691 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>201.2258064516129</v>
+        <v>200.69354838709677</v>
       </c>
       <c r="D2">
-        <v>199.41129032258064</v>
+        <v>201.70161290322579</v>
       </c>
       <c r="E2">
-        <v>202.37096774193549</v>
+        <v>190.16129032258064</v>
       </c>
       <c r="F2">
-        <v>204.91935483870967</v>
+        <v>197.95967741935485</v>
       </c>
       <c r="G2">
-        <v>194.54838709677421</v>
+        <v>202.88709677419354</v>
       </c>
       <c r="H2">
-        <v>197.20967741935485</v>
+        <v>196.04032258064515</v>
       </c>
       <c r="I2">
-        <v>199.54032258064515</v>
+        <v>204.53225806451613</v>
       </c>
       <c r="J2">
-        <v>196.73387096774192</v>
+        <v>208.67741935483872</v>
       </c>
       <c r="K2">
-        <v>200.57258064516128</v>
+        <v>202.63709677419354</v>
       </c>
       <c r="L2">
-        <v>197.43548387096774</v>
+        <v>187.75</v>
       </c>
       <c r="M2">
-        <v>205.41935483870967</v>
+        <v>193.19354838709677</v>
       </c>
       <c r="N2">
-        <v>213.35483870967741</v>
+        <v>202.69354838709677</v>
       </c>
       <c r="O2">
-        <v>199.62903225806451</v>
+        <v>197.91935483870967</v>
       </c>
       <c r="P2">
-        <v>189.67741935483872</v>
+        <v>192.45161290322579</v>
       </c>
       <c r="Q2">
-        <v>190.75806451612902</v>
+        <v>201.92741935483872</v>
       </c>
       <c r="R2">
-        <v>206.30645161290323</v>
+        <v>205.53225806451613</v>
       </c>
       <c r="S2">
-        <v>202.08064516129033</v>
+        <v>195.66129032258064</v>
       </c>
       <c r="T2">
-        <v>205.63709677419354</v>
+        <v>203.05645161290323</v>
       </c>
       <c r="U2">
-        <v>197.67741935483872</v>
+        <v>202.17741935483872</v>
       </c>
       <c r="V2">
-        <v>200.86290322580646</v>
+        <v>191.19354838709677</v>
       </c>
       <c r="W2">
-        <v>203.28225806451613</v>
+        <v>199.13709677419354</v>
       </c>
       <c r="X2">
-        <v>203.20967741935485</v>
+        <v>203.19354838709677</v>
       </c>
       <c r="Y2">
-        <v>202.2741935483871</v>
+        <v>197.54838709677421</v>
       </c>
       <c r="Z2">
-        <v>198.34677419354838</v>
+        <v>201.39516129032259</v>
       </c>
       <c r="AA2">
-        <v>190.60483870967741</v>
+        <v>197.04838709677421</v>
       </c>
       <c r="AB2">
-        <v>202.12096774193549</v>
+        <v>202.03225806451613</v>
       </c>
       <c r="AC2">
-        <v>193.69354838709677</v>
+        <v>197.12903225806451</v>
       </c>
       <c r="AD2">
-        <v>196.38709677419354</v>
+        <v>199.67741935483872</v>
       </c>
       <c r="AE2">
-        <v>203.38709677419354</v>
+        <v>197.75</v>
       </c>
       <c r="AF2">
-        <v>200.5</v>
+        <v>207.23387096774192</v>
       </c>
       <c r="AG2">
-        <v>188.07258064516128</v>
+        <v>204.86290322580646</v>
       </c>
       <c r="AH2">
-        <v>209.11290322580646</v>
+        <v>197.83870967741936</v>
       </c>
       <c r="AI2">
-        <v>210.38709677419354</v>
+        <v>201.53225806451613</v>
       </c>
       <c r="AJ2">
-        <v>201.65322580645162</v>
+        <v>206.12096774193549</v>
       </c>
       <c r="AK2">
-        <v>188</v>
+        <v>202.63709677419354</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>201.2258064516129</v>
+        <v>200.69354838709677</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>196.55645161290323</v>
+        <v>202.70161290322579</v>
       </c>
       <c r="E3">
-        <v>210.66129032258064</v>
+        <v>192.08064516129033</v>
       </c>
       <c r="F3">
-        <v>200.68548387096774</v>
+        <v>200.13709677419354</v>
       </c>
       <c r="G3">
+        <v>199.4758064516129</v>
+      </c>
+      <c r="H3">
+        <v>210.87096774193549</v>
+      </c>
+      <c r="I3">
+        <v>184.66129032258064</v>
+      </c>
+      <c r="J3">
+        <v>189.76612903225808</v>
+      </c>
+      <c r="K3">
+        <v>194.76612903225808</v>
+      </c>
+      <c r="L3">
+        <v>192.56451612903226</v>
+      </c>
+      <c r="M3">
+        <v>211.10483870967741</v>
+      </c>
+      <c r="N3">
         <v>194.71774193548387</v>
       </c>
-      <c r="H3">
-        <v>207.18548387096774</v>
-      </c>
-      <c r="I3">
-        <v>186.71774193548387</v>
-      </c>
-      <c r="J3">
-        <v>198.20967741935485</v>
-      </c>
-      <c r="K3">
-        <v>207.83064516129033</v>
-      </c>
-      <c r="L3">
+      <c r="O3">
+        <v>191.62903225806451</v>
+      </c>
+      <c r="P3">
+        <v>191.83870967741936</v>
+      </c>
+      <c r="Q3">
+        <v>204.19354838709677</v>
+      </c>
+      <c r="R3">
+        <v>202.88709677419354</v>
+      </c>
+      <c r="S3">
+        <v>206.70967741935485</v>
+      </c>
+      <c r="T3">
+        <v>198.09677419354838</v>
+      </c>
+      <c r="U3">
+        <v>201.12903225806451</v>
+      </c>
+      <c r="V3">
+        <v>192.7258064516129</v>
+      </c>
+      <c r="W3">
+        <v>202.34677419354838</v>
+      </c>
+      <c r="X3">
+        <v>194.62096774193549</v>
+      </c>
+      <c r="Y3">
+        <v>203.08870967741936</v>
+      </c>
+      <c r="Z3">
+        <v>197.19354838709677</v>
+      </c>
+      <c r="AA3">
+        <v>193.04032258064515</v>
+      </c>
+      <c r="AB3">
+        <v>196.57258064516128</v>
+      </c>
+      <c r="AC3">
+        <v>190.45161290322579</v>
+      </c>
+      <c r="AD3">
+        <v>201.34677419354838</v>
+      </c>
+      <c r="AE3">
+        <v>208.01612903225808</v>
+      </c>
+      <c r="AF3">
+        <v>202.21774193548387</v>
+      </c>
+      <c r="AG3">
+        <v>193.41935483870967</v>
+      </c>
+      <c r="AH3">
+        <v>198.12096774193549</v>
+      </c>
+      <c r="AI3">
+        <v>190.46774193548387</v>
+      </c>
+      <c r="AJ3">
+        <v>202.45967741935485</v>
+      </c>
+      <c r="AK3">
         <v>204.4758064516129</v>
       </c>
-      <c r="M3">
-        <v>195.64516129032259</v>
-      </c>
-      <c r="N3">
-        <v>197.86290322580646</v>
-      </c>
-      <c r="O3">
-        <v>202.07258064516128</v>
-      </c>
-      <c r="P3">
-        <v>204.33870967741936</v>
-      </c>
-      <c r="Q3">
-        <v>191.15322580645162</v>
-      </c>
-      <c r="R3">
-        <v>203.08870967741936</v>
-      </c>
-      <c r="S3">
-        <v>198.10483870967741</v>
-      </c>
-      <c r="T3">
-        <v>194.55645161290323</v>
-      </c>
-      <c r="U3">
-        <v>199.2741935483871</v>
-      </c>
-      <c r="V3">
-        <v>196.84677419354838</v>
-      </c>
-      <c r="W3">
-        <v>206.26612903225808</v>
-      </c>
-      <c r="X3">
-        <v>216.13709677419354</v>
-      </c>
-      <c r="Y3">
-        <v>203.89516129032259</v>
-      </c>
-      <c r="Z3">
-        <v>204.7258064516129</v>
-      </c>
-      <c r="AA3">
-        <v>207.79032258064515</v>
-      </c>
-      <c r="AB3">
-        <v>216.91935483870967</v>
-      </c>
-      <c r="AC3">
-        <v>193.21774193548387</v>
-      </c>
-      <c r="AD3">
-        <v>206.99193548387098</v>
-      </c>
-      <c r="AE3">
-        <v>199.79032258064515</v>
-      </c>
-      <c r="AF3">
-        <v>198.62096774193549</v>
-      </c>
-      <c r="AG3">
-        <v>188.58870967741936</v>
-      </c>
-      <c r="AH3">
-        <v>198.40322580645162</v>
-      </c>
-      <c r="AI3">
-        <v>199.43548387096774</v>
-      </c>
-      <c r="AJ3">
-        <v>196.32258064516128</v>
-      </c>
-      <c r="AK3">
-        <v>198.75806451612902</v>
-      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>199.41129032258064</v>
+        <v>201.70161290322579</v>
       </c>
       <c r="C4">
-        <v>196.55645161290323</v>
+        <v>202.70161290322579</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>202.19354838709677</v>
+        <v>193.79032258064515</v>
       </c>
       <c r="F4">
-        <v>196.89516129032259</v>
+        <v>199.75806451612902</v>
       </c>
       <c r="G4">
-        <v>204.45161290322579</v>
+        <v>204.71774193548387</v>
       </c>
       <c r="H4">
-        <v>204.99193548387098</v>
+        <v>198.01612903225808</v>
       </c>
       <c r="I4">
-        <v>201.33064516129033</v>
+        <v>205.75806451612902</v>
       </c>
       <c r="J4">
-        <v>193.5241935483871</v>
+        <v>188</v>
       </c>
       <c r="K4">
-        <v>194.90322580645162</v>
+        <v>199.38709677419354</v>
       </c>
       <c r="L4">
-        <v>195.29032258064515</v>
+        <v>196.13709677419354</v>
       </c>
       <c r="M4">
-        <v>197.06451612903226</v>
+        <v>205.66935483870967</v>
       </c>
       <c r="N4">
-        <v>199.64516129032259</v>
+        <v>195.66935483870967</v>
       </c>
       <c r="O4">
-        <v>196.58870967741936</v>
+        <v>212.61290322580646</v>
       </c>
       <c r="P4">
-        <v>189.11290322580646</v>
+        <v>196.95967741935485</v>
       </c>
       <c r="Q4">
-        <v>202.38709677419354</v>
+        <v>200.58064516129033</v>
       </c>
       <c r="R4">
-        <v>203.99193548387098</v>
+        <v>207.26612903225808</v>
       </c>
       <c r="S4">
-        <v>198.32258064516128</v>
+        <v>191.41129032258064</v>
       </c>
       <c r="T4">
-        <v>197.7741935483871</v>
+        <v>201.29838709677421</v>
       </c>
       <c r="U4">
-        <v>203.44354838709677</v>
+        <v>197.08064516129033</v>
       </c>
       <c r="V4">
-        <v>195.58870967741936</v>
+        <v>192.81451612903226</v>
       </c>
       <c r="W4">
-        <v>205.16935483870967</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="X4">
-        <v>199.08064516129033</v>
+        <v>198.48387096774192</v>
       </c>
       <c r="Y4">
-        <v>201.56451612903226</v>
+        <v>194.35483870967741</v>
       </c>
       <c r="Z4">
-        <v>197.04032258064515</v>
+        <v>194.35483870967741</v>
       </c>
       <c r="AA4">
-        <v>200.87903225806451</v>
+        <v>190.25806451612902</v>
       </c>
       <c r="AB4">
-        <v>203.16935483870967</v>
+        <v>202.03225806451613</v>
       </c>
       <c r="AC4">
-        <v>198.71774193548387</v>
+        <v>197.54032258064515</v>
       </c>
       <c r="AD4">
-        <v>195.60483870967741</v>
+        <v>193.91935483870967</v>
       </c>
       <c r="AE4">
-        <v>202.37096774193549</v>
+        <v>205.37903225806451</v>
       </c>
       <c r="AF4">
-        <v>202.41129032258064</v>
+        <v>204.31451612903226</v>
       </c>
       <c r="AG4">
-        <v>199.92741935483872</v>
+        <v>212.68548387096774</v>
       </c>
       <c r="AH4">
-        <v>202.9758064516129</v>
+        <v>192.79032258064515</v>
       </c>
       <c r="AI4">
-        <v>204.49193548387098</v>
+        <v>198.30645161290323</v>
       </c>
       <c r="AJ4">
-        <v>199.60483870967741</v>
+        <v>198.46774193548387</v>
       </c>
       <c r="AK4">
-        <v>202.57258064516128</v>
+        <v>203.96774193548387</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>202.37096774193549</v>
+        <v>190.16129032258064</v>
       </c>
       <c r="C5">
-        <v>210.66129032258064</v>
+        <v>192.08064516129033</v>
       </c>
       <c r="D5">
-        <v>202.19354838709677</v>
+        <v>193.79032258064515</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>206.83064516129033</v>
+        <v>208.2258064516129</v>
       </c>
       <c r="G5">
-        <v>207.70967741935485</v>
+        <v>199.09677419354838</v>
       </c>
       <c r="H5">
-        <v>198.58870967741936</v>
+        <v>199.83870967741936</v>
       </c>
       <c r="I5">
-        <v>199.29838709677421</v>
+        <v>199.73387096774192</v>
       </c>
       <c r="J5">
-        <v>198.05645161290323</v>
+        <v>199.49193548387098</v>
       </c>
       <c r="K5">
-        <v>198.39516129032259</v>
+        <v>195.95967741935485</v>
       </c>
       <c r="L5">
-        <v>208</v>
+        <v>198.9758064516129</v>
       </c>
       <c r="M5">
-        <v>194.36290322580646</v>
+        <v>200.33870967741936</v>
       </c>
       <c r="N5">
-        <v>197.11290322580646</v>
+        <v>200.49193548387098</v>
       </c>
       <c r="O5">
-        <v>205.74193548387098</v>
+        <v>196.50806451612902</v>
       </c>
       <c r="P5">
-        <v>201.84677419354838</v>
+        <v>189.60483870967741</v>
       </c>
       <c r="Q5">
-        <v>197.36290322580646</v>
+        <v>198.60483870967741</v>
       </c>
       <c r="R5">
-        <v>205.81451612903226</v>
+        <v>207.06451612903226</v>
       </c>
       <c r="S5">
-        <v>200.92741935483872</v>
+        <v>197.82258064516128</v>
       </c>
       <c r="T5">
-        <v>202.78225806451613</v>
+        <v>202.87096774193549</v>
       </c>
       <c r="U5">
-        <v>201.23387096774192</v>
+        <v>199.50806451612902</v>
       </c>
       <c r="V5">
-        <v>204.0241935483871</v>
+        <v>196.98387096774192</v>
       </c>
       <c r="W5">
-        <v>197.16935483870967</v>
+        <v>206.95967741935485</v>
       </c>
       <c r="X5">
-        <v>193.84677419354838</v>
+        <v>191.58870967741936</v>
       </c>
       <c r="Y5">
-        <v>199.93548387096774</v>
+        <v>194.33064516129033</v>
       </c>
       <c r="Z5">
-        <v>193.58870967741936</v>
+        <v>201.29032258064515</v>
       </c>
       <c r="AA5">
+        <v>198.62096774193549</v>
+      </c>
+      <c r="AB5">
         <v>198.86290322580646</v>
       </c>
-      <c r="AB5">
-        <v>203.5241935483871</v>
-      </c>
       <c r="AC5">
-        <v>200.67741935483872</v>
+        <v>213.66935483870967</v>
       </c>
       <c r="AD5">
-        <v>204.25</v>
+        <v>198.64516129032259</v>
       </c>
       <c r="AE5">
-        <v>206.31451612903226</v>
+        <v>202.04838709677421</v>
       </c>
       <c r="AF5">
-        <v>201.95967741935485</v>
+        <v>202.90322580645162</v>
       </c>
       <c r="AG5">
-        <v>200.04838709677421</v>
+        <v>206.73387096774192</v>
       </c>
       <c r="AH5">
-        <v>203.37903225806451</v>
+        <v>202.81451612903226</v>
       </c>
       <c r="AI5">
-        <v>207.24193548387098</v>
+        <v>204.34677419354838</v>
       </c>
       <c r="AJ5">
-        <v>196.39516129032259</v>
+        <v>196.85483870967741</v>
       </c>
       <c r="AK5">
-        <v>195.56451612903226</v>
+        <v>202.49193548387098</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>204.91935483870967</v>
+        <v>197.95967741935485</v>
       </c>
       <c r="C6">
-        <v>200.68548387096774</v>
+        <v>200.13709677419354</v>
       </c>
       <c r="D6">
-        <v>196.89516129032259</v>
+        <v>199.75806451612902</v>
       </c>
       <c r="E6">
-        <v>206.83064516129033</v>
+        <v>208.2258064516129</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>193.91129032258064</v>
+        <v>200.37903225806451</v>
       </c>
       <c r="H6">
-        <v>203.7258064516129</v>
+        <v>204.56451612903226</v>
       </c>
       <c r="I6">
-        <v>196.83870967741936</v>
+        <v>203.90322580645162</v>
       </c>
       <c r="J6">
-        <v>186.94354838709677</v>
+        <v>209.09677419354838</v>
       </c>
       <c r="K6">
-        <v>195.41935483870967</v>
+        <v>208.46774193548387</v>
       </c>
       <c r="L6">
-        <v>197.20161290322579</v>
+        <v>207.50806451612902</v>
       </c>
       <c r="M6">
-        <v>205.18548387096774</v>
+        <v>201.89516129032259</v>
       </c>
       <c r="N6">
-        <v>189.7741935483871</v>
+        <v>208.64516129032259</v>
       </c>
       <c r="O6">
-        <v>205.31451612903226</v>
+        <v>200.04838709677421</v>
       </c>
       <c r="P6">
-        <v>198.71774193548387</v>
+        <v>205.03225806451613</v>
       </c>
       <c r="Q6">
-        <v>196.93548387096774</v>
+        <v>201.2741935483871</v>
       </c>
       <c r="R6">
-        <v>203.56451612903226</v>
+        <v>202.49193548387098</v>
       </c>
       <c r="S6">
-        <v>198.90322580645162</v>
+        <v>200.0241935483871</v>
       </c>
       <c r="T6">
-        <v>200.41935483870967</v>
+        <v>200.59677419354838</v>
       </c>
       <c r="U6">
-        <v>202.99193548387098</v>
+        <v>190.80645161290323</v>
       </c>
       <c r="V6">
-        <v>208.53225806451613</v>
+        <v>202.70161290322579</v>
       </c>
       <c r="W6">
-        <v>200.64516129032259</v>
+        <v>206.2741935483871</v>
       </c>
       <c r="X6">
-        <v>201.26612903225808</v>
+        <v>213.60483870967741</v>
       </c>
       <c r="Y6">
-        <v>199.46774193548387</v>
+        <v>204.49193548387098</v>
       </c>
       <c r="Z6">
-        <v>194.0241935483871</v>
+        <v>200.37903225806451</v>
       </c>
       <c r="AA6">
-        <v>200.44354838709677</v>
+        <v>197.78225806451613</v>
       </c>
       <c r="AB6">
-        <v>201.53225806451613</v>
+        <v>208.7258064516129</v>
       </c>
       <c r="AC6">
-        <v>204.16129032258064</v>
+        <v>200.70161290322579</v>
       </c>
       <c r="AD6">
-        <v>194.67741935483872</v>
+        <v>202.96774193548387</v>
       </c>
       <c r="AE6">
-        <v>197.85483870967741</v>
+        <v>200.95161290322579</v>
       </c>
       <c r="AF6">
-        <v>204.45967741935485</v>
+        <v>204.03225806451613</v>
       </c>
       <c r="AG6">
-        <v>193.60483870967741</v>
+        <v>206.43548387096774</v>
       </c>
       <c r="AH6">
-        <v>196.06451612903226</v>
+        <v>197.13709677419354</v>
       </c>
       <c r="AI6">
-        <v>200.33870967741936</v>
+        <v>199.57258064516128</v>
       </c>
       <c r="AJ6">
-        <v>196.62903225806451</v>
+        <v>196.71774193548387</v>
       </c>
       <c r="AK6">
-        <v>198.66935483870967</v>
+        <v>212.12903225806451</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>194.54838709677421</v>
+        <v>202.88709677419354</v>
       </c>
       <c r="C7">
-        <v>194.71774193548387</v>
+        <v>199.4758064516129</v>
       </c>
       <c r="D7">
-        <v>204.45161290322579</v>
+        <v>204.71774193548387</v>
       </c>
       <c r="E7">
-        <v>207.70967741935485</v>
+        <v>199.09677419354838</v>
       </c>
       <c r="F7">
-        <v>193.91129032258064</v>
+        <v>200.37903225806451</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7">
-        <v>205.37903225806451</v>
+        <v>206.90322580645162</v>
       </c>
       <c r="I7">
+        <v>202.66129032258064</v>
+      </c>
+      <c r="J7">
+        <v>198.14516129032259</v>
+      </c>
+      <c r="K7">
+        <v>207.29838709677421</v>
+      </c>
+      <c r="L7">
+        <v>203.93548387096774</v>
+      </c>
+      <c r="M7">
+        <v>203.51612903225808</v>
+      </c>
+      <c r="N7">
+        <v>199.54032258064515</v>
+      </c>
+      <c r="O7">
+        <v>198.04838709677421</v>
+      </c>
+      <c r="P7">
+        <v>199.35483870967741</v>
+      </c>
+      <c r="Q7">
+        <v>201.39516129032259</v>
+      </c>
+      <c r="R7">
+        <v>195.95967741935485</v>
+      </c>
+      <c r="S7">
+        <v>200.25</v>
+      </c>
+      <c r="T7">
+        <v>196.94354838709677</v>
+      </c>
+      <c r="U7">
         <v>198.46774193548387</v>
       </c>
-      <c r="J7">
-        <v>192.53225806451613</v>
-      </c>
-      <c r="K7">
-        <v>199.12903225806451</v>
-      </c>
-      <c r="L7">
-        <v>191.99193548387098</v>
-      </c>
-      <c r="M7">
-        <v>201.37096774193549</v>
-      </c>
-      <c r="N7">
-        <v>195.94354838709677</v>
-      </c>
-      <c r="O7">
-        <v>207.53225806451613</v>
-      </c>
-      <c r="P7">
-        <v>199.65322580645162</v>
-      </c>
-      <c r="Q7">
-        <v>199.21774193548387</v>
-      </c>
-      <c r="R7">
-        <v>202.29838709677421</v>
-      </c>
-      <c r="S7">
-        <v>204.14516129032259</v>
-      </c>
-      <c r="T7">
-        <v>204.89516129032259</v>
-      </c>
-      <c r="U7">
-        <v>195.87903225806451</v>
-      </c>
       <c r="V7">
-        <v>209.55645161290323</v>
+        <v>191.78225806451613</v>
       </c>
       <c r="W7">
-        <v>190.64516129032259</v>
+        <v>206.10483870967741</v>
       </c>
       <c r="X7">
-        <v>200.53225806451613</v>
+        <v>203.79032258064515</v>
       </c>
       <c r="Y7">
-        <v>204.38709677419354</v>
+        <v>212.60483870967741</v>
       </c>
       <c r="Z7">
-        <v>202.87096774193549</v>
+        <v>198.95161290322579</v>
       </c>
       <c r="AA7">
-        <v>199.7258064516129</v>
+        <v>199.45967741935485</v>
       </c>
       <c r="AB7">
-        <v>199.14516129032259</v>
+        <v>203.81451612903226</v>
       </c>
       <c r="AC7">
-        <v>213.51612903225808</v>
+        <v>199.0241935483871</v>
       </c>
       <c r="AD7">
-        <v>207.2741935483871</v>
+        <v>196.84677419354838</v>
       </c>
       <c r="AE7">
-        <v>199.39516129032259</v>
+        <v>209.67741935483872</v>
       </c>
       <c r="AF7">
-        <v>207.25</v>
+        <v>196.10483870967741</v>
       </c>
       <c r="AG7">
-        <v>200.7258064516129</v>
+        <v>195.83870967741936</v>
       </c>
       <c r="AH7">
-        <v>203.5241935483871</v>
+        <v>197.75</v>
       </c>
       <c r="AI7">
-        <v>207.67741935483872</v>
+        <v>200.48387096774192</v>
       </c>
       <c r="AJ7">
-        <v>196.98387096774192</v>
+        <v>195.08064516129033</v>
       </c>
       <c r="AK7">
-        <v>198.34677419354838</v>
+        <v>204.23387096774192</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>197.20967741935485</v>
+        <v>196.04032258064515</v>
       </c>
       <c r="C8">
-        <v>207.18548387096774</v>
+        <v>210.87096774193549</v>
       </c>
       <c r="D8">
-        <v>204.99193548387098</v>
+        <v>198.01612903225808</v>
       </c>
       <c r="E8">
-        <v>198.58870967741936</v>
+        <v>199.83870967741936</v>
       </c>
       <c r="F8">
-        <v>203.7258064516129</v>
+        <v>204.56451612903226</v>
       </c>
       <c r="G8">
-        <v>205.37903225806451</v>
+        <v>206.90322580645162</v>
       </c>
       <c r="H8">
         <v>1000</v>
       </c>
       <c r="I8">
-        <v>191.03225806451613</v>
+        <v>192.71774193548387</v>
       </c>
       <c r="J8">
-        <v>201.68548387096774</v>
+        <v>204.88709677419354</v>
       </c>
       <c r="K8">
-        <v>193.33064516129033</v>
+        <v>205.98387096774192</v>
       </c>
       <c r="L8">
-        <v>199.48387096774192</v>
+        <v>203.7741935483871</v>
       </c>
       <c r="M8">
-        <v>196.5</v>
+        <v>195.12096774193549</v>
       </c>
       <c r="N8">
-        <v>199.70161290322579</v>
+        <v>194.62096774193549</v>
       </c>
       <c r="O8">
-        <v>197.19354838709677</v>
+        <v>201.28225806451613</v>
       </c>
       <c r="P8">
-        <v>197.7258064516129</v>
+        <v>194.56451612903226</v>
       </c>
       <c r="Q8">
-        <v>198.05645161290323</v>
+        <v>212.80645161290323</v>
       </c>
       <c r="R8">
-        <v>198.85483870967741</v>
+        <v>201.25806451612902</v>
       </c>
       <c r="S8">
-        <v>201.71774193548387</v>
+        <v>200.20967741935485</v>
       </c>
       <c r="T8">
-        <v>199.04032258064515</v>
+        <v>186.96774193548387</v>
       </c>
       <c r="U8">
-        <v>191.70967741935485</v>
+        <v>194.53225806451613</v>
       </c>
       <c r="V8">
-        <v>199.2741935483871</v>
+        <v>197.16129032258064</v>
       </c>
       <c r="W8">
-        <v>203.70161290322579</v>
+        <v>192.66129032258064</v>
       </c>
       <c r="X8">
-        <v>202.34677419354838</v>
+        <v>197.55645161290323</v>
       </c>
       <c r="Y8">
-        <v>213.44354838709677</v>
+        <v>188.91935483870967</v>
       </c>
       <c r="Z8">
-        <v>201.70161290322579</v>
+        <v>203.10483870967741</v>
       </c>
       <c r="AA8">
-        <v>198.63709677419354</v>
+        <v>196.49193548387098</v>
       </c>
       <c r="AB8">
-        <v>201.12096774193549</v>
+        <v>200.2741935483871</v>
       </c>
       <c r="AC8">
-        <v>206.12903225806451</v>
+        <v>199.14516129032259</v>
       </c>
       <c r="AD8">
-        <v>194.84677419354838</v>
+        <v>206.51612903225808</v>
       </c>
       <c r="AE8">
-        <v>202.68548387096774</v>
+        <v>201.04838709677421</v>
       </c>
       <c r="AF8">
-        <v>191.46774193548387</v>
+        <v>193.09677419354838</v>
       </c>
       <c r="AG8">
-        <v>203.11290322580646</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="AH8">
-        <v>206.08064516129033</v>
+        <v>190.32258064516128</v>
       </c>
       <c r="AI8">
-        <v>195.00806451612902</v>
+        <v>196.45967741935485</v>
       </c>
       <c r="AJ8">
-        <v>204.70967741935485</v>
+        <v>207.87096774193549</v>
       </c>
       <c r="AK8">
-        <v>200.98387096774192</v>
+        <v>196.89516129032259</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>199.54032258064515</v>
+        <v>204.53225806451613</v>
       </c>
       <c r="C9">
-        <v>186.71774193548387</v>
+        <v>184.66129032258064</v>
       </c>
       <c r="D9">
-        <v>201.33064516129033</v>
+        <v>205.75806451612902</v>
       </c>
       <c r="E9">
-        <v>199.29838709677421</v>
+        <v>199.73387096774192</v>
       </c>
       <c r="F9">
-        <v>196.83870967741936</v>
+        <v>203.90322580645162</v>
       </c>
       <c r="G9">
-        <v>198.46774193548387</v>
+        <v>202.66129032258064</v>
       </c>
       <c r="H9">
-        <v>191.03225806451613</v>
+        <v>192.71774193548387</v>
       </c>
       <c r="I9">
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>200.60483870967741</v>
+        <v>196.16129032258064</v>
       </c>
       <c r="K9">
-        <v>198.54032258064515</v>
+        <v>195.03225806451613</v>
       </c>
       <c r="L9">
-        <v>192.5</v>
+        <v>208.51612903225808</v>
       </c>
       <c r="M9">
-        <v>194.55645161290323</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="N9">
-        <v>197.04838709677421</v>
+        <v>203.90322580645162</v>
       </c>
       <c r="O9">
-        <v>206.06451612903226</v>
+        <v>195.90322580645162</v>
       </c>
       <c r="P9">
-        <v>200.95967741935485</v>
+        <v>199.09677419354838</v>
       </c>
       <c r="Q9">
-        <v>193.81451612903226</v>
+        <v>206.32258064516128</v>
       </c>
       <c r="R9">
-        <v>204.84677419354838</v>
+        <v>206.62096774193549</v>
       </c>
       <c r="S9">
+        <v>208.87903225806451</v>
+      </c>
+      <c r="T9">
+        <v>196.98387096774192</v>
+      </c>
+      <c r="U9">
+        <v>205.50806451612902</v>
+      </c>
+      <c r="V9">
+        <v>197.92741935483872</v>
+      </c>
+      <c r="W9">
+        <v>194.40322580645162</v>
+      </c>
+      <c r="X9">
+        <v>193.83870967741936</v>
+      </c>
+      <c r="Y9">
         <v>204.41935483870967</v>
       </c>
-      <c r="T9">
-        <v>202.10483870967741</v>
-      </c>
-      <c r="U9">
-        <v>199.93548387096774</v>
-      </c>
-      <c r="V9">
-        <v>207.62096774193549</v>
-      </c>
-      <c r="W9">
-        <v>206.58064516129033</v>
-      </c>
-      <c r="X9">
-        <v>197.08064516129033</v>
-      </c>
-      <c r="Y9">
-        <v>203.88709677419354</v>
-      </c>
       <c r="Z9">
-        <v>203.69354838709677</v>
+        <v>195.04032258064515</v>
       </c>
       <c r="AA9">
-        <v>193.95161290322579</v>
+        <v>212.75</v>
       </c>
       <c r="AB9">
-        <v>201.37096774193549</v>
+        <v>200.79032258064515</v>
       </c>
       <c r="AC9">
-        <v>202.20161290322579</v>
+        <v>192.16935483870967</v>
       </c>
       <c r="AD9">
-        <v>198.09677419354838</v>
+        <v>207.26612903225808</v>
       </c>
       <c r="AE9">
-        <v>208.56451612903226</v>
+        <v>202.26612903225808</v>
       </c>
       <c r="AF9">
-        <v>200.03225806451613</v>
+        <v>190</v>
       </c>
       <c r="AG9">
-        <v>195.90322580645162</v>
+        <v>204.75</v>
       </c>
       <c r="AH9">
-        <v>195.91935483870967</v>
+        <v>195.09677419354838</v>
       </c>
       <c r="AI9">
-        <v>204.78225806451613</v>
+        <v>212.60483870967741</v>
       </c>
       <c r="AJ9">
-        <v>198.7741935483871</v>
+        <v>209</v>
       </c>
       <c r="AK9">
-        <v>191.91935483870967</v>
+        <v>187.23387096774192</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>196.73387096774192</v>
+        <v>208.67741935483872</v>
       </c>
       <c r="C10">
-        <v>198.20967741935485</v>
+        <v>189.76612903225808</v>
       </c>
       <c r="D10">
-        <v>193.5241935483871</v>
+        <v>188</v>
       </c>
       <c r="E10">
-        <v>198.05645161290323</v>
+        <v>199.49193548387098</v>
       </c>
       <c r="F10">
-        <v>186.94354838709677</v>
+        <v>209.09677419354838</v>
       </c>
       <c r="G10">
-        <v>192.53225806451613</v>
+        <v>198.14516129032259</v>
       </c>
       <c r="H10">
-        <v>201.68548387096774</v>
+        <v>204.88709677419354</v>
       </c>
       <c r="I10">
-        <v>200.60483870967741</v>
+        <v>196.16129032258064</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
-        <v>201.83064516129033</v>
+        <v>202.35483870967741</v>
       </c>
       <c r="L10">
-        <v>192.31451612903226</v>
+        <v>207.73387096774192</v>
       </c>
       <c r="M10">
-        <v>199.79838709677421</v>
+        <v>195.46774193548387</v>
       </c>
       <c r="N10">
-        <v>206.45161290322579</v>
+        <v>198.31451612903226</v>
       </c>
       <c r="O10">
-        <v>200.83870967741936</v>
+        <v>195.86290322580646</v>
       </c>
       <c r="P10">
-        <v>208.46774193548387</v>
+        <v>203.30645161290323</v>
       </c>
       <c r="Q10">
-        <v>205.78225806451613</v>
+        <v>200.70967741935485</v>
       </c>
       <c r="R10">
-        <v>200.06451612903226</v>
+        <v>200.85483870967741</v>
       </c>
       <c r="S10">
-        <v>207.04838709677421</v>
+        <v>201.25806451612902</v>
       </c>
       <c r="T10">
-        <v>196.17741935483872</v>
+        <v>197.15322580645162</v>
       </c>
       <c r="U10">
+        <v>202</v>
+      </c>
+      <c r="V10">
+        <v>193.29032258064515</v>
+      </c>
+      <c r="W10">
         <v>202.83870967741936</v>
       </c>
-      <c r="V10">
-        <v>202.90322580645162</v>
-      </c>
-      <c r="W10">
-        <v>198.12903225806451</v>
-      </c>
       <c r="X10">
-        <v>196.03225806451613</v>
+        <v>195.16935483870967</v>
       </c>
       <c r="Y10">
-        <v>199.62096774193549</v>
+        <v>203.98387096774192</v>
       </c>
       <c r="Z10">
-        <v>192.75806451612902</v>
+        <v>198.93548387096774</v>
       </c>
       <c r="AA10">
-        <v>195.82258064516128</v>
+        <v>199.66129032258064</v>
       </c>
       <c r="AB10">
-        <v>194.62096774193549</v>
+        <v>197.67741935483872</v>
       </c>
       <c r="AC10">
-        <v>205.7741935483871</v>
+        <v>193.15322580645162</v>
       </c>
       <c r="AD10">
-        <v>194.62096774193549</v>
+        <v>190.08064516129033</v>
       </c>
       <c r="AE10">
-        <v>193.67741935483872</v>
+        <v>196.7258064516129</v>
       </c>
       <c r="AF10">
-        <v>193.5241935483871</v>
+        <v>204.91129032258064</v>
       </c>
       <c r="AG10">
-        <v>202.95967741935485</v>
+        <v>197.29032258064515</v>
       </c>
       <c r="AH10">
-        <v>192.32258064516128</v>
+        <v>198.74193548387098</v>
       </c>
       <c r="AI10">
-        <v>196.40322580645162</v>
+        <v>196.75</v>
       </c>
       <c r="AJ10">
-        <v>201.07258064516128</v>
+        <v>204.75</v>
       </c>
       <c r="AK10">
-        <v>193.92741935483872</v>
+        <v>195.06451612903226</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>200.57258064516128</v>
+        <v>202.63709677419354</v>
       </c>
       <c r="C11">
-        <v>207.83064516129033</v>
+        <v>194.76612903225808</v>
       </c>
       <c r="D11">
-        <v>194.90322580645162</v>
+        <v>199.38709677419354</v>
       </c>
       <c r="E11">
-        <v>198.39516129032259</v>
+        <v>195.95967741935485</v>
       </c>
       <c r="F11">
-        <v>195.41935483870967</v>
+        <v>208.46774193548387</v>
       </c>
       <c r="G11">
-        <v>199.12903225806451</v>
+        <v>207.29838709677421</v>
       </c>
       <c r="H11">
-        <v>193.33064516129033</v>
+        <v>205.98387096774192</v>
       </c>
       <c r="I11">
-        <v>198.54032258064515</v>
+        <v>195.03225806451613</v>
       </c>
       <c r="J11">
-        <v>201.83064516129033</v>
+        <v>202.35483870967741</v>
       </c>
       <c r="K11">
         <v>1000</v>
       </c>
       <c r="L11">
-        <v>211.5</v>
+        <v>198.59677419354838</v>
       </c>
       <c r="M11">
-        <v>203.13709677419354</v>
+        <v>203.5</v>
       </c>
       <c r="N11">
-        <v>196.24193548387098</v>
+        <v>204.96774193548387</v>
       </c>
       <c r="O11">
-        <v>197.78225806451613</v>
+        <v>200.48387096774192</v>
       </c>
       <c r="P11">
-        <v>193.71774193548387</v>
+        <v>196.39516129032259</v>
       </c>
       <c r="Q11">
-        <v>202.2258064516129</v>
+        <v>199.2741935483871</v>
       </c>
       <c r="R11">
-        <v>202.30645161290323</v>
+        <v>200.64516129032259</v>
       </c>
       <c r="S11">
-        <v>201.26612903225808</v>
+        <v>197.58870967741936</v>
       </c>
       <c r="T11">
-        <v>197.4758064516129</v>
+        <v>198.7741935483871</v>
       </c>
       <c r="U11">
-        <v>200.07258064516128</v>
+        <v>201.19354838709677</v>
       </c>
       <c r="V11">
-        <v>197.75</v>
+        <v>208.4758064516129</v>
       </c>
       <c r="W11">
-        <v>203.88709677419354</v>
+        <v>200.25806451612902</v>
       </c>
       <c r="X11">
-        <v>197.9758064516129</v>
+        <v>199.45967741935485</v>
       </c>
       <c r="Y11">
-        <v>198.08064516129033</v>
+        <v>190.75</v>
       </c>
       <c r="Z11">
-        <v>189.39516129032259</v>
+        <v>194.67741935483872</v>
       </c>
       <c r="AA11">
-        <v>197.53225806451613</v>
+        <v>196.23387096774192</v>
       </c>
       <c r="AB11">
-        <v>209.96774193548387</v>
+        <v>197.44354838709677</v>
       </c>
       <c r="AC11">
-        <v>206.45967741935485</v>
+        <v>199.06451612903226</v>
       </c>
       <c r="AD11">
-        <v>198.08064516129033</v>
+        <v>201.5</v>
       </c>
       <c r="AE11">
-        <v>196.9758064516129</v>
+        <v>196.34677419354838</v>
       </c>
       <c r="AF11">
-        <v>206.39516129032259</v>
+        <v>199.38709677419354</v>
       </c>
       <c r="AG11">
-        <v>206.44354838709677</v>
+        <v>202.13709677419354</v>
       </c>
       <c r="AH11">
-        <v>196.38709677419354</v>
+        <v>195.12903225806451</v>
       </c>
       <c r="AI11">
-        <v>200.71774193548387</v>
+        <v>200.53225806451613</v>
       </c>
       <c r="AJ11">
-        <v>189.29032258064515</v>
+        <v>197.19354838709677</v>
       </c>
       <c r="AK11">
-        <v>213.54838709677421</v>
+        <v>203.09677419354838</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>197.43548387096774</v>
+        <v>187.75</v>
       </c>
       <c r="C12">
-        <v>204.4758064516129</v>
+        <v>192.56451612903226</v>
       </c>
       <c r="D12">
-        <v>195.29032258064515</v>
+        <v>196.13709677419354</v>
       </c>
       <c r="E12">
-        <v>208</v>
+        <v>198.9758064516129</v>
       </c>
       <c r="F12">
-        <v>197.20161290322579</v>
+        <v>207.50806451612902</v>
       </c>
       <c r="G12">
-        <v>191.99193548387098</v>
+        <v>203.93548387096774</v>
       </c>
       <c r="H12">
-        <v>199.48387096774192</v>
+        <v>203.7741935483871</v>
       </c>
       <c r="I12">
-        <v>192.5</v>
+        <v>208.51612903225808</v>
       </c>
       <c r="J12">
-        <v>192.31451612903226</v>
+        <v>207.73387096774192</v>
       </c>
       <c r="K12">
-        <v>211.5</v>
+        <v>198.59677419354838</v>
       </c>
       <c r="L12">
         <v>1000</v>
       </c>
       <c r="M12">
-        <v>194.2258064516129</v>
+        <v>198.87096774193549</v>
       </c>
       <c r="N12">
-        <v>201.17741935483872</v>
+        <v>200.85483870967741</v>
       </c>
       <c r="O12">
-        <v>193.29032258064515</v>
+        <v>193.61290322580646</v>
       </c>
       <c r="P12">
-        <v>203.23387096774192</v>
+        <v>198.12903225806451</v>
       </c>
       <c r="Q12">
-        <v>192.33870967741936</v>
+        <v>201.55645161290323</v>
       </c>
       <c r="R12">
-        <v>187.37096774193549</v>
+        <v>207.55645161290323</v>
       </c>
       <c r="S12">
-        <v>202.83870967741936</v>
+        <v>199.94354838709677</v>
       </c>
       <c r="T12">
-        <v>195.0241935483871</v>
+        <v>199.69354838709677</v>
       </c>
       <c r="U12">
-        <v>206.82258064516128</v>
+        <v>197.56451612903226</v>
       </c>
       <c r="V12">
-        <v>195.25</v>
+        <v>193.13709677419354</v>
       </c>
       <c r="W12">
-        <v>205.41935483870967</v>
+        <v>204.2741935483871</v>
       </c>
       <c r="X12">
-        <v>199.34677419354838</v>
+        <v>207.84677419354838</v>
       </c>
       <c r="Y12">
-        <v>209.79838709677421</v>
+        <v>202.16129032258064</v>
       </c>
       <c r="Z12">
-        <v>199.33064516129033</v>
+        <v>202.53225806451613</v>
       </c>
       <c r="AA12">
-        <v>203.28225806451613</v>
+        <v>208.54032258064515</v>
       </c>
       <c r="AB12">
-        <v>208.44354838709677</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="AC12">
-        <v>198.49193548387098</v>
+        <v>196.64516129032259</v>
       </c>
       <c r="AD12">
-        <v>201.67741935483872</v>
+        <v>202.82258064516128</v>
       </c>
       <c r="AE12">
-        <v>197.05645161290323</v>
+        <v>196.85483870967741</v>
       </c>
       <c r="AF12">
-        <v>202.92741935483872</v>
+        <v>203.35483870967741</v>
       </c>
       <c r="AG12">
-        <v>197.96774193548387</v>
+        <v>197.29838709677421</v>
       </c>
       <c r="AH12">
-        <v>199.33870967741936</v>
+        <v>201.91129032258064</v>
       </c>
       <c r="AI12">
-        <v>200.96774193548387</v>
+        <v>207.42741935483872</v>
       </c>
       <c r="AJ12">
-        <v>206.33870967741936</v>
+        <v>188.33064516129033</v>
       </c>
       <c r="AK12">
-        <v>191.42741935483872</v>
+        <v>194.79838709677421</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>205.41935483870967</v>
+        <v>193.19354838709677</v>
       </c>
       <c r="C13">
-        <v>195.64516129032259</v>
+        <v>211.10483870967741</v>
       </c>
       <c r="D13">
-        <v>197.06451612903226</v>
+        <v>205.66935483870967</v>
       </c>
       <c r="E13">
-        <v>194.36290322580646</v>
+        <v>200.33870967741936</v>
       </c>
       <c r="F13">
-        <v>205.18548387096774</v>
+        <v>201.89516129032259</v>
       </c>
       <c r="G13">
-        <v>201.37096774193549</v>
+        <v>203.51612903225808</v>
       </c>
       <c r="H13">
-        <v>196.5</v>
+        <v>195.12096774193549</v>
       </c>
       <c r="I13">
-        <v>194.55645161290323</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="J13">
-        <v>199.79838709677421</v>
+        <v>195.46774193548387</v>
       </c>
       <c r="K13">
-        <v>203.13709677419354</v>
+        <v>203.5</v>
       </c>
       <c r="L13">
-        <v>194.2258064516129</v>
+        <v>198.87096774193549</v>
       </c>
       <c r="M13">
         <v>1000</v>
       </c>
       <c r="N13">
-        <v>203.76612903225808</v>
+        <v>196.91129032258064</v>
       </c>
       <c r="O13">
-        <v>198.67741935483872</v>
+        <v>198.34677419354838</v>
       </c>
       <c r="P13">
-        <v>194.48387096774192</v>
+        <v>188.74193548387098</v>
       </c>
       <c r="Q13">
-        <v>200.62096774193549</v>
+        <v>202.43548387096774</v>
       </c>
       <c r="R13">
-        <v>188.95161290322579</v>
+        <v>195.10483870967741</v>
       </c>
       <c r="S13">
-        <v>205.68548387096774</v>
+        <v>194.40322580645162</v>
       </c>
       <c r="T13">
-        <v>204.18548387096774</v>
+        <v>201.9758064516129</v>
       </c>
       <c r="U13">
-        <v>199.92741935483872</v>
+        <v>191.83870967741936</v>
       </c>
       <c r="V13">
-        <v>195.39516129032259</v>
+        <v>210.81451612903226</v>
       </c>
       <c r="W13">
-        <v>192.53225806451613</v>
+        <v>195.87096774193549</v>
       </c>
       <c r="X13">
-        <v>199.80645161290323</v>
+        <v>195.96774193548387</v>
       </c>
       <c r="Y13">
-        <v>203.16129032258064</v>
+        <v>196.25</v>
       </c>
       <c r="Z13">
-        <v>199.40322580645162</v>
+        <v>197.11290322580646</v>
       </c>
       <c r="AA13">
-        <v>193.30645161290323</v>
+        <v>202.41935483870967</v>
       </c>
       <c r="AB13">
-        <v>204</v>
+        <v>194.31451612903226</v>
       </c>
       <c r="AC13">
-        <v>207.85483870967741</v>
+        <v>206.67741935483872</v>
       </c>
       <c r="AD13">
-        <v>202.09677419354838</v>
+        <v>202.79032258064515</v>
       </c>
       <c r="AE13">
-        <v>189.40322580645162</v>
+        <v>203.95161290322579</v>
       </c>
       <c r="AF13">
-        <v>193.07258064516128</v>
+        <v>195.14516129032259</v>
       </c>
       <c r="AG13">
-        <v>198.59677419354838</v>
+        <v>205.31451612903226</v>
       </c>
       <c r="AH13">
-        <v>201.84677419354838</v>
+        <v>192.63709677419354</v>
       </c>
       <c r="AI13">
-        <v>200.20161290322579</v>
+        <v>192.5</v>
       </c>
       <c r="AJ13">
-        <v>198.18548387096774</v>
+        <v>194.23387096774192</v>
       </c>
       <c r="AK13">
-        <v>203.43548387096774</v>
+        <v>199.33064516129033</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>213.35483870967741</v>
+        <v>202.69354838709677</v>
       </c>
       <c r="C14">
-        <v>197.86290322580646</v>
+        <v>194.71774193548387</v>
       </c>
       <c r="D14">
-        <v>199.64516129032259</v>
+        <v>195.66935483870967</v>
       </c>
       <c r="E14">
-        <v>197.11290322580646</v>
+        <v>200.49193548387098</v>
       </c>
       <c r="F14">
-        <v>189.7741935483871</v>
+        <v>208.64516129032259</v>
       </c>
       <c r="G14">
-        <v>195.94354838709677</v>
+        <v>199.54032258064515</v>
       </c>
       <c r="H14">
-        <v>199.70161290322579</v>
+        <v>194.62096774193549</v>
       </c>
       <c r="I14">
-        <v>197.04838709677421</v>
+        <v>203.90322580645162</v>
       </c>
       <c r="J14">
-        <v>206.45161290322579</v>
+        <v>198.31451612903226</v>
       </c>
       <c r="K14">
-        <v>196.24193548387098</v>
+        <v>204.96774193548387</v>
       </c>
       <c r="L14">
-        <v>201.17741935483872</v>
+        <v>200.85483870967741</v>
       </c>
       <c r="M14">
-        <v>203.76612903225808</v>
+        <v>196.91129032258064</v>
       </c>
       <c r="N14">
         <v>1000</v>
       </c>
       <c r="O14">
-        <v>190.81451612903226</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="P14">
-        <v>194.60483870967741</v>
+        <v>197.10483870967741</v>
       </c>
       <c r="Q14">
-        <v>202.37096774193549</v>
+        <v>198.01612903225808</v>
       </c>
       <c r="R14">
-        <v>202.21774193548387</v>
+        <v>205.04032258064515</v>
       </c>
       <c r="S14">
-        <v>202.76612903225808</v>
+        <v>197.86290322580646</v>
       </c>
       <c r="T14">
-        <v>198.25</v>
+        <v>205.24193548387098</v>
       </c>
       <c r="U14">
-        <v>193.66129032258064</v>
+        <v>204.60483870967741</v>
       </c>
       <c r="V14">
-        <v>193.65322580645162</v>
+        <v>201.60483870967741</v>
       </c>
       <c r="W14">
-        <v>194.90322580645162</v>
+        <v>194.79032258064515</v>
       </c>
       <c r="X14">
-        <v>193.35483870967741</v>
+        <v>192.56451612903226</v>
       </c>
       <c r="Y14">
-        <v>202.17741935483872</v>
+        <v>198.26612903225808</v>
       </c>
       <c r="Z14">
-        <v>208.91935483870967</v>
+        <v>197.13709677419354</v>
       </c>
       <c r="AA14">
+        <v>206.32258064516128</v>
+      </c>
+      <c r="AB14">
+        <v>199.78225806451613</v>
+      </c>
+      <c r="AC14">
+        <v>202.94354838709677</v>
+      </c>
+      <c r="AD14">
+        <v>198.36290322580646</v>
+      </c>
+      <c r="AE14">
+        <v>194.00806451612902</v>
+      </c>
+      <c r="AF14">
         <v>193.41129032258064</v>
       </c>
-      <c r="AB14">
-        <v>195.95161290322579</v>
-      </c>
-      <c r="AC14">
-        <v>200.7258064516129</v>
-      </c>
-      <c r="AD14">
-        <v>187.89516129032259</v>
-      </c>
-      <c r="AE14">
-        <v>205.56451612903226</v>
-      </c>
-      <c r="AF14">
-        <v>203.39516129032259</v>
-      </c>
       <c r="AG14">
-        <v>192.78225806451613</v>
+        <v>190.65322580645162</v>
       </c>
       <c r="AH14">
-        <v>202.23387096774192</v>
+        <v>198.86290322580646</v>
       </c>
       <c r="AI14">
-        <v>204.13709677419354</v>
+        <v>209.89516129032259</v>
       </c>
       <c r="AJ14">
-        <v>197.69354838709677</v>
+        <v>201.01612903225808</v>
       </c>
       <c r="AK14">
-        <v>199.30645161290323</v>
+        <v>197.95161290322579</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>199.62903225806451</v>
+        <v>197.91935483870967</v>
       </c>
       <c r="C15">
-        <v>202.07258064516128</v>
+        <v>191.62903225806451</v>
       </c>
       <c r="D15">
-        <v>196.58870967741936</v>
+        <v>212.61290322580646</v>
       </c>
       <c r="E15">
-        <v>205.74193548387098</v>
+        <v>196.50806451612902</v>
       </c>
       <c r="F15">
-        <v>205.31451612903226</v>
+        <v>200.04838709677421</v>
       </c>
       <c r="G15">
-        <v>207.53225806451613</v>
+        <v>198.04838709677421</v>
       </c>
       <c r="H15">
-        <v>197.19354838709677</v>
+        <v>201.28225806451613</v>
       </c>
       <c r="I15">
-        <v>206.06451612903226</v>
+        <v>195.90322580645162</v>
       </c>
       <c r="J15">
-        <v>200.83870967741936</v>
+        <v>195.86290322580646</v>
       </c>
       <c r="K15">
-        <v>197.78225806451613</v>
+        <v>200.48387096774192</v>
       </c>
       <c r="L15">
-        <v>193.29032258064515</v>
+        <v>193.61290322580646</v>
       </c>
       <c r="M15">
-        <v>198.67741935483872</v>
+        <v>198.34677419354838</v>
       </c>
       <c r="N15">
-        <v>190.81451612903226</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="O15">
         <v>1000</v>
       </c>
       <c r="P15">
-        <v>203.0241935483871</v>
+        <v>193.55645161290323</v>
       </c>
       <c r="Q15">
-        <v>198.5241935483871</v>
+        <v>189.70161290322579</v>
       </c>
       <c r="R15">
-        <v>197.14516129032259</v>
+        <v>199.04032258064515</v>
       </c>
       <c r="S15">
-        <v>204.09677419354838</v>
+        <v>202.16935483870967</v>
       </c>
       <c r="T15">
-        <v>198.70967741935485</v>
+        <v>200.63709677419354</v>
       </c>
       <c r="U15">
-        <v>192.33870967741936</v>
+        <v>204.99193548387098</v>
       </c>
       <c r="V15">
-        <v>204.36290322580646</v>
+        <v>197.24193548387098</v>
       </c>
       <c r="W15">
-        <v>199.35483870967741</v>
+        <v>206.13709677419354</v>
       </c>
       <c r="X15">
-        <v>192.29838709677421</v>
+        <v>192.42741935483872</v>
       </c>
       <c r="Y15">
-        <v>196.82258064516128</v>
+        <v>207.23387096774192</v>
       </c>
       <c r="Z15">
-        <v>203.7741935483871</v>
+        <v>204.34677419354838</v>
       </c>
       <c r="AA15">
-        <v>196.85483870967741</v>
+        <v>204.5241935483871</v>
       </c>
       <c r="AB15">
-        <v>213.37096774193549</v>
+        <v>196.58064516129033</v>
       </c>
       <c r="AC15">
-        <v>199.13709677419354</v>
+        <v>211.2741935483871</v>
       </c>
       <c r="AD15">
-        <v>202</v>
+        <v>189.86290322580646</v>
       </c>
       <c r="AE15">
-        <v>196.11290322580646</v>
+        <v>211.44354838709677</v>
       </c>
       <c r="AF15">
-        <v>198.57258064516128</v>
+        <v>202.33064516129033</v>
       </c>
       <c r="AG15">
-        <v>198.35483870967741</v>
+        <v>190.31451612903226</v>
       </c>
       <c r="AH15">
-        <v>196.28225806451613</v>
+        <v>200.41129032258064</v>
       </c>
       <c r="AI15">
-        <v>207.45967741935485</v>
+        <v>196.61290322580646</v>
       </c>
       <c r="AJ15">
-        <v>208.87903225806451</v>
+        <v>193.91129032258064</v>
       </c>
       <c r="AK15">
-        <v>197.41935483870967</v>
+        <v>196.81451612903226</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>189.67741935483872</v>
+        <v>192.45161290322579</v>
       </c>
       <c r="C16">
-        <v>204.33870967741936</v>
+        <v>191.83870967741936</v>
       </c>
       <c r="D16">
-        <v>189.11290322580646</v>
+        <v>196.95967741935485</v>
       </c>
       <c r="E16">
-        <v>201.84677419354838</v>
+        <v>189.60483870967741</v>
       </c>
       <c r="F16">
-        <v>198.71774193548387</v>
+        <v>205.03225806451613</v>
       </c>
       <c r="G16">
-        <v>199.65322580645162</v>
+        <v>199.35483870967741</v>
       </c>
       <c r="H16">
-        <v>197.7258064516129</v>
+        <v>194.56451612903226</v>
       </c>
       <c r="I16">
-        <v>200.95967741935485</v>
+        <v>199.09677419354838</v>
       </c>
       <c r="J16">
-        <v>208.46774193548387</v>
+        <v>203.30645161290323</v>
       </c>
       <c r="K16">
-        <v>193.71774193548387</v>
+        <v>196.39516129032259</v>
       </c>
       <c r="L16">
-        <v>203.23387096774192</v>
+        <v>198.12903225806451</v>
       </c>
       <c r="M16">
-        <v>194.48387096774192</v>
+        <v>188.74193548387098</v>
       </c>
       <c r="N16">
-        <v>194.60483870967741</v>
+        <v>197.10483870967741</v>
       </c>
       <c r="O16">
-        <v>203.0241935483871</v>
+        <v>193.55645161290323</v>
       </c>
       <c r="P16">
         <v>1000</v>
       </c>
       <c r="Q16">
-        <v>210.2741935483871</v>
+        <v>200.55645161290323</v>
       </c>
       <c r="R16">
-        <v>201.5</v>
+        <v>192.08870967741936</v>
       </c>
       <c r="S16">
-        <v>204.45161290322579</v>
+        <v>203.28225806451613</v>
       </c>
       <c r="T16">
-        <v>196.73387096774192</v>
+        <v>201.99193548387098</v>
       </c>
       <c r="U16">
-        <v>204.17741935483872</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="V16">
-        <v>193.0241935483871</v>
+        <v>202.91129032258064</v>
       </c>
       <c r="W16">
-        <v>198.01612903225808</v>
+        <v>198.37903225806451</v>
       </c>
       <c r="X16">
-        <v>196.07258064516128</v>
+        <v>202.04032258064515</v>
       </c>
       <c r="Y16">
-        <v>199.7741935483871</v>
+        <v>202.58870967741936</v>
       </c>
       <c r="Z16">
-        <v>196.10483870967741</v>
+        <v>206.93548387096774</v>
       </c>
       <c r="AA16">
-        <v>202.45967741935485</v>
+        <v>200.25806451612902</v>
       </c>
       <c r="AB16">
-        <v>198.42741935483872</v>
+        <v>214.36290322580646</v>
       </c>
       <c r="AC16">
-        <v>214.16129032258064</v>
+        <v>190.28225806451613</v>
       </c>
       <c r="AD16">
-        <v>199.34677419354838</v>
+        <v>194.58064516129033</v>
       </c>
       <c r="AE16">
-        <v>201.66129032258064</v>
+        <v>196.80645161290323</v>
       </c>
       <c r="AF16">
-        <v>196.16935483870967</v>
+        <v>201.24193548387098</v>
       </c>
       <c r="AG16">
-        <v>195.06451612903226</v>
+        <v>205.31451612903226</v>
       </c>
       <c r="AH16">
-        <v>198.5</v>
+        <v>194.54032258064515</v>
       </c>
       <c r="AI16">
-        <v>205.36290322580646</v>
+        <v>199.58870967741936</v>
       </c>
       <c r="AJ16">
-        <v>204.87903225806451</v>
+        <v>203.11290322580646</v>
       </c>
       <c r="AK16">
-        <v>201.04838709677421</v>
+        <v>197.95161290322579</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -2342,112 +6185,112 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>190.75806451612902</v>
+        <v>201.92741935483872</v>
       </c>
       <c r="C17">
-        <v>191.15322580645162</v>
+        <v>204.19354838709677</v>
       </c>
       <c r="D17">
-        <v>202.38709677419354</v>
+        <v>200.58064516129033</v>
       </c>
       <c r="E17">
-        <v>197.36290322580646</v>
+        <v>198.60483870967741</v>
       </c>
       <c r="F17">
-        <v>196.93548387096774</v>
+        <v>201.2741935483871</v>
       </c>
       <c r="G17">
-        <v>199.21774193548387</v>
+        <v>201.39516129032259</v>
       </c>
       <c r="H17">
-        <v>198.05645161290323</v>
+        <v>212.80645161290323</v>
       </c>
       <c r="I17">
-        <v>193.81451612903226</v>
+        <v>206.32258064516128</v>
       </c>
       <c r="J17">
-        <v>205.78225806451613</v>
+        <v>200.70967741935485</v>
       </c>
       <c r="K17">
-        <v>202.2258064516129</v>
+        <v>199.2741935483871</v>
       </c>
       <c r="L17">
-        <v>192.33870967741936</v>
+        <v>201.55645161290323</v>
       </c>
       <c r="M17">
-        <v>200.62096774193549</v>
+        <v>202.43548387096774</v>
       </c>
       <c r="N17">
-        <v>202.37096774193549</v>
+        <v>198.01612903225808</v>
       </c>
       <c r="O17">
-        <v>198.5241935483871</v>
+        <v>189.70161290322579</v>
       </c>
       <c r="P17">
-        <v>210.2741935483871</v>
+        <v>200.55645161290323</v>
       </c>
       <c r="Q17">
         <v>1000</v>
       </c>
       <c r="R17">
-        <v>201.16129032258064</v>
+        <v>200.89516129032259</v>
       </c>
       <c r="S17">
-        <v>201.66129032258064</v>
+        <v>200.69354838709677</v>
       </c>
       <c r="T17">
-        <v>199.88709677419354</v>
+        <v>198.80645161290323</v>
       </c>
       <c r="U17">
-        <v>191.82258064516128</v>
+        <v>199.08870967741936</v>
       </c>
       <c r="V17">
-        <v>207.15322580645162</v>
+        <v>194.38709677419354</v>
       </c>
       <c r="W17">
-        <v>204.08064516129033</v>
+        <v>189.54032258064515</v>
       </c>
       <c r="X17">
-        <v>203.09677419354838</v>
+        <v>198.83870967741936</v>
       </c>
       <c r="Y17">
-        <v>196.79838709677421</v>
+        <v>193.16935483870967</v>
       </c>
       <c r="Z17">
-        <v>198.05645161290323</v>
+        <v>196.29032258064515</v>
       </c>
       <c r="AA17">
-        <v>197.39516129032259</v>
+        <v>201.76612903225808</v>
       </c>
       <c r="AB17">
-        <v>198.62903225806451</v>
+        <v>194.10483870967741</v>
       </c>
       <c r="AC17">
-        <v>206.28225806451613</v>
+        <v>205.95967741935485</v>
       </c>
       <c r="AD17">
-        <v>202.18548387096774</v>
+        <v>195.04838709677421</v>
       </c>
       <c r="AE17">
-        <v>191.74193548387098</v>
+        <v>197.44354838709677</v>
       </c>
       <c r="AF17">
-        <v>199.75</v>
+        <v>201.03225806451613</v>
       </c>
       <c r="AG17">
-        <v>198.03225806451613</v>
+        <v>198.46774193548387</v>
       </c>
       <c r="AH17">
-        <v>189.5</v>
+        <v>196.68548387096774</v>
       </c>
       <c r="AI17">
-        <v>198.75</v>
+        <v>193.95967741935485</v>
       </c>
       <c r="AJ17">
-        <v>189.91935483870967</v>
+        <v>207.83870967741936</v>
       </c>
       <c r="AK17">
-        <v>202.39516129032259</v>
+        <v>201.24193548387098</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -2455,112 +6298,112 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>206.30645161290323</v>
+        <v>205.53225806451613</v>
       </c>
       <c r="C18">
-        <v>203.08870967741936</v>
+        <v>202.88709677419354</v>
       </c>
       <c r="D18">
-        <v>203.99193548387098</v>
+        <v>207.26612903225808</v>
       </c>
       <c r="E18">
-        <v>205.81451612903226</v>
+        <v>207.06451612903226</v>
       </c>
       <c r="F18">
-        <v>203.56451612903226</v>
+        <v>202.49193548387098</v>
       </c>
       <c r="G18">
-        <v>202.29838709677421</v>
+        <v>195.95967741935485</v>
       </c>
       <c r="H18">
-        <v>198.85483870967741</v>
+        <v>201.25806451612902</v>
       </c>
       <c r="I18">
-        <v>204.84677419354838</v>
+        <v>206.62096774193549</v>
       </c>
       <c r="J18">
-        <v>200.06451612903226</v>
+        <v>200.85483870967741</v>
       </c>
       <c r="K18">
-        <v>202.30645161290323</v>
+        <v>200.64516129032259</v>
       </c>
       <c r="L18">
-        <v>187.37096774193549</v>
+        <v>207.55645161290323</v>
       </c>
       <c r="M18">
-        <v>188.95161290322579</v>
+        <v>195.10483870967741</v>
       </c>
       <c r="N18">
-        <v>202.21774193548387</v>
+        <v>205.04032258064515</v>
       </c>
       <c r="O18">
-        <v>197.14516129032259</v>
+        <v>199.04032258064515</v>
       </c>
       <c r="P18">
-        <v>201.5</v>
+        <v>192.08870967741936</v>
       </c>
       <c r="Q18">
-        <v>201.16129032258064</v>
+        <v>200.89516129032259</v>
       </c>
       <c r="R18">
         <v>1000</v>
       </c>
       <c r="S18">
-        <v>200.70967741935485</v>
+        <v>203.54032258064515</v>
       </c>
       <c r="T18">
-        <v>200.66129032258064</v>
+        <v>196.41129032258064</v>
       </c>
       <c r="U18">
-        <v>195.87096774193549</v>
+        <v>202.80645161290323</v>
       </c>
       <c r="V18">
-        <v>193.45967741935485</v>
+        <v>193.98387096774192</v>
       </c>
       <c r="W18">
-        <v>190.54032258064515</v>
+        <v>204.25</v>
       </c>
       <c r="X18">
-        <v>202.54838709677421</v>
+        <v>195.59677419354838</v>
       </c>
       <c r="Y18">
-        <v>202.58870967741936</v>
+        <v>187.87903225806451</v>
       </c>
       <c r="Z18">
-        <v>194.87096774193549</v>
+        <v>198.48387096774192</v>
       </c>
       <c r="AA18">
-        <v>207.71774193548387</v>
+        <v>196.88709677419354</v>
       </c>
       <c r="AB18">
-        <v>204.40322580645162</v>
+        <v>203.33870967741936</v>
       </c>
       <c r="AC18">
-        <v>207.5241935483871</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="AD18">
-        <v>198.70161290322579</v>
+        <v>199.16935483870967</v>
       </c>
       <c r="AE18">
-        <v>207.57258064516128</v>
+        <v>203.59677419354838</v>
       </c>
       <c r="AF18">
-        <v>208.20161290322579</v>
+        <v>197.03225806451613</v>
       </c>
       <c r="AG18">
-        <v>195.33870967741936</v>
+        <v>203.74193548387098</v>
       </c>
       <c r="AH18">
-        <v>190.45161290322579</v>
+        <v>197.9758064516129</v>
       </c>
       <c r="AI18">
-        <v>200.68548387096774</v>
+        <v>203.57258064516128</v>
       </c>
       <c r="AJ18">
-        <v>204.82258064516128</v>
+        <v>204.49193548387098</v>
       </c>
       <c r="AK18">
-        <v>199.17741935483872</v>
+        <v>204.2741935483871</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -2568,112 +6411,112 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>202.08064516129033</v>
+        <v>195.66129032258064</v>
       </c>
       <c r="C19">
-        <v>198.10483870967741</v>
+        <v>206.70967741935485</v>
       </c>
       <c r="D19">
-        <v>198.32258064516128</v>
+        <v>191.41129032258064</v>
       </c>
       <c r="E19">
-        <v>200.92741935483872</v>
+        <v>197.82258064516128</v>
       </c>
       <c r="F19">
-        <v>198.90322580645162</v>
+        <v>200.0241935483871</v>
       </c>
       <c r="G19">
-        <v>204.14516129032259</v>
+        <v>200.25</v>
       </c>
       <c r="H19">
-        <v>201.71774193548387</v>
+        <v>200.20967741935485</v>
       </c>
       <c r="I19">
-        <v>204.41935483870967</v>
+        <v>208.87903225806451</v>
       </c>
       <c r="J19">
-        <v>207.04838709677421</v>
+        <v>201.25806451612902</v>
       </c>
       <c r="K19">
-        <v>201.26612903225808</v>
+        <v>197.58870967741936</v>
       </c>
       <c r="L19">
-        <v>202.83870967741936</v>
+        <v>199.94354838709677</v>
       </c>
       <c r="M19">
-        <v>205.68548387096774</v>
+        <v>194.40322580645162</v>
       </c>
       <c r="N19">
-        <v>202.76612903225808</v>
+        <v>197.86290322580646</v>
       </c>
       <c r="O19">
-        <v>204.09677419354838</v>
+        <v>202.16935483870967</v>
       </c>
       <c r="P19">
-        <v>204.45161290322579</v>
+        <v>203.28225806451613</v>
       </c>
       <c r="Q19">
-        <v>201.66129032258064</v>
+        <v>200.69354838709677</v>
       </c>
       <c r="R19">
-        <v>200.70967741935485</v>
+        <v>203.54032258064515</v>
       </c>
       <c r="S19">
         <v>1000</v>
       </c>
       <c r="T19">
-        <v>201.30645161290323</v>
+        <v>197.06451612903226</v>
       </c>
       <c r="U19">
-        <v>191.39516129032259</v>
+        <v>204.50806451612902</v>
       </c>
       <c r="V19">
-        <v>205.70967741935485</v>
+        <v>200.81451612903226</v>
       </c>
       <c r="W19">
-        <v>200.83870967741936</v>
+        <v>198.08870967741936</v>
       </c>
       <c r="X19">
-        <v>199.03225806451613</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="Y19">
-        <v>195.45967741935485</v>
+        <v>194.29032258064515</v>
       </c>
       <c r="Z19">
-        <v>206.00806451612902</v>
+        <v>212.20161290322579</v>
       </c>
       <c r="AA19">
-        <v>207.7258064516129</v>
+        <v>208.85483870967741</v>
       </c>
       <c r="AB19">
-        <v>206.57258064516128</v>
+        <v>206.12096774193549</v>
       </c>
       <c r="AC19">
-        <v>200.93548387096774</v>
+        <v>198.79032258064515</v>
       </c>
       <c r="AD19">
-        <v>194.7741935483871</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="AE19">
-        <v>202.45967741935485</v>
+        <v>195.82258064516128</v>
       </c>
       <c r="AF19">
-        <v>192.76612903225808</v>
+        <v>198.33870967741936</v>
       </c>
       <c r="AG19">
-        <v>195.78225806451613</v>
+        <v>209.39516129032259</v>
       </c>
       <c r="AH19">
-        <v>195.59677419354838</v>
+        <v>210.0241935483871</v>
       </c>
       <c r="AI19">
-        <v>202.42741935483872</v>
+        <v>199.01612903225808</v>
       </c>
       <c r="AJ19">
-        <v>195.54032258064515</v>
+        <v>196.37096774193549</v>
       </c>
       <c r="AK19">
-        <v>202.93548387096774</v>
+        <v>204.44354838709677</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2681,112 +6524,112 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>205.63709677419354</v>
+        <v>203.05645161290323</v>
       </c>
       <c r="C20">
-        <v>194.55645161290323</v>
+        <v>198.09677419354838</v>
       </c>
       <c r="D20">
-        <v>197.7741935483871</v>
+        <v>201.29838709677421</v>
       </c>
       <c r="E20">
-        <v>202.78225806451613</v>
+        <v>202.87096774193549</v>
       </c>
       <c r="F20">
-        <v>200.41935483870967</v>
+        <v>200.59677419354838</v>
       </c>
       <c r="G20">
-        <v>204.89516129032259</v>
+        <v>196.94354838709677</v>
       </c>
       <c r="H20">
-        <v>199.04032258064515</v>
+        <v>186.96774193548387</v>
       </c>
       <c r="I20">
-        <v>202.10483870967741</v>
+        <v>196.98387096774192</v>
       </c>
       <c r="J20">
-        <v>196.17741935483872</v>
+        <v>197.15322580645162</v>
       </c>
       <c r="K20">
-        <v>197.4758064516129</v>
+        <v>198.7741935483871</v>
       </c>
       <c r="L20">
-        <v>195.0241935483871</v>
+        <v>199.69354838709677</v>
       </c>
       <c r="M20">
-        <v>204.18548387096774</v>
+        <v>201.9758064516129</v>
       </c>
       <c r="N20">
-        <v>198.25</v>
+        <v>205.24193548387098</v>
       </c>
       <c r="O20">
-        <v>198.70967741935485</v>
+        <v>200.63709677419354</v>
       </c>
       <c r="P20">
-        <v>196.73387096774192</v>
+        <v>201.99193548387098</v>
       </c>
       <c r="Q20">
-        <v>199.88709677419354</v>
+        <v>198.80645161290323</v>
       </c>
       <c r="R20">
-        <v>200.66129032258064</v>
+        <v>196.41129032258064</v>
       </c>
       <c r="S20">
-        <v>201.30645161290323</v>
+        <v>197.06451612903226</v>
       </c>
       <c r="T20">
         <v>1000</v>
       </c>
       <c r="U20">
-        <v>203.03225806451613</v>
+        <v>205.15322580645162</v>
       </c>
       <c r="V20">
-        <v>199.59677419354838</v>
+        <v>195.53225806451613</v>
       </c>
       <c r="W20">
-        <v>206.70161290322579</v>
+        <v>211.88709677419354</v>
       </c>
       <c r="X20">
-        <v>197.43548387096774</v>
+        <v>207.71774193548387</v>
       </c>
       <c r="Y20">
-        <v>200.63709677419354</v>
+        <v>213.5</v>
       </c>
       <c r="Z20">
-        <v>201.29838709677421</v>
+        <v>195.38709677419354</v>
       </c>
       <c r="AA20">
-        <v>198.75806451612902</v>
+        <v>202.14516129032259</v>
       </c>
       <c r="AB20">
-        <v>196.16935483870967</v>
+        <v>197.00806451612902</v>
       </c>
       <c r="AC20">
-        <v>196.74193548387098</v>
+        <v>186.30645161290323</v>
       </c>
       <c r="AD20">
-        <v>204.25806451612902</v>
+        <v>190.30645161290323</v>
       </c>
       <c r="AE20">
-        <v>210.58064516129033</v>
+        <v>206.10483870967741</v>
       </c>
       <c r="AF20">
-        <v>200.06451612903226</v>
+        <v>192.45161290322579</v>
       </c>
       <c r="AG20">
-        <v>187.70161290322579</v>
+        <v>197.30645161290323</v>
       </c>
       <c r="AH20">
-        <v>204.32258064516128</v>
+        <v>202.32258064516128</v>
       </c>
       <c r="AI20">
-        <v>205.5241935483871</v>
+        <v>203.33870967741936</v>
       </c>
       <c r="AJ20">
-        <v>201.38709677419354</v>
+        <v>199.2258064516129</v>
       </c>
       <c r="AK20">
-        <v>199.95161290322579</v>
+        <v>196.12096774193549</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -2794,112 +6637,112 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>197.67741935483872</v>
+        <v>202.17741935483872</v>
       </c>
       <c r="C21">
-        <v>199.2741935483871</v>
+        <v>201.12903225806451</v>
       </c>
       <c r="D21">
-        <v>203.44354838709677</v>
+        <v>197.08064516129033</v>
       </c>
       <c r="E21">
-        <v>201.23387096774192</v>
+        <v>199.50806451612902</v>
       </c>
       <c r="F21">
-        <v>202.99193548387098</v>
+        <v>190.80645161290323</v>
       </c>
       <c r="G21">
-        <v>195.87903225806451</v>
+        <v>198.46774193548387</v>
       </c>
       <c r="H21">
-        <v>191.70967741935485</v>
+        <v>194.53225806451613</v>
       </c>
       <c r="I21">
-        <v>199.93548387096774</v>
+        <v>205.50806451612902</v>
       </c>
       <c r="J21">
-        <v>202.83870967741936</v>
+        <v>202</v>
       </c>
       <c r="K21">
-        <v>200.07258064516128</v>
+        <v>201.19354838709677</v>
       </c>
       <c r="L21">
-        <v>206.82258064516128</v>
+        <v>197.56451612903226</v>
       </c>
       <c r="M21">
-        <v>199.92741935483872</v>
+        <v>191.83870967741936</v>
       </c>
       <c r="N21">
-        <v>193.66129032258064</v>
+        <v>204.60483870967741</v>
       </c>
       <c r="O21">
-        <v>192.33870967741936</v>
+        <v>204.99193548387098</v>
       </c>
       <c r="P21">
-        <v>204.17741935483872</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="Q21">
-        <v>191.82258064516128</v>
+        <v>199.08870967741936</v>
       </c>
       <c r="R21">
-        <v>195.87096774193549</v>
+        <v>202.80645161290323</v>
       </c>
       <c r="S21">
-        <v>191.39516129032259</v>
+        <v>204.50806451612902</v>
       </c>
       <c r="T21">
-        <v>203.03225806451613</v>
+        <v>205.15322580645162</v>
       </c>
       <c r="U21">
         <v>1000</v>
       </c>
       <c r="V21">
-        <v>206.75</v>
+        <v>195.38709677419354</v>
       </c>
       <c r="W21">
-        <v>209.30645161290323</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="X21">
-        <v>201.26612903225808</v>
+        <v>201.40322580645162</v>
       </c>
       <c r="Y21">
-        <v>199.11290322580646</v>
+        <v>195.10483870967741</v>
       </c>
       <c r="Z21">
-        <v>210.07258064516128</v>
+        <v>198.32258064516128</v>
       </c>
       <c r="AA21">
-        <v>192.46774193548387</v>
+        <v>201.95967741935485</v>
       </c>
       <c r="AB21">
-        <v>205.44354838709677</v>
+        <v>194.10483870967741</v>
       </c>
       <c r="AC21">
-        <v>195.48387096774192</v>
+        <v>199</v>
       </c>
       <c r="AD21">
-        <v>209.66129032258064</v>
+        <v>205.84677419354838</v>
       </c>
       <c r="AE21">
-        <v>198.92741935483872</v>
+        <v>198.42741935483872</v>
       </c>
       <c r="AF21">
-        <v>206.0241935483871</v>
+        <v>194.39516129032259</v>
       </c>
       <c r="AG21">
-        <v>197.20161290322579</v>
+        <v>199.35483870967741</v>
       </c>
       <c r="AH21">
-        <v>192.37096774193549</v>
+        <v>197.95967741935485</v>
       </c>
       <c r="AI21">
-        <v>195.92741935483872</v>
+        <v>207.34677419354838</v>
       </c>
       <c r="AJ21">
-        <v>183.67741935483872</v>
+        <v>201.21774193548387</v>
       </c>
       <c r="AK21">
-        <v>201.7258064516129</v>
+        <v>200.87903225806451</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -2907,112 +6750,112 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>200.86290322580646</v>
+        <v>191.19354838709677</v>
       </c>
       <c r="C22">
-        <v>196.84677419354838</v>
+        <v>192.7258064516129</v>
       </c>
       <c r="D22">
-        <v>195.58870967741936</v>
+        <v>192.81451612903226</v>
       </c>
       <c r="E22">
-        <v>204.0241935483871</v>
+        <v>196.98387096774192</v>
       </c>
       <c r="F22">
-        <v>208.53225806451613</v>
+        <v>202.70161290322579</v>
       </c>
       <c r="G22">
-        <v>209.55645161290323</v>
+        <v>191.78225806451613</v>
       </c>
       <c r="H22">
-        <v>199.2741935483871</v>
+        <v>197.16129032258064</v>
       </c>
       <c r="I22">
-        <v>207.62096774193549</v>
+        <v>197.92741935483872</v>
       </c>
       <c r="J22">
-        <v>202.90322580645162</v>
+        <v>193.29032258064515</v>
       </c>
       <c r="K22">
-        <v>197.75</v>
+        <v>208.4758064516129</v>
       </c>
       <c r="L22">
-        <v>195.25</v>
+        <v>193.13709677419354</v>
       </c>
       <c r="M22">
-        <v>195.39516129032259</v>
+        <v>210.81451612903226</v>
       </c>
       <c r="N22">
-        <v>193.65322580645162</v>
+        <v>201.60483870967741</v>
       </c>
       <c r="O22">
-        <v>204.36290322580646</v>
+        <v>197.24193548387098</v>
       </c>
       <c r="P22">
-        <v>193.0241935483871</v>
+        <v>202.91129032258064</v>
       </c>
       <c r="Q22">
-        <v>207.15322580645162</v>
+        <v>194.38709677419354</v>
       </c>
       <c r="R22">
-        <v>193.45967741935485</v>
+        <v>193.98387096774192</v>
       </c>
       <c r="S22">
-        <v>205.70967741935485</v>
+        <v>200.81451612903226</v>
       </c>
       <c r="T22">
-        <v>199.59677419354838</v>
+        <v>195.53225806451613</v>
       </c>
       <c r="U22">
-        <v>206.75</v>
+        <v>195.38709677419354</v>
       </c>
       <c r="V22">
         <v>1000</v>
       </c>
       <c r="W22">
-        <v>196.49193548387098</v>
+        <v>192.7741935483871</v>
       </c>
       <c r="X22">
-        <v>194.37096774193549</v>
+        <v>198.96774193548387</v>
       </c>
       <c r="Y22">
-        <v>198.92741935483872</v>
+        <v>198.89516129032259</v>
       </c>
       <c r="Z22">
-        <v>197.45161290322579</v>
+        <v>200.75</v>
       </c>
       <c r="AA22">
-        <v>203.91935483870967</v>
+        <v>202.67741935483872</v>
       </c>
       <c r="AB22">
-        <v>194.57258064516128</v>
+        <v>196.45967741935485</v>
       </c>
       <c r="AC22">
-        <v>199.83064516129033</v>
+        <v>208.29838709677421</v>
       </c>
       <c r="AD22">
-        <v>204.5241935483871</v>
+        <v>197.78225806451613</v>
       </c>
       <c r="AE22">
-        <v>198.86290322580646</v>
+        <v>205.18548387096774</v>
       </c>
       <c r="AF22">
-        <v>195.00806451612902</v>
+        <v>199.69354838709677</v>
       </c>
       <c r="AG22">
-        <v>200.40322580645162</v>
+        <v>201.89516129032259</v>
       </c>
       <c r="AH22">
-        <v>196.82258064516128</v>
+        <v>197.62096774193549</v>
       </c>
       <c r="AI22">
-        <v>206.2741935483871</v>
+        <v>197.21774193548387</v>
       </c>
       <c r="AJ22">
-        <v>204.49193548387098</v>
+        <v>209.45967741935485</v>
       </c>
       <c r="AK22">
-        <v>195.07258064516128</v>
+        <v>199.94354838709677</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -3020,112 +6863,112 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>203.28225806451613</v>
+        <v>199.13709677419354</v>
       </c>
       <c r="C23">
-        <v>206.26612903225808</v>
+        <v>202.34677419354838</v>
       </c>
       <c r="D23">
-        <v>205.16935483870967</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="E23">
-        <v>197.16935483870967</v>
+        <v>206.95967741935485</v>
       </c>
       <c r="F23">
-        <v>200.64516129032259</v>
+        <v>206.2741935483871</v>
       </c>
       <c r="G23">
-        <v>190.64516129032259</v>
+        <v>206.10483870967741</v>
       </c>
       <c r="H23">
-        <v>203.70161290322579</v>
+        <v>192.66129032258064</v>
       </c>
       <c r="I23">
-        <v>206.58064516129033</v>
+        <v>194.40322580645162</v>
       </c>
       <c r="J23">
-        <v>198.12903225806451</v>
+        <v>202.83870967741936</v>
       </c>
       <c r="K23">
-        <v>203.88709677419354</v>
+        <v>200.25806451612902</v>
       </c>
       <c r="L23">
-        <v>205.41935483870967</v>
+        <v>204.2741935483871</v>
       </c>
       <c r="M23">
-        <v>192.53225806451613</v>
+        <v>195.87096774193549</v>
       </c>
       <c r="N23">
-        <v>194.90322580645162</v>
+        <v>194.79032258064515</v>
       </c>
       <c r="O23">
-        <v>199.35483870967741</v>
+        <v>206.13709677419354</v>
       </c>
       <c r="P23">
-        <v>198.01612903225808</v>
+        <v>198.37903225806451</v>
       </c>
       <c r="Q23">
-        <v>204.08064516129033</v>
+        <v>189.54032258064515</v>
       </c>
       <c r="R23">
-        <v>190.54032258064515</v>
+        <v>204.25</v>
       </c>
       <c r="S23">
-        <v>200.83870967741936</v>
+        <v>198.08870967741936</v>
       </c>
       <c r="T23">
-        <v>206.70161290322579</v>
+        <v>211.88709677419354</v>
       </c>
       <c r="U23">
-        <v>209.30645161290323</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="V23">
-        <v>196.49193548387098</v>
+        <v>192.7741935483871</v>
       </c>
       <c r="W23">
         <v>1000</v>
       </c>
       <c r="X23">
-        <v>201.79838709677421</v>
+        <v>194.54032258064515</v>
       </c>
       <c r="Y23">
-        <v>196.62096774193549</v>
+        <v>191.87096774193549</v>
       </c>
       <c r="Z23">
-        <v>192.25806451612902</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="AA23">
-        <v>204.48387096774192</v>
+        <v>208.96774193548387</v>
       </c>
       <c r="AB23">
-        <v>205.7258064516129</v>
+        <v>215.24193548387098</v>
       </c>
       <c r="AC23">
-        <v>194.54838709677421</v>
+        <v>203.79838709677421</v>
       </c>
       <c r="AD23">
-        <v>202.50806451612902</v>
+        <v>193.40322580645162</v>
       </c>
       <c r="AE23">
-        <v>197.17741935483872</v>
+        <v>203.07258064516128</v>
       </c>
       <c r="AF23">
-        <v>190.25</v>
+        <v>202.06451612903226</v>
       </c>
       <c r="AG23">
-        <v>204.70967741935485</v>
+        <v>208.60483870967741</v>
       </c>
       <c r="AH23">
-        <v>200.79838709677421</v>
+        <v>198.35483870967741</v>
       </c>
       <c r="AI23">
-        <v>198.63709677419354</v>
+        <v>189.33064516129033</v>
       </c>
       <c r="AJ23">
-        <v>201.79032258064515</v>
+        <v>200.89516129032259</v>
       </c>
       <c r="AK23">
-        <v>195.82258064516128</v>
+        <v>204.69354838709677</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -3133,112 +6976,112 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>203.20967741935485</v>
+        <v>203.19354838709677</v>
       </c>
       <c r="C24">
-        <v>216.13709677419354</v>
+        <v>194.62096774193549</v>
       </c>
       <c r="D24">
-        <v>199.08064516129033</v>
+        <v>198.48387096774192</v>
       </c>
       <c r="E24">
-        <v>193.84677419354838</v>
+        <v>191.58870967741936</v>
       </c>
       <c r="F24">
-        <v>201.26612903225808</v>
+        <v>213.60483870967741</v>
       </c>
       <c r="G24">
-        <v>200.53225806451613</v>
+        <v>203.79032258064515</v>
       </c>
       <c r="H24">
-        <v>202.34677419354838</v>
+        <v>197.55645161290323</v>
       </c>
       <c r="I24">
-        <v>197.08064516129033</v>
+        <v>193.83870967741936</v>
       </c>
       <c r="J24">
-        <v>196.03225806451613</v>
+        <v>195.16935483870967</v>
       </c>
       <c r="K24">
-        <v>197.9758064516129</v>
+        <v>199.45967741935485</v>
       </c>
       <c r="L24">
-        <v>199.34677419354838</v>
+        <v>207.84677419354838</v>
       </c>
       <c r="M24">
-        <v>199.80645161290323</v>
+        <v>195.96774193548387</v>
       </c>
       <c r="N24">
-        <v>193.35483870967741</v>
+        <v>192.56451612903226</v>
       </c>
       <c r="O24">
-        <v>192.29838709677421</v>
+        <v>192.42741935483872</v>
       </c>
       <c r="P24">
-        <v>196.07258064516128</v>
+        <v>202.04032258064515</v>
       </c>
       <c r="Q24">
-        <v>203.09677419354838</v>
+        <v>198.83870967741936</v>
       </c>
       <c r="R24">
-        <v>202.54838709677421</v>
+        <v>195.59677419354838</v>
       </c>
       <c r="S24">
-        <v>199.03225806451613</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="T24">
-        <v>197.43548387096774</v>
+        <v>207.71774193548387</v>
       </c>
       <c r="U24">
-        <v>201.26612903225808</v>
+        <v>201.40322580645162</v>
       </c>
       <c r="V24">
-        <v>194.37096774193549</v>
+        <v>198.96774193548387</v>
       </c>
       <c r="W24">
-        <v>201.79838709677421</v>
+        <v>194.54032258064515</v>
       </c>
       <c r="X24">
         <v>1000</v>
       </c>
       <c r="Y24">
-        <v>197.59677419354838</v>
+        <v>192.70967741935485</v>
       </c>
       <c r="Z24">
-        <v>198.60483870967741</v>
+        <v>199.45161290322579</v>
       </c>
       <c r="AA24">
-        <v>196.57258064516128</v>
+        <v>194.89516129032259</v>
       </c>
       <c r="AB24">
-        <v>197.46774193548387</v>
+        <v>211.53225806451613</v>
       </c>
       <c r="AC24">
-        <v>202.95161290322579</v>
+        <v>196.11290322580646</v>
       </c>
       <c r="AD24">
-        <v>199.69354838709677</v>
+        <v>200.49193548387098</v>
       </c>
       <c r="AE24">
-        <v>193.17741935483872</v>
+        <v>200.41129032258064</v>
       </c>
       <c r="AF24">
-        <v>187.48387096774192</v>
+        <v>208.62903225806451</v>
       </c>
       <c r="AG24">
-        <v>198.84677419354838</v>
+        <v>200.40322580645162</v>
       </c>
       <c r="AH24">
-        <v>202.20161290322579</v>
+        <v>205.41129032258064</v>
       </c>
       <c r="AI24">
-        <v>195.98387096774192</v>
+        <v>202.23387096774192</v>
       </c>
       <c r="AJ24">
-        <v>200.25806451612902</v>
+        <v>190.76612903225808</v>
       </c>
       <c r="AK24">
-        <v>203.16129032258064</v>
+        <v>193.86290322580646</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -3246,112 +7089,112 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>202.2741935483871</v>
+        <v>197.54838709677421</v>
       </c>
       <c r="C25">
-        <v>203.89516129032259</v>
+        <v>203.08870967741936</v>
       </c>
       <c r="D25">
-        <v>201.56451612903226</v>
+        <v>194.35483870967741</v>
       </c>
       <c r="E25">
-        <v>199.93548387096774</v>
+        <v>194.33064516129033</v>
       </c>
       <c r="F25">
-        <v>199.46774193548387</v>
+        <v>204.49193548387098</v>
       </c>
       <c r="G25">
-        <v>204.38709677419354</v>
+        <v>212.60483870967741</v>
       </c>
       <c r="H25">
-        <v>213.44354838709677</v>
+        <v>188.91935483870967</v>
       </c>
       <c r="I25">
-        <v>203.88709677419354</v>
+        <v>204.41935483870967</v>
       </c>
       <c r="J25">
-        <v>199.62096774193549</v>
+        <v>203.98387096774192</v>
       </c>
       <c r="K25">
-        <v>198.08064516129033</v>
+        <v>190.75</v>
       </c>
       <c r="L25">
-        <v>209.79838709677421</v>
+        <v>202.16129032258064</v>
       </c>
       <c r="M25">
-        <v>203.16129032258064</v>
+        <v>196.25</v>
       </c>
       <c r="N25">
-        <v>202.17741935483872</v>
+        <v>198.26612903225808</v>
       </c>
       <c r="O25">
-        <v>196.82258064516128</v>
+        <v>207.23387096774192</v>
       </c>
       <c r="P25">
-        <v>199.7741935483871</v>
+        <v>202.58870967741936</v>
       </c>
       <c r="Q25">
-        <v>196.79838709677421</v>
+        <v>193.16935483870967</v>
       </c>
       <c r="R25">
-        <v>202.58870967741936</v>
+        <v>187.87903225806451</v>
       </c>
       <c r="S25">
-        <v>195.45967741935485</v>
+        <v>194.29032258064515</v>
       </c>
       <c r="T25">
-        <v>200.63709677419354</v>
+        <v>213.5</v>
       </c>
       <c r="U25">
-        <v>199.11290322580646</v>
+        <v>195.10483870967741</v>
       </c>
       <c r="V25">
-        <v>198.92741935483872</v>
+        <v>198.89516129032259</v>
       </c>
       <c r="W25">
-        <v>196.62096774193549</v>
+        <v>191.87096774193549</v>
       </c>
       <c r="X25">
-        <v>197.59677419354838</v>
+        <v>192.70967741935485</v>
       </c>
       <c r="Y25">
         <v>1000</v>
       </c>
       <c r="Z25">
-        <v>200.80645161290323</v>
+        <v>210.98387096774192</v>
       </c>
       <c r="AA25">
-        <v>201.0241935483871</v>
+        <v>198.03225806451613</v>
       </c>
       <c r="AB25">
-        <v>208.11290322580646</v>
+        <v>200.33064516129033</v>
       </c>
       <c r="AC25">
-        <v>201.12096774193549</v>
+        <v>201.71774193548387</v>
       </c>
       <c r="AD25">
-        <v>209.16935483870967</v>
+        <v>196.03225806451613</v>
       </c>
       <c r="AE25">
-        <v>191.42741935483872</v>
+        <v>205.61290322580646</v>
       </c>
       <c r="AF25">
-        <v>200.91935483870967</v>
+        <v>189.94354838709677</v>
       </c>
       <c r="AG25">
-        <v>189.71774193548387</v>
+        <v>189.20161290322579</v>
       </c>
       <c r="AH25">
-        <v>192.32258064516128</v>
+        <v>200.31451612903226</v>
       </c>
       <c r="AI25">
-        <v>204.49193548387098</v>
+        <v>198.71774193548387</v>
       </c>
       <c r="AJ25">
-        <v>200.83870967741936</v>
+        <v>201.11290322580646</v>
       </c>
       <c r="AK25">
-        <v>204.68548387096774</v>
+        <v>195.5241935483871</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -3359,112 +7202,112 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>198.34677419354838</v>
+        <v>201.39516129032259</v>
       </c>
       <c r="C26">
-        <v>204.7258064516129</v>
+        <v>197.19354838709677</v>
       </c>
       <c r="D26">
-        <v>197.04032258064515</v>
+        <v>194.35483870967741</v>
       </c>
       <c r="E26">
-        <v>193.58870967741936</v>
+        <v>201.29032258064515</v>
       </c>
       <c r="F26">
-        <v>194.0241935483871</v>
+        <v>200.37903225806451</v>
       </c>
       <c r="G26">
-        <v>202.87096774193549</v>
+        <v>198.95161290322579</v>
       </c>
       <c r="H26">
-        <v>201.70161290322579</v>
+        <v>203.10483870967741</v>
       </c>
       <c r="I26">
-        <v>203.69354838709677</v>
+        <v>195.04032258064515</v>
       </c>
       <c r="J26">
-        <v>192.75806451612902</v>
+        <v>198.93548387096774</v>
       </c>
       <c r="K26">
-        <v>189.39516129032259</v>
+        <v>194.67741935483872</v>
       </c>
       <c r="L26">
-        <v>199.33064516129033</v>
+        <v>202.53225806451613</v>
       </c>
       <c r="M26">
-        <v>199.40322580645162</v>
+        <v>197.11290322580646</v>
       </c>
       <c r="N26">
-        <v>208.91935483870967</v>
+        <v>197.13709677419354</v>
       </c>
       <c r="O26">
-        <v>203.7741935483871</v>
+        <v>204.34677419354838</v>
       </c>
       <c r="P26">
-        <v>196.10483870967741</v>
+        <v>206.93548387096774</v>
       </c>
       <c r="Q26">
-        <v>198.05645161290323</v>
+        <v>196.29032258064515</v>
       </c>
       <c r="R26">
-        <v>194.87096774193549</v>
+        <v>198.48387096774192</v>
       </c>
       <c r="S26">
-        <v>206.00806451612902</v>
+        <v>212.20161290322579</v>
       </c>
       <c r="T26">
-        <v>201.29838709677421</v>
+        <v>195.38709677419354</v>
       </c>
       <c r="U26">
-        <v>210.07258064516128</v>
+        <v>198.32258064516128</v>
       </c>
       <c r="V26">
-        <v>197.45161290322579</v>
+        <v>200.75</v>
       </c>
       <c r="W26">
-        <v>192.25806451612902</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="X26">
-        <v>198.60483870967741</v>
+        <v>199.45161290322579</v>
       </c>
       <c r="Y26">
-        <v>200.80645161290323</v>
+        <v>210.98387096774192</v>
       </c>
       <c r="Z26">
         <v>1000</v>
       </c>
       <c r="AA26">
-        <v>212.75806451612902</v>
+        <v>190.29838709677421</v>
       </c>
       <c r="AB26">
-        <v>199.60483870967741</v>
+        <v>197.37903225806451</v>
       </c>
       <c r="AC26">
-        <v>195.75806451612902</v>
+        <v>210.83870967741936</v>
       </c>
       <c r="AD26">
-        <v>197.87096774193549</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="AE26">
-        <v>201.43548387096774</v>
+        <v>193.81451612903226</v>
       </c>
       <c r="AF26">
-        <v>194.70161290322579</v>
+        <v>207.80645161290323</v>
       </c>
       <c r="AG26">
-        <v>203.07258064516128</v>
+        <v>195.96774193548387</v>
       </c>
       <c r="AH26">
-        <v>197.91935483870967</v>
+        <v>197.2741935483871</v>
       </c>
       <c r="AI26">
-        <v>209.38709677419354</v>
+        <v>196.83064516129033</v>
       </c>
       <c r="AJ26">
-        <v>202.79838709677421</v>
+        <v>203.20967741935485</v>
       </c>
       <c r="AK26">
-        <v>198.06451612903226</v>
+        <v>204.55645161290323</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -3472,112 +7315,112 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>190.60483870967741</v>
+        <v>197.04838709677421</v>
       </c>
       <c r="C27">
-        <v>207.79032258064515</v>
+        <v>193.04032258064515</v>
       </c>
       <c r="D27">
-        <v>200.87903225806451</v>
+        <v>190.25806451612902</v>
       </c>
       <c r="E27">
-        <v>198.86290322580646</v>
+        <v>198.62096774193549</v>
       </c>
       <c r="F27">
-        <v>200.44354838709677</v>
+        <v>197.78225806451613</v>
       </c>
       <c r="G27">
-        <v>199.7258064516129</v>
+        <v>199.45967741935485</v>
       </c>
       <c r="H27">
-        <v>198.63709677419354</v>
+        <v>196.49193548387098</v>
       </c>
       <c r="I27">
-        <v>193.95161290322579</v>
+        <v>212.75</v>
       </c>
       <c r="J27">
-        <v>195.82258064516128</v>
+        <v>199.66129032258064</v>
       </c>
       <c r="K27">
-        <v>197.53225806451613</v>
+        <v>196.23387096774192</v>
       </c>
       <c r="L27">
-        <v>203.28225806451613</v>
+        <v>208.54032258064515</v>
       </c>
       <c r="M27">
-        <v>193.30645161290323</v>
+        <v>202.41935483870967</v>
       </c>
       <c r="N27">
-        <v>193.41129032258064</v>
+        <v>206.32258064516128</v>
       </c>
       <c r="O27">
-        <v>196.85483870967741</v>
+        <v>204.5241935483871</v>
       </c>
       <c r="P27">
-        <v>202.45967741935485</v>
+        <v>200.25806451612902</v>
       </c>
       <c r="Q27">
-        <v>197.39516129032259</v>
+        <v>201.76612903225808</v>
       </c>
       <c r="R27">
-        <v>207.71774193548387</v>
+        <v>196.88709677419354</v>
       </c>
       <c r="S27">
-        <v>207.7258064516129</v>
+        <v>208.85483870967741</v>
       </c>
       <c r="T27">
-        <v>198.75806451612902</v>
+        <v>202.14516129032259</v>
       </c>
       <c r="U27">
-        <v>192.46774193548387</v>
+        <v>201.95967741935485</v>
       </c>
       <c r="V27">
-        <v>203.91935483870967</v>
+        <v>202.67741935483872</v>
       </c>
       <c r="W27">
-        <v>204.48387096774192</v>
+        <v>208.96774193548387</v>
       </c>
       <c r="X27">
-        <v>196.57258064516128</v>
+        <v>194.89516129032259</v>
       </c>
       <c r="Y27">
-        <v>201.0241935483871</v>
+        <v>198.03225806451613</v>
       </c>
       <c r="Z27">
-        <v>212.75806451612902</v>
+        <v>190.29838709677421</v>
       </c>
       <c r="AA27">
         <v>1000</v>
       </c>
       <c r="AB27">
-        <v>203.34677419354838</v>
+        <v>202.07258064516128</v>
       </c>
       <c r="AC27">
-        <v>195.7741935483871</v>
+        <v>209.66129032258064</v>
       </c>
       <c r="AD27">
-        <v>193.96774193548387</v>
+        <v>191.37096774193549</v>
       </c>
       <c r="AE27">
-        <v>192.79032258064515</v>
+        <v>199.62903225806451</v>
       </c>
       <c r="AF27">
-        <v>202.38709677419354</v>
+        <v>196.70161290322579</v>
       </c>
       <c r="AG27">
-        <v>202.35483870967741</v>
+        <v>201.19354838709677</v>
       </c>
       <c r="AH27">
-        <v>192.62903225806451</v>
+        <v>198.85483870967741</v>
       </c>
       <c r="AI27">
-        <v>198.38709677419354</v>
+        <v>191.64516129032259</v>
       </c>
       <c r="AJ27">
-        <v>201.40322580645162</v>
+        <v>205.20967741935485</v>
       </c>
       <c r="AK27">
-        <v>198.0241935483871</v>
+        <v>201.61290322580646</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -3585,112 +7428,112 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>202.12096774193549</v>
+        <v>202.03225806451613</v>
       </c>
       <c r="C28">
-        <v>216.91935483870967</v>
+        <v>196.57258064516128</v>
       </c>
       <c r="D28">
-        <v>203.16935483870967</v>
+        <v>202.03225806451613</v>
       </c>
       <c r="E28">
-        <v>203.5241935483871</v>
+        <v>198.86290322580646</v>
       </c>
       <c r="F28">
-        <v>201.53225806451613</v>
+        <v>208.7258064516129</v>
       </c>
       <c r="G28">
-        <v>199.14516129032259</v>
+        <v>203.81451612903226</v>
       </c>
       <c r="H28">
-        <v>201.12096774193549</v>
+        <v>200.2741935483871</v>
       </c>
       <c r="I28">
-        <v>201.37096774193549</v>
+        <v>200.79032258064515</v>
       </c>
       <c r="J28">
-        <v>194.62096774193549</v>
+        <v>197.67741935483872</v>
       </c>
       <c r="K28">
-        <v>209.96774193548387</v>
+        <v>197.44354838709677</v>
       </c>
       <c r="L28">
-        <v>208.44354838709677</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="M28">
-        <v>204</v>
+        <v>194.31451612903226</v>
       </c>
       <c r="N28">
-        <v>195.95161290322579</v>
+        <v>199.78225806451613</v>
       </c>
       <c r="O28">
-        <v>213.37096774193549</v>
+        <v>196.58064516129033</v>
       </c>
       <c r="P28">
-        <v>198.42741935483872</v>
+        <v>214.36290322580646</v>
       </c>
       <c r="Q28">
-        <v>198.62903225806451</v>
+        <v>194.10483870967741</v>
       </c>
       <c r="R28">
-        <v>204.40322580645162</v>
+        <v>203.33870967741936</v>
       </c>
       <c r="S28">
-        <v>206.57258064516128</v>
+        <v>206.12096774193549</v>
       </c>
       <c r="T28">
-        <v>196.16935483870967</v>
+        <v>197.00806451612902</v>
       </c>
       <c r="U28">
-        <v>205.44354838709677</v>
+        <v>194.10483870967741</v>
       </c>
       <c r="V28">
-        <v>194.57258064516128</v>
+        <v>196.45967741935485</v>
       </c>
       <c r="W28">
-        <v>205.7258064516129</v>
+        <v>215.24193548387098</v>
       </c>
       <c r="X28">
-        <v>197.46774193548387</v>
+        <v>211.53225806451613</v>
       </c>
       <c r="Y28">
-        <v>208.11290322580646</v>
+        <v>200.33064516129033</v>
       </c>
       <c r="Z28">
-        <v>199.60483870967741</v>
+        <v>197.37903225806451</v>
       </c>
       <c r="AA28">
-        <v>203.34677419354838</v>
+        <v>202.07258064516128</v>
       </c>
       <c r="AB28">
         <v>1000</v>
       </c>
       <c r="AC28">
-        <v>198.58870967741936</v>
+        <v>200.56451612903226</v>
       </c>
       <c r="AD28">
-        <v>200.82258064516128</v>
+        <v>201.29838709677421</v>
       </c>
       <c r="AE28">
-        <v>198.89516129032259</v>
+        <v>205.34677419354838</v>
       </c>
       <c r="AF28">
-        <v>194.71774193548387</v>
+        <v>200.32258064516128</v>
       </c>
       <c r="AG28">
-        <v>204.55645161290323</v>
+        <v>199.83064516129033</v>
       </c>
       <c r="AH28">
-        <v>202.67741935483872</v>
+        <v>191.61290322580646</v>
       </c>
       <c r="AI28">
-        <v>194.34677419354838</v>
+        <v>198.45161290322579</v>
       </c>
       <c r="AJ28">
-        <v>195.17741935483872</v>
+        <v>202.73387096774192</v>
       </c>
       <c r="AK28">
-        <v>193.38709677419354</v>
+        <v>204.75806451612902</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -3698,112 +7541,112 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>193.69354838709677</v>
+        <v>197.12903225806451</v>
       </c>
       <c r="C29">
-        <v>193.21774193548387</v>
+        <v>190.45161290322579</v>
       </c>
       <c r="D29">
-        <v>198.71774193548387</v>
+        <v>197.54032258064515</v>
       </c>
       <c r="E29">
-        <v>200.67741935483872</v>
+        <v>213.66935483870967</v>
       </c>
       <c r="F29">
-        <v>204.16129032258064</v>
+        <v>200.70161290322579</v>
       </c>
       <c r="G29">
-        <v>213.51612903225808</v>
+        <v>199.0241935483871</v>
       </c>
       <c r="H29">
-        <v>206.12903225806451</v>
+        <v>199.14516129032259</v>
       </c>
       <c r="I29">
-        <v>202.20161290322579</v>
+        <v>192.16935483870967</v>
       </c>
       <c r="J29">
-        <v>205.7741935483871</v>
+        <v>193.15322580645162</v>
       </c>
       <c r="K29">
-        <v>206.45967741935485</v>
+        <v>199.06451612903226</v>
       </c>
       <c r="L29">
-        <v>198.49193548387098</v>
+        <v>196.64516129032259</v>
       </c>
       <c r="M29">
-        <v>207.85483870967741</v>
+        <v>206.67741935483872</v>
       </c>
       <c r="N29">
-        <v>200.7258064516129</v>
+        <v>202.94354838709677</v>
       </c>
       <c r="O29">
-        <v>199.13709677419354</v>
+        <v>211.2741935483871</v>
       </c>
       <c r="P29">
-        <v>214.16129032258064</v>
+        <v>190.28225806451613</v>
       </c>
       <c r="Q29">
-        <v>206.28225806451613</v>
+        <v>205.95967741935485</v>
       </c>
       <c r="R29">
-        <v>207.5241935483871</v>
+        <v>200.45161290322579</v>
       </c>
       <c r="S29">
-        <v>200.93548387096774</v>
+        <v>198.79032258064515</v>
       </c>
       <c r="T29">
-        <v>196.74193548387098</v>
+        <v>186.30645161290323</v>
       </c>
       <c r="U29">
-        <v>195.48387096774192</v>
+        <v>199</v>
       </c>
       <c r="V29">
-        <v>199.83064516129033</v>
+        <v>208.29838709677421</v>
       </c>
       <c r="W29">
-        <v>194.54838709677421</v>
+        <v>203.79838709677421</v>
       </c>
       <c r="X29">
-        <v>202.95161290322579</v>
+        <v>196.11290322580646</v>
       </c>
       <c r="Y29">
-        <v>201.12096774193549</v>
+        <v>201.71774193548387</v>
       </c>
       <c r="Z29">
-        <v>195.75806451612902</v>
+        <v>210.83870967741936</v>
       </c>
       <c r="AA29">
-        <v>195.7741935483871</v>
+        <v>209.66129032258064</v>
       </c>
       <c r="AB29">
-        <v>198.58870967741936</v>
+        <v>200.56451612903226</v>
       </c>
       <c r="AC29">
         <v>1000</v>
       </c>
       <c r="AD29">
-        <v>201.38709677419354</v>
+        <v>209.7741935483871</v>
       </c>
       <c r="AE29">
-        <v>197.12096774193549</v>
+        <v>194.04838709677421</v>
       </c>
       <c r="AF29">
-        <v>207.93548387096774</v>
+        <v>206.4758064516129</v>
       </c>
       <c r="AG29">
-        <v>195.94354838709677</v>
+        <v>186.19354838709677</v>
       </c>
       <c r="AH29">
-        <v>190.11290322580646</v>
+        <v>204.5241935483871</v>
       </c>
       <c r="AI29">
-        <v>193.91935483870967</v>
+        <v>199.10483870967741</v>
       </c>
       <c r="AJ29">
-        <v>203.89516129032259</v>
+        <v>198.0241935483871</v>
       </c>
       <c r="AK29">
-        <v>198.06451612903226</v>
+        <v>205.00806451612902</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -3811,112 +7654,112 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>196.38709677419354</v>
+        <v>199.67741935483872</v>
       </c>
       <c r="C30">
-        <v>206.99193548387098</v>
+        <v>201.34677419354838</v>
       </c>
       <c r="D30">
-        <v>195.60483870967741</v>
+        <v>193.91935483870967</v>
       </c>
       <c r="E30">
-        <v>204.25</v>
+        <v>198.64516129032259</v>
       </c>
       <c r="F30">
-        <v>194.67741935483872</v>
+        <v>202.96774193548387</v>
       </c>
       <c r="G30">
-        <v>207.2741935483871</v>
+        <v>196.84677419354838</v>
       </c>
       <c r="H30">
-        <v>194.84677419354838</v>
+        <v>206.51612903225808</v>
       </c>
       <c r="I30">
-        <v>198.09677419354838</v>
+        <v>207.26612903225808</v>
       </c>
       <c r="J30">
-        <v>194.62096774193549</v>
+        <v>190.08064516129033</v>
       </c>
       <c r="K30">
-        <v>198.08064516129033</v>
+        <v>201.5</v>
       </c>
       <c r="L30">
-        <v>201.67741935483872</v>
+        <v>202.82258064516128</v>
       </c>
       <c r="M30">
-        <v>202.09677419354838</v>
+        <v>202.79032258064515</v>
       </c>
       <c r="N30">
-        <v>187.89516129032259</v>
+        <v>198.36290322580646</v>
       </c>
       <c r="O30">
-        <v>202</v>
+        <v>189.86290322580646</v>
       </c>
       <c r="P30">
-        <v>199.34677419354838</v>
+        <v>194.58064516129033</v>
       </c>
       <c r="Q30">
-        <v>202.18548387096774</v>
+        <v>195.04838709677421</v>
       </c>
       <c r="R30">
-        <v>198.70161290322579</v>
+        <v>199.16935483870967</v>
       </c>
       <c r="S30">
-        <v>194.7741935483871</v>
+        <v>197.87903225806451</v>
       </c>
       <c r="T30">
-        <v>204.25806451612902</v>
+        <v>190.30645161290323</v>
       </c>
       <c r="U30">
-        <v>209.66129032258064</v>
+        <v>205.84677419354838</v>
       </c>
       <c r="V30">
-        <v>204.5241935483871</v>
+        <v>197.78225806451613</v>
       </c>
       <c r="W30">
-        <v>202.50806451612902</v>
+        <v>193.40322580645162</v>
       </c>
       <c r="X30">
-        <v>199.69354838709677</v>
+        <v>200.49193548387098</v>
       </c>
       <c r="Y30">
-        <v>209.16935483870967</v>
+        <v>196.03225806451613</v>
       </c>
       <c r="Z30">
-        <v>197.87096774193549</v>
+        <v>200.20161290322579</v>
       </c>
       <c r="AA30">
-        <v>193.96774193548387</v>
+        <v>191.37096774193549</v>
       </c>
       <c r="AB30">
-        <v>200.82258064516128</v>
+        <v>201.29838709677421</v>
       </c>
       <c r="AC30">
-        <v>201.38709677419354</v>
+        <v>209.7741935483871</v>
       </c>
       <c r="AD30">
         <v>1000</v>
       </c>
       <c r="AE30">
-        <v>196.92741935483872</v>
+        <v>205.12096774193549</v>
       </c>
       <c r="AF30">
-        <v>195.51612903225808</v>
+        <v>195.5</v>
       </c>
       <c r="AG30">
-        <v>199.87096774193549</v>
+        <v>198.74193548387098</v>
       </c>
       <c r="AH30">
-        <v>204.39516129032259</v>
+        <v>200.5</v>
       </c>
       <c r="AI30">
-        <v>198.59677419354838</v>
+        <v>198.13709677419354</v>
       </c>
       <c r="AJ30">
-        <v>195.66129032258064</v>
+        <v>197.76612903225808</v>
       </c>
       <c r="AK30">
-        <v>201.19354838709677</v>
+        <v>199.04838709677421</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -3924,112 +7767,112 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>203.38709677419354</v>
+        <v>197.75</v>
       </c>
       <c r="C31">
-        <v>199.79032258064515</v>
+        <v>208.01612903225808</v>
       </c>
       <c r="D31">
-        <v>202.37096774193549</v>
+        <v>205.37903225806451</v>
       </c>
       <c r="E31">
-        <v>206.31451612903226</v>
+        <v>202.04838709677421</v>
       </c>
       <c r="F31">
-        <v>197.85483870967741</v>
+        <v>200.95161290322579</v>
       </c>
       <c r="G31">
-        <v>199.39516129032259</v>
+        <v>209.67741935483872</v>
       </c>
       <c r="H31">
-        <v>202.68548387096774</v>
+        <v>201.04838709677421</v>
       </c>
       <c r="I31">
-        <v>208.56451612903226</v>
+        <v>202.26612903225808</v>
       </c>
       <c r="J31">
-        <v>193.67741935483872</v>
+        <v>196.7258064516129</v>
       </c>
       <c r="K31">
-        <v>196.9758064516129</v>
+        <v>196.34677419354838</v>
       </c>
       <c r="L31">
-        <v>197.05645161290323</v>
+        <v>196.85483870967741</v>
       </c>
       <c r="M31">
-        <v>189.40322580645162</v>
+        <v>203.95161290322579</v>
       </c>
       <c r="N31">
-        <v>205.56451612903226</v>
+        <v>194.00806451612902</v>
       </c>
       <c r="O31">
-        <v>196.11290322580646</v>
+        <v>211.44354838709677</v>
       </c>
       <c r="P31">
-        <v>201.66129032258064</v>
+        <v>196.80645161290323</v>
       </c>
       <c r="Q31">
-        <v>191.74193548387098</v>
+        <v>197.44354838709677</v>
       </c>
       <c r="R31">
-        <v>207.57258064516128</v>
+        <v>203.59677419354838</v>
       </c>
       <c r="S31">
-        <v>202.45967741935485</v>
+        <v>195.82258064516128</v>
       </c>
       <c r="T31">
-        <v>210.58064516129033</v>
+        <v>206.10483870967741</v>
       </c>
       <c r="U31">
-        <v>198.92741935483872</v>
+        <v>198.42741935483872</v>
       </c>
       <c r="V31">
-        <v>198.86290322580646</v>
+        <v>205.18548387096774</v>
       </c>
       <c r="W31">
-        <v>197.17741935483872</v>
+        <v>203.07258064516128</v>
       </c>
       <c r="X31">
-        <v>193.17741935483872</v>
+        <v>200.41129032258064</v>
       </c>
       <c r="Y31">
-        <v>191.42741935483872</v>
+        <v>205.61290322580646</v>
       </c>
       <c r="Z31">
-        <v>201.43548387096774</v>
+        <v>193.81451612903226</v>
       </c>
       <c r="AA31">
-        <v>192.79032258064515</v>
+        <v>199.62903225806451</v>
       </c>
       <c r="AB31">
-        <v>198.89516129032259</v>
+        <v>205.34677419354838</v>
       </c>
       <c r="AC31">
-        <v>197.12096774193549</v>
+        <v>194.04838709677421</v>
       </c>
       <c r="AD31">
-        <v>196.92741935483872</v>
+        <v>205.12096774193549</v>
       </c>
       <c r="AE31">
         <v>1000</v>
       </c>
       <c r="AF31">
-        <v>204.68548387096774</v>
+        <v>193.04838709677421</v>
       </c>
       <c r="AG31">
-        <v>203.2258064516129</v>
+        <v>201.26612903225808</v>
       </c>
       <c r="AH31">
-        <v>207.79838709677421</v>
+        <v>209.48387096774192</v>
       </c>
       <c r="AI31">
-        <v>206.83064516129033</v>
+        <v>201.75</v>
       </c>
       <c r="AJ31">
-        <v>203.45161290322579</v>
+        <v>202.99193548387098</v>
       </c>
       <c r="AK31">
-        <v>199.95967741935485</v>
+        <v>195.23387096774192</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -4037,112 +7880,112 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>200.5</v>
+        <v>207.23387096774192</v>
       </c>
       <c r="C32">
-        <v>198.62096774193549</v>
+        <v>202.21774193548387</v>
       </c>
       <c r="D32">
-        <v>202.41129032258064</v>
+        <v>204.31451612903226</v>
       </c>
       <c r="E32">
-        <v>201.95967741935485</v>
+        <v>202.90322580645162</v>
       </c>
       <c r="F32">
-        <v>204.45967741935485</v>
+        <v>204.03225806451613</v>
       </c>
       <c r="G32">
-        <v>207.25</v>
+        <v>196.10483870967741</v>
       </c>
       <c r="H32">
-        <v>191.46774193548387</v>
+        <v>193.09677419354838</v>
       </c>
       <c r="I32">
-        <v>200.03225806451613</v>
+        <v>190</v>
       </c>
       <c r="J32">
-        <v>193.5241935483871</v>
+        <v>204.91129032258064</v>
       </c>
       <c r="K32">
-        <v>206.39516129032259</v>
+        <v>199.38709677419354</v>
       </c>
       <c r="L32">
-        <v>202.92741935483872</v>
+        <v>203.35483870967741</v>
       </c>
       <c r="M32">
-        <v>193.07258064516128</v>
+        <v>195.14516129032259</v>
       </c>
       <c r="N32">
-        <v>203.39516129032259</v>
+        <v>193.41129032258064</v>
       </c>
       <c r="O32">
-        <v>198.57258064516128</v>
+        <v>202.33064516129033</v>
       </c>
       <c r="P32">
-        <v>196.16935483870967</v>
+        <v>201.24193548387098</v>
       </c>
       <c r="Q32">
-        <v>199.75</v>
+        <v>201.03225806451613</v>
       </c>
       <c r="R32">
-        <v>208.20161290322579</v>
+        <v>197.03225806451613</v>
       </c>
       <c r="S32">
-        <v>192.76612903225808</v>
+        <v>198.33870967741936</v>
       </c>
       <c r="T32">
-        <v>200.06451612903226</v>
+        <v>192.45161290322579</v>
       </c>
       <c r="U32">
-        <v>206.0241935483871</v>
+        <v>194.39516129032259</v>
       </c>
       <c r="V32">
-        <v>195.00806451612902</v>
+        <v>199.69354838709677</v>
       </c>
       <c r="W32">
-        <v>190.25</v>
+        <v>202.06451612903226</v>
       </c>
       <c r="X32">
-        <v>187.48387096774192</v>
+        <v>208.62903225806451</v>
       </c>
       <c r="Y32">
-        <v>200.91935483870967</v>
+        <v>189.94354838709677</v>
       </c>
       <c r="Z32">
-        <v>194.70161290322579</v>
+        <v>207.80645161290323</v>
       </c>
       <c r="AA32">
-        <v>202.38709677419354</v>
+        <v>196.70161290322579</v>
       </c>
       <c r="AB32">
-        <v>194.71774193548387</v>
+        <v>200.32258064516128</v>
       </c>
       <c r="AC32">
-        <v>207.93548387096774</v>
+        <v>206.4758064516129</v>
       </c>
       <c r="AD32">
-        <v>195.51612903225808</v>
+        <v>195.5</v>
       </c>
       <c r="AE32">
-        <v>204.68548387096774</v>
+        <v>193.04838709677421</v>
       </c>
       <c r="AF32">
         <v>1000</v>
       </c>
       <c r="AG32">
-        <v>201.07258064516128</v>
+        <v>203.73387096774192</v>
       </c>
       <c r="AH32">
-        <v>201.20967741935485</v>
+        <v>198.54838709677421</v>
       </c>
       <c r="AI32">
-        <v>195.94354838709677</v>
+        <v>194.82258064516128</v>
       </c>
       <c r="AJ32">
-        <v>201.44354838709677</v>
+        <v>195.70967741935485</v>
       </c>
       <c r="AK32">
-        <v>203.93548387096774</v>
+        <v>204.23387096774192</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
@@ -4150,112 +7993,112 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>188.07258064516128</v>
+        <v>204.86290322580646</v>
       </c>
       <c r="C33">
-        <v>188.58870967741936</v>
+        <v>193.41935483870967</v>
       </c>
       <c r="D33">
-        <v>199.92741935483872</v>
+        <v>212.68548387096774</v>
       </c>
       <c r="E33">
-        <v>200.04838709677421</v>
+        <v>206.73387096774192</v>
       </c>
       <c r="F33">
-        <v>193.60483870967741</v>
+        <v>206.43548387096774</v>
       </c>
       <c r="G33">
-        <v>200.7258064516129</v>
+        <v>195.83870967741936</v>
       </c>
       <c r="H33">
-        <v>203.11290322580646</v>
+        <v>201.88709677419354</v>
       </c>
       <c r="I33">
-        <v>195.90322580645162</v>
+        <v>204.75</v>
       </c>
       <c r="J33">
-        <v>202.95967741935485</v>
+        <v>197.29032258064515</v>
       </c>
       <c r="K33">
-        <v>206.44354838709677</v>
+        <v>202.13709677419354</v>
       </c>
       <c r="L33">
-        <v>197.96774193548387</v>
+        <v>197.29838709677421</v>
       </c>
       <c r="M33">
-        <v>198.59677419354838</v>
+        <v>205.31451612903226</v>
       </c>
       <c r="N33">
-        <v>192.78225806451613</v>
+        <v>190.65322580645162</v>
       </c>
       <c r="O33">
-        <v>198.35483870967741</v>
+        <v>190.31451612903226</v>
       </c>
       <c r="P33">
-        <v>195.06451612903226</v>
+        <v>205.31451612903226</v>
       </c>
       <c r="Q33">
-        <v>198.03225806451613</v>
+        <v>198.46774193548387</v>
       </c>
       <c r="R33">
-        <v>195.33870967741936</v>
+        <v>203.74193548387098</v>
       </c>
       <c r="S33">
-        <v>195.78225806451613</v>
+        <v>209.39516129032259</v>
       </c>
       <c r="T33">
-        <v>187.70161290322579</v>
+        <v>197.30645161290323</v>
       </c>
       <c r="U33">
-        <v>197.20161290322579</v>
+        <v>199.35483870967741</v>
       </c>
       <c r="V33">
+        <v>201.89516129032259</v>
+      </c>
+      <c r="W33">
+        <v>208.60483870967741</v>
+      </c>
+      <c r="X33">
         <v>200.40322580645162</v>
       </c>
-      <c r="W33">
-        <v>204.70967741935485</v>
-      </c>
-      <c r="X33">
-        <v>198.84677419354838</v>
-      </c>
       <c r="Y33">
-        <v>189.71774193548387</v>
+        <v>189.20161290322579</v>
       </c>
       <c r="Z33">
-        <v>203.07258064516128</v>
+        <v>195.96774193548387</v>
       </c>
       <c r="AA33">
-        <v>202.35483870967741</v>
+        <v>201.19354838709677</v>
       </c>
       <c r="AB33">
-        <v>204.55645161290323</v>
+        <v>199.83064516129033</v>
       </c>
       <c r="AC33">
-        <v>195.94354838709677</v>
+        <v>186.19354838709677</v>
       </c>
       <c r="AD33">
-        <v>199.87096774193549</v>
+        <v>198.74193548387098</v>
       </c>
       <c r="AE33">
-        <v>203.2258064516129</v>
+        <v>201.26612903225808</v>
       </c>
       <c r="AF33">
-        <v>201.07258064516128</v>
+        <v>203.73387096774192</v>
       </c>
       <c r="AG33">
         <v>1000</v>
       </c>
       <c r="AH33">
-        <v>203.33870967741936</v>
+        <v>198.96774193548387</v>
       </c>
       <c r="AI33">
-        <v>200.74193548387098</v>
+        <v>198.64516129032259</v>
       </c>
       <c r="AJ33">
-        <v>188.01612903225808</v>
+        <v>197.7258064516129</v>
       </c>
       <c r="AK33">
-        <v>202.75</v>
+        <v>202.90322580645162</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
@@ -4263,112 +8106,112 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>209.11290322580646</v>
+        <v>197.83870967741936</v>
       </c>
       <c r="C34">
-        <v>198.40322580645162</v>
+        <v>198.12096774193549</v>
       </c>
       <c r="D34">
-        <v>202.9758064516129</v>
+        <v>192.79032258064515</v>
       </c>
       <c r="E34">
-        <v>203.37903225806451</v>
+        <v>202.81451612903226</v>
       </c>
       <c r="F34">
-        <v>196.06451612903226</v>
+        <v>197.13709677419354</v>
       </c>
       <c r="G34">
-        <v>203.5241935483871</v>
+        <v>197.75</v>
       </c>
       <c r="H34">
-        <v>206.08064516129033</v>
+        <v>190.32258064516128</v>
       </c>
       <c r="I34">
-        <v>195.91935483870967</v>
+        <v>195.09677419354838</v>
       </c>
       <c r="J34">
-        <v>192.32258064516128</v>
+        <v>198.74193548387098</v>
       </c>
       <c r="K34">
-        <v>196.38709677419354</v>
+        <v>195.12903225806451</v>
       </c>
       <c r="L34">
-        <v>199.33870967741936</v>
+        <v>201.91129032258064</v>
       </c>
       <c r="M34">
-        <v>201.84677419354838</v>
+        <v>192.63709677419354</v>
       </c>
       <c r="N34">
-        <v>202.23387096774192</v>
+        <v>198.86290322580646</v>
       </c>
       <c r="O34">
-        <v>196.28225806451613</v>
+        <v>200.41129032258064</v>
       </c>
       <c r="P34">
-        <v>198.5</v>
+        <v>194.54032258064515</v>
       </c>
       <c r="Q34">
-        <v>189.5</v>
+        <v>196.68548387096774</v>
       </c>
       <c r="R34">
-        <v>190.45161290322579</v>
+        <v>197.9758064516129</v>
       </c>
       <c r="S34">
-        <v>195.59677419354838</v>
+        <v>210.0241935483871</v>
       </c>
       <c r="T34">
-        <v>204.32258064516128</v>
+        <v>202.32258064516128</v>
       </c>
       <c r="U34">
-        <v>192.37096774193549</v>
+        <v>197.95967741935485</v>
       </c>
       <c r="V34">
-        <v>196.82258064516128</v>
+        <v>197.62096774193549</v>
       </c>
       <c r="W34">
-        <v>200.79838709677421</v>
+        <v>198.35483870967741</v>
       </c>
       <c r="X34">
-        <v>202.20161290322579</v>
+        <v>205.41129032258064</v>
       </c>
       <c r="Y34">
-        <v>192.32258064516128</v>
+        <v>200.31451612903226</v>
       </c>
       <c r="Z34">
-        <v>197.91935483870967</v>
+        <v>197.2741935483871</v>
       </c>
       <c r="AA34">
-        <v>192.62903225806451</v>
+        <v>198.85483870967741</v>
       </c>
       <c r="AB34">
-        <v>202.67741935483872</v>
+        <v>191.61290322580646</v>
       </c>
       <c r="AC34">
-        <v>190.11290322580646</v>
+        <v>204.5241935483871</v>
       </c>
       <c r="AD34">
-        <v>204.39516129032259</v>
+        <v>200.5</v>
       </c>
       <c r="AE34">
-        <v>207.79838709677421</v>
+        <v>209.48387096774192</v>
       </c>
       <c r="AF34">
-        <v>201.20967741935485</v>
+        <v>198.54838709677421</v>
       </c>
       <c r="AG34">
-        <v>203.33870967741936</v>
+        <v>198.96774193548387</v>
       </c>
       <c r="AH34">
         <v>1000</v>
       </c>
       <c r="AI34">
-        <v>189.87903225806451</v>
+        <v>202.12903225806451</v>
       </c>
       <c r="AJ34">
-        <v>204.64516129032259</v>
+        <v>199.16935483870967</v>
       </c>
       <c r="AK34">
-        <v>193.85483870967741</v>
+        <v>203.33870967741936</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
@@ -4376,112 +8219,112 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>210.38709677419354</v>
+        <v>201.53225806451613</v>
       </c>
       <c r="C35">
-        <v>199.43548387096774</v>
+        <v>190.46774193548387</v>
       </c>
       <c r="D35">
-        <v>204.49193548387098</v>
+        <v>198.30645161290323</v>
       </c>
       <c r="E35">
-        <v>207.24193548387098</v>
+        <v>204.34677419354838</v>
       </c>
       <c r="F35">
-        <v>200.33870967741936</v>
+        <v>199.57258064516128</v>
       </c>
       <c r="G35">
-        <v>207.67741935483872</v>
+        <v>200.48387096774192</v>
       </c>
       <c r="H35">
-        <v>195.00806451612902</v>
+        <v>196.45967741935485</v>
       </c>
       <c r="I35">
-        <v>204.78225806451613</v>
+        <v>212.60483870967741</v>
       </c>
       <c r="J35">
-        <v>196.40322580645162</v>
+        <v>196.75</v>
       </c>
       <c r="K35">
-        <v>200.71774193548387</v>
+        <v>200.53225806451613</v>
       </c>
       <c r="L35">
-        <v>200.96774193548387</v>
+        <v>207.42741935483872</v>
       </c>
       <c r="M35">
-        <v>200.20161290322579</v>
+        <v>192.5</v>
       </c>
       <c r="N35">
-        <v>204.13709677419354</v>
+        <v>209.89516129032259</v>
       </c>
       <c r="O35">
-        <v>207.45967741935485</v>
+        <v>196.61290322580646</v>
       </c>
       <c r="P35">
-        <v>205.36290322580646</v>
+        <v>199.58870967741936</v>
       </c>
       <c r="Q35">
-        <v>198.75</v>
+        <v>193.95967741935485</v>
       </c>
       <c r="R35">
-        <v>200.68548387096774</v>
+        <v>203.57258064516128</v>
       </c>
       <c r="S35">
-        <v>202.42741935483872</v>
+        <v>199.01612903225808</v>
       </c>
       <c r="T35">
-        <v>205.5241935483871</v>
+        <v>203.33870967741936</v>
       </c>
       <c r="U35">
-        <v>195.92741935483872</v>
+        <v>207.34677419354838</v>
       </c>
       <c r="V35">
-        <v>206.2741935483871</v>
+        <v>197.21774193548387</v>
       </c>
       <c r="W35">
-        <v>198.63709677419354</v>
+        <v>189.33064516129033</v>
       </c>
       <c r="X35">
-        <v>195.98387096774192</v>
+        <v>202.23387096774192</v>
       </c>
       <c r="Y35">
-        <v>204.49193548387098</v>
+        <v>198.71774193548387</v>
       </c>
       <c r="Z35">
-        <v>209.38709677419354</v>
+        <v>196.83064516129033</v>
       </c>
       <c r="AA35">
-        <v>198.38709677419354</v>
+        <v>191.64516129032259</v>
       </c>
       <c r="AB35">
-        <v>194.34677419354838</v>
+        <v>198.45161290322579</v>
       </c>
       <c r="AC35">
-        <v>193.91935483870967</v>
+        <v>199.10483870967741</v>
       </c>
       <c r="AD35">
-        <v>198.59677419354838</v>
+        <v>198.13709677419354</v>
       </c>
       <c r="AE35">
-        <v>206.83064516129033</v>
+        <v>201.75</v>
       </c>
       <c r="AF35">
-        <v>195.94354838709677</v>
+        <v>194.82258064516128</v>
       </c>
       <c r="AG35">
-        <v>200.74193548387098</v>
+        <v>198.64516129032259</v>
       </c>
       <c r="AH35">
-        <v>189.87903225806451</v>
+        <v>202.12903225806451</v>
       </c>
       <c r="AI35">
         <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>195.35483870967741</v>
+        <v>193.86290322580646</v>
       </c>
       <c r="AK35">
-        <v>203.54838709677421</v>
+        <v>199.95161290322579</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
@@ -4489,112 +8332,112 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>201.65322580645162</v>
+        <v>206.12096774193549</v>
       </c>
       <c r="C36">
-        <v>196.32258064516128</v>
+        <v>202.45967741935485</v>
       </c>
       <c r="D36">
-        <v>199.60483870967741</v>
+        <v>198.46774193548387</v>
       </c>
       <c r="E36">
-        <v>196.39516129032259</v>
+        <v>196.85483870967741</v>
       </c>
       <c r="F36">
-        <v>196.62903225806451</v>
+        <v>196.71774193548387</v>
       </c>
       <c r="G36">
-        <v>196.98387096774192</v>
+        <v>195.08064516129033</v>
       </c>
       <c r="H36">
-        <v>204.70967741935485</v>
+        <v>207.87096774193549</v>
       </c>
       <c r="I36">
-        <v>198.7741935483871</v>
+        <v>209</v>
       </c>
       <c r="J36">
-        <v>201.07258064516128</v>
+        <v>204.75</v>
       </c>
       <c r="K36">
-        <v>189.29032258064515</v>
+        <v>197.19354838709677</v>
       </c>
       <c r="L36">
-        <v>206.33870967741936</v>
+        <v>188.33064516129033</v>
       </c>
       <c r="M36">
-        <v>198.18548387096774</v>
+        <v>194.23387096774192</v>
       </c>
       <c r="N36">
-        <v>197.69354838709677</v>
+        <v>201.01612903225808</v>
       </c>
       <c r="O36">
-        <v>208.87903225806451</v>
+        <v>193.91129032258064</v>
       </c>
       <c r="P36">
-        <v>204.87903225806451</v>
+        <v>203.11290322580646</v>
       </c>
       <c r="Q36">
-        <v>189.91935483870967</v>
+        <v>207.83870967741936</v>
       </c>
       <c r="R36">
-        <v>204.82258064516128</v>
+        <v>204.49193548387098</v>
       </c>
       <c r="S36">
-        <v>195.54032258064515</v>
+        <v>196.37096774193549</v>
       </c>
       <c r="T36">
-        <v>201.38709677419354</v>
+        <v>199.2258064516129</v>
       </c>
       <c r="U36">
-        <v>183.67741935483872</v>
+        <v>201.21774193548387</v>
       </c>
       <c r="V36">
-        <v>204.49193548387098</v>
+        <v>209.45967741935485</v>
       </c>
       <c r="W36">
-        <v>201.79032258064515</v>
+        <v>200.89516129032259</v>
       </c>
       <c r="X36">
-        <v>200.25806451612902</v>
+        <v>190.76612903225808</v>
       </c>
       <c r="Y36">
-        <v>200.83870967741936</v>
+        <v>201.11290322580646</v>
       </c>
       <c r="Z36">
-        <v>202.79838709677421</v>
+        <v>203.20967741935485</v>
       </c>
       <c r="AA36">
-        <v>201.40322580645162</v>
+        <v>205.20967741935485</v>
       </c>
       <c r="AB36">
-        <v>195.17741935483872</v>
+        <v>202.73387096774192</v>
       </c>
       <c r="AC36">
-        <v>203.89516129032259</v>
+        <v>198.0241935483871</v>
       </c>
       <c r="AD36">
-        <v>195.66129032258064</v>
+        <v>197.76612903225808</v>
       </c>
       <c r="AE36">
-        <v>203.45161290322579</v>
+        <v>202.99193548387098</v>
       </c>
       <c r="AF36">
-        <v>201.44354838709677</v>
+        <v>195.70967741935485</v>
       </c>
       <c r="AG36">
-        <v>188.01612903225808</v>
+        <v>197.7258064516129</v>
       </c>
       <c r="AH36">
-        <v>204.64516129032259</v>
+        <v>199.16935483870967</v>
       </c>
       <c r="AI36">
-        <v>195.35483870967741</v>
+        <v>193.86290322580646</v>
       </c>
       <c r="AJ36">
         <v>1000</v>
       </c>
       <c r="AK36">
-        <v>204.26612903225808</v>
+        <v>211.92741935483872</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
@@ -4602,109 +8445,109 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>188</v>
+        <v>202.63709677419354</v>
       </c>
       <c r="C37">
-        <v>198.75806451612902</v>
+        <v>204.4758064516129</v>
       </c>
       <c r="D37">
-        <v>202.57258064516128</v>
+        <v>203.96774193548387</v>
       </c>
       <c r="E37">
-        <v>195.56451612903226</v>
+        <v>202.49193548387098</v>
       </c>
       <c r="F37">
-        <v>198.66935483870967</v>
+        <v>212.12903225806451</v>
       </c>
       <c r="G37">
-        <v>198.34677419354838</v>
+        <v>204.23387096774192</v>
       </c>
       <c r="H37">
-        <v>200.98387096774192</v>
+        <v>196.89516129032259</v>
       </c>
       <c r="I37">
-        <v>191.91935483870967</v>
+        <v>187.23387096774192</v>
       </c>
       <c r="J37">
-        <v>193.92741935483872</v>
+        <v>195.06451612903226</v>
       </c>
       <c r="K37">
-        <v>213.54838709677421</v>
+        <v>203.09677419354838</v>
       </c>
       <c r="L37">
-        <v>191.42741935483872</v>
+        <v>194.79838709677421</v>
       </c>
       <c r="M37">
-        <v>203.43548387096774</v>
+        <v>199.33064516129033</v>
       </c>
       <c r="N37">
-        <v>199.30645161290323</v>
+        <v>197.95161290322579</v>
       </c>
       <c r="O37">
-        <v>197.41935483870967</v>
+        <v>196.81451612903226</v>
       </c>
       <c r="P37">
-        <v>201.04838709677421</v>
+        <v>197.95161290322579</v>
       </c>
       <c r="Q37">
-        <v>202.39516129032259</v>
+        <v>201.24193548387098</v>
       </c>
       <c r="R37">
-        <v>199.17741935483872</v>
+        <v>204.2741935483871</v>
       </c>
       <c r="S37">
-        <v>202.93548387096774</v>
+        <v>204.44354838709677</v>
       </c>
       <c r="T37">
+        <v>196.12096774193549</v>
+      </c>
+      <c r="U37">
+        <v>200.87903225806451</v>
+      </c>
+      <c r="V37">
+        <v>199.94354838709677</v>
+      </c>
+      <c r="W37">
+        <v>204.69354838709677</v>
+      </c>
+      <c r="X37">
+        <v>193.86290322580646</v>
+      </c>
+      <c r="Y37">
+        <v>195.5241935483871</v>
+      </c>
+      <c r="Z37">
+        <v>204.55645161290323</v>
+      </c>
+      <c r="AA37">
+        <v>201.61290322580646</v>
+      </c>
+      <c r="AB37">
+        <v>204.75806451612902</v>
+      </c>
+      <c r="AC37">
+        <v>205.00806451612902</v>
+      </c>
+      <c r="AD37">
+        <v>199.04838709677421</v>
+      </c>
+      <c r="AE37">
+        <v>195.23387096774192</v>
+      </c>
+      <c r="AF37">
+        <v>204.23387096774192</v>
+      </c>
+      <c r="AG37">
+        <v>202.90322580645162</v>
+      </c>
+      <c r="AH37">
+        <v>203.33870967741936</v>
+      </c>
+      <c r="AI37">
         <v>199.95161290322579</v>
       </c>
-      <c r="U37">
-        <v>201.7258064516129</v>
-      </c>
-      <c r="V37">
-        <v>195.07258064516128</v>
-      </c>
-      <c r="W37">
-        <v>195.82258064516128</v>
-      </c>
-      <c r="X37">
-        <v>203.16129032258064</v>
-      </c>
-      <c r="Y37">
-        <v>204.68548387096774</v>
-      </c>
-      <c r="Z37">
-        <v>198.06451612903226</v>
-      </c>
-      <c r="AA37">
-        <v>198.0241935483871</v>
-      </c>
-      <c r="AB37">
-        <v>193.38709677419354</v>
-      </c>
-      <c r="AC37">
-        <v>198.06451612903226</v>
-      </c>
-      <c r="AD37">
-        <v>201.19354838709677</v>
-      </c>
-      <c r="AE37">
-        <v>199.95967741935485</v>
-      </c>
-      <c r="AF37">
-        <v>203.93548387096774</v>
-      </c>
-      <c r="AG37">
-        <v>202.75</v>
-      </c>
-      <c r="AH37">
-        <v>193.85483870967741</v>
-      </c>
-      <c r="AI37">
-        <v>203.54838709677421</v>
-      </c>
       <c r="AJ37">
-        <v>204.26612903225808</v>
+        <v>211.92741935483872</v>
       </c>
       <c r="AK37">
         <v>1000</v>
